--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
@@ -5565,7 +5565,7 @@
         <v>100.0</v>
       </c>
       <c r="G202" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H202"/>
       <c r="I202"/>
@@ -5592,7 +5592,7 @@
         <v>100.0</v>
       </c>
       <c r="G203" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H203"/>
       <c r="I203"/>
@@ -5619,7 +5619,7 @@
         <v>3000.0</v>
       </c>
       <c r="G204" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H204"/>
       <c r="I204"/>
@@ -5646,7 +5646,7 @@
         <v>3000.0</v>
       </c>
       <c r="G205" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H205"/>
       <c r="I205"/>
@@ -5673,7 +5673,7 @@
         <v>100.0</v>
       </c>
       <c r="G206" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H206"/>
       <c r="I206"/>
@@ -5700,7 +5700,7 @@
         <v>100.0</v>
       </c>
       <c r="G207" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H207"/>
       <c r="I207"/>
@@ -5727,7 +5727,7 @@
         <v>3000.0</v>
       </c>
       <c r="G208" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H208"/>
       <c r="I208"/>
@@ -5754,7 +5754,7 @@
         <v>3000.0</v>
       </c>
       <c r="G209" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H209"/>
       <c r="I209"/>
@@ -5781,7 +5781,7 @@
         <v>100.0</v>
       </c>
       <c r="G210" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H210"/>
       <c r="I210"/>
@@ -5808,7 +5808,7 @@
         <v>100.0</v>
       </c>
       <c r="G211" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H211"/>
       <c r="I211"/>
@@ -5835,7 +5835,7 @@
         <v>3000.0</v>
       </c>
       <c r="G212" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H212"/>
       <c r="I212"/>
@@ -5862,7 +5862,7 @@
         <v>3000.0</v>
       </c>
       <c r="G213" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H213"/>
       <c r="I213"/>
@@ -5889,7 +5889,7 @@
         <v>100.0</v>
       </c>
       <c r="G214" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H214"/>
       <c r="I214"/>
@@ -5916,7 +5916,7 @@
         <v>100.0</v>
       </c>
       <c r="G215" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H215"/>
       <c r="I215"/>
@@ -5943,7 +5943,7 @@
         <v>3000.0</v>
       </c>
       <c r="G216" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H216"/>
       <c r="I216"/>
@@ -5970,7 +5970,7 @@
         <v>3000.0</v>
       </c>
       <c r="G217" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H217"/>
       <c r="I217"/>
@@ -5997,7 +5997,7 @@
         <v>100.0</v>
       </c>
       <c r="G218" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H218"/>
       <c r="I218"/>
@@ -6024,7 +6024,7 @@
         <v>100.0</v>
       </c>
       <c r="G219" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H219"/>
       <c r="I219"/>
@@ -6051,7 +6051,7 @@
         <v>3000.0</v>
       </c>
       <c r="G220" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H220"/>
       <c r="I220"/>
@@ -6078,7 +6078,7 @@
         <v>3000.0</v>
       </c>
       <c r="G221" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H221"/>
       <c r="I221"/>
@@ -6105,7 +6105,7 @@
         <v>100.0</v>
       </c>
       <c r="G222" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H222"/>
       <c r="I222"/>
@@ -6132,7 +6132,7 @@
         <v>100.0</v>
       </c>
       <c r="G223" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H223"/>
       <c r="I223"/>
@@ -6159,7 +6159,7 @@
         <v>3000.0</v>
       </c>
       <c r="G224" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H224"/>
       <c r="I224"/>
@@ -6186,7 +6186,7 @@
         <v>3000.0</v>
       </c>
       <c r="G225" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H225"/>
       <c r="I225"/>
@@ -6213,7 +6213,7 @@
         <v>100.0</v>
       </c>
       <c r="G226" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H226"/>
       <c r="I226"/>
@@ -6240,7 +6240,7 @@
         <v>100.0</v>
       </c>
       <c r="G227" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H227"/>
       <c r="I227"/>
@@ -6267,7 +6267,7 @@
         <v>3000.0</v>
       </c>
       <c r="G228" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H228"/>
       <c r="I228"/>
@@ -6294,7 +6294,7 @@
         <v>3000.0</v>
       </c>
       <c r="G229" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H229"/>
       <c r="I229"/>
@@ -6321,7 +6321,7 @@
         <v>100.0</v>
       </c>
       <c r="G230" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H230"/>
       <c r="I230"/>
@@ -6348,7 +6348,7 @@
         <v>100.0</v>
       </c>
       <c r="G231" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H231"/>
       <c r="I231"/>
@@ -6375,7 +6375,7 @@
         <v>3000.0</v>
       </c>
       <c r="G232" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H232"/>
       <c r="I232"/>
@@ -6402,7 +6402,7 @@
         <v>3000.0</v>
       </c>
       <c r="G233" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H233"/>
       <c r="I233"/>
@@ -6429,7 +6429,7 @@
         <v>100.0</v>
       </c>
       <c r="G234" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H234"/>
       <c r="I234"/>
@@ -6456,7 +6456,7 @@
         <v>100.0</v>
       </c>
       <c r="G235" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H235"/>
       <c r="I235"/>
@@ -6483,7 +6483,7 @@
         <v>3000.0</v>
       </c>
       <c r="G236" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H236"/>
       <c r="I236"/>
@@ -6510,7 +6510,7 @@
         <v>3000.0</v>
       </c>
       <c r="G237" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H237"/>
       <c r="I237"/>
@@ -6537,7 +6537,7 @@
         <v>100.0</v>
       </c>
       <c r="G238" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H238"/>
       <c r="I238"/>
@@ -6564,7 +6564,7 @@
         <v>100.0</v>
       </c>
       <c r="G239" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H239"/>
       <c r="I239"/>
@@ -6591,7 +6591,7 @@
         <v>3000.0</v>
       </c>
       <c r="G240" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H240"/>
       <c r="I240"/>
@@ -6618,7 +6618,7 @@
         <v>3000.0</v>
       </c>
       <c r="G241" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H241"/>
       <c r="I241"/>
@@ -6645,7 +6645,7 @@
         <v>100.0</v>
       </c>
       <c r="G242" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H242"/>
       <c r="I242"/>
@@ -6672,7 +6672,7 @@
         <v>100.0</v>
       </c>
       <c r="G243" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H243"/>
       <c r="I243"/>
@@ -6699,7 +6699,7 @@
         <v>3000.0</v>
       </c>
       <c r="G244" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H244"/>
       <c r="I244"/>
@@ -6726,7 +6726,7 @@
         <v>3000.0</v>
       </c>
       <c r="G245" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H245"/>
       <c r="I245"/>
@@ -6753,7 +6753,7 @@
         <v>100.0</v>
       </c>
       <c r="G246" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H246"/>
       <c r="I246"/>
@@ -6780,7 +6780,7 @@
         <v>100.0</v>
       </c>
       <c r="G247" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H247"/>
       <c r="I247"/>
@@ -6807,7 +6807,7 @@
         <v>3000.0</v>
       </c>
       <c r="G248" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H248"/>
       <c r="I248"/>
@@ -6834,7 +6834,7 @@
         <v>3000.0</v>
       </c>
       <c r="G249" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H249"/>
       <c r="I249"/>
@@ -6861,7 +6861,7 @@
         <v>100.0</v>
       </c>
       <c r="G250" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H250"/>
       <c r="I250"/>
@@ -6888,7 +6888,7 @@
         <v>100.0</v>
       </c>
       <c r="G251" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H251"/>
       <c r="I251"/>
@@ -6915,7 +6915,7 @@
         <v>3000.0</v>
       </c>
       <c r="G252" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H252"/>
       <c r="I252"/>
@@ -6942,7 +6942,7 @@
         <v>3000.0</v>
       </c>
       <c r="G253" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H253"/>
       <c r="I253"/>
@@ -6969,7 +6969,7 @@
         <v>100.0</v>
       </c>
       <c r="G254" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H254"/>
       <c r="I254"/>
@@ -6996,7 +6996,7 @@
         <v>100.0</v>
       </c>
       <c r="G255" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H255"/>
       <c r="I255"/>
@@ -7023,7 +7023,7 @@
         <v>3000.0</v>
       </c>
       <c r="G256" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H256"/>
       <c r="I256"/>
@@ -7050,7 +7050,7 @@
         <v>3000.0</v>
       </c>
       <c r="G257" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H257"/>
       <c r="I257"/>
@@ -7077,7 +7077,7 @@
         <v>100.0</v>
       </c>
       <c r="G258" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H258"/>
       <c r="I258"/>
@@ -7104,7 +7104,7 @@
         <v>100.0</v>
       </c>
       <c r="G259" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H259"/>
       <c r="I259"/>
@@ -7131,7 +7131,7 @@
         <v>3000.0</v>
       </c>
       <c r="G260" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H260"/>
       <c r="I260"/>
@@ -7158,7 +7158,7 @@
         <v>3000.0</v>
       </c>
       <c r="G261" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H261"/>
       <c r="I261"/>
@@ -7185,7 +7185,7 @@
         <v>100.0</v>
       </c>
       <c r="G262" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H262"/>
       <c r="I262"/>
@@ -7212,7 +7212,7 @@
         <v>100.0</v>
       </c>
       <c r="G263" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H263"/>
       <c r="I263"/>
@@ -7239,7 +7239,7 @@
         <v>3000.0</v>
       </c>
       <c r="G264" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H264"/>
       <c r="I264"/>
@@ -7266,7 +7266,7 @@
         <v>3000.0</v>
       </c>
       <c r="G265" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H265"/>
       <c r="I265"/>
@@ -7293,7 +7293,7 @@
         <v>100.0</v>
       </c>
       <c r="G266" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H266"/>
       <c r="I266"/>
@@ -7320,7 +7320,7 @@
         <v>100.0</v>
       </c>
       <c r="G267" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H267"/>
       <c r="I267"/>
@@ -7347,7 +7347,7 @@
         <v>3000.0</v>
       </c>
       <c r="G268" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H268"/>
       <c r="I268"/>
@@ -7374,7 +7374,7 @@
         <v>3000.0</v>
       </c>
       <c r="G269" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H269"/>
       <c r="I269"/>
@@ -7401,7 +7401,7 @@
         <v>100.0</v>
       </c>
       <c r="G270" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H270"/>
       <c r="I270"/>
@@ -7428,7 +7428,7 @@
         <v>100.0</v>
       </c>
       <c r="G271" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H271"/>
       <c r="I271"/>
@@ -7455,7 +7455,7 @@
         <v>3000.0</v>
       </c>
       <c r="G272" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H272"/>
       <c r="I272"/>
@@ -7482,7 +7482,7 @@
         <v>3000.0</v>
       </c>
       <c r="G273" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H273"/>
       <c r="I273"/>
@@ -7509,7 +7509,7 @@
         <v>100.0</v>
       </c>
       <c r="G274" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H274"/>
       <c r="I274"/>
@@ -7536,7 +7536,7 @@
         <v>100.0</v>
       </c>
       <c r="G275" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H275"/>
       <c r="I275"/>
@@ -7563,7 +7563,7 @@
         <v>3000.0</v>
       </c>
       <c r="G276" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H276"/>
       <c r="I276"/>
@@ -7590,7 +7590,7 @@
         <v>3000.0</v>
       </c>
       <c r="G277" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H277"/>
       <c r="I277"/>
@@ -7617,7 +7617,7 @@
         <v>100.0</v>
       </c>
       <c r="G278" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H278"/>
       <c r="I278"/>
@@ -7644,7 +7644,7 @@
         <v>100.0</v>
       </c>
       <c r="G279" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H279"/>
       <c r="I279"/>
@@ -7671,7 +7671,7 @@
         <v>3000.0</v>
       </c>
       <c r="G280" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H280"/>
       <c r="I280"/>
@@ -7698,7 +7698,7 @@
         <v>3000.0</v>
       </c>
       <c r="G281" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H281"/>
       <c r="I281"/>
@@ -7725,7 +7725,7 @@
         <v>100.0</v>
       </c>
       <c r="G282" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H282"/>
       <c r="I282"/>
@@ -7752,7 +7752,7 @@
         <v>100.0</v>
       </c>
       <c r="G283" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H283"/>
       <c r="I283"/>
@@ -7779,7 +7779,7 @@
         <v>3000.0</v>
       </c>
       <c r="G284" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H284"/>
       <c r="I284"/>
@@ -7806,7 +7806,7 @@
         <v>3000.0</v>
       </c>
       <c r="G285" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H285"/>
       <c r="I285"/>
@@ -7833,7 +7833,7 @@
         <v>100.0</v>
       </c>
       <c r="G286" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H286"/>
       <c r="I286"/>
@@ -7860,7 +7860,7 @@
         <v>100.0</v>
       </c>
       <c r="G287" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H287"/>
       <c r="I287"/>
@@ -7887,7 +7887,7 @@
         <v>3000.0</v>
       </c>
       <c r="G288" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H288"/>
       <c r="I288"/>
@@ -7914,7 +7914,7 @@
         <v>3000.0</v>
       </c>
       <c r="G289" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H289"/>
       <c r="I289"/>
@@ -7941,7 +7941,7 @@
         <v>100.0</v>
       </c>
       <c r="G290" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H290"/>
       <c r="I290"/>
@@ -7968,7 +7968,7 @@
         <v>100.0</v>
       </c>
       <c r="G291" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H291"/>
       <c r="I291"/>
@@ -7995,7 +7995,7 @@
         <v>3000.0</v>
       </c>
       <c r="G292" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H292"/>
       <c r="I292"/>
@@ -8022,7 +8022,7 @@
         <v>3000.0</v>
       </c>
       <c r="G293" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H293"/>
       <c r="I293"/>
@@ -8049,7 +8049,7 @@
         <v>100.0</v>
       </c>
       <c r="G294" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H294"/>
       <c r="I294"/>
@@ -8076,7 +8076,7 @@
         <v>100.0</v>
       </c>
       <c r="G295" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H295"/>
       <c r="I295"/>
@@ -8103,7 +8103,7 @@
         <v>3000.0</v>
       </c>
       <c r="G296" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H296"/>
       <c r="I296"/>
@@ -8130,7 +8130,7 @@
         <v>3000.0</v>
       </c>
       <c r="G297" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H297"/>
       <c r="I297"/>
@@ -8157,7 +8157,7 @@
         <v>100.0</v>
       </c>
       <c r="G298" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H298"/>
       <c r="I298"/>
@@ -8184,7 +8184,7 @@
         <v>100.0</v>
       </c>
       <c r="G299" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H299"/>
       <c r="I299"/>
@@ -8211,7 +8211,7 @@
         <v>3000.0</v>
       </c>
       <c r="G300" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H300"/>
       <c r="I300"/>
@@ -8238,7 +8238,7 @@
         <v>3000.0</v>
       </c>
       <c r="G301" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H301"/>
       <c r="I301"/>
@@ -8265,7 +8265,7 @@
         <v>100.0</v>
       </c>
       <c r="G302" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H302"/>
       <c r="I302"/>
@@ -8292,7 +8292,7 @@
         <v>100.0</v>
       </c>
       <c r="G303" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H303"/>
       <c r="I303"/>
@@ -8319,7 +8319,7 @@
         <v>3000.0</v>
       </c>
       <c r="G304" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H304"/>
       <c r="I304"/>
@@ -8346,7 +8346,7 @@
         <v>3000.0</v>
       </c>
       <c r="G305" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H305"/>
       <c r="I305"/>
@@ -8373,7 +8373,7 @@
         <v>100.0</v>
       </c>
       <c r="G306" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H306"/>
       <c r="I306"/>
@@ -8400,7 +8400,7 @@
         <v>100.0</v>
       </c>
       <c r="G307" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H307"/>
       <c r="I307"/>
@@ -8427,7 +8427,7 @@
         <v>3000.0</v>
       </c>
       <c r="G308" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H308"/>
       <c r="I308"/>
@@ -8454,7 +8454,7 @@
         <v>3000.0</v>
       </c>
       <c r="G309" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H309"/>
       <c r="I309"/>
@@ -8481,7 +8481,7 @@
         <v>100.0</v>
       </c>
       <c r="G310" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H310"/>
       <c r="I310"/>
@@ -8508,7 +8508,7 @@
         <v>100.0</v>
       </c>
       <c r="G311" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H311"/>
       <c r="I311"/>
@@ -8535,7 +8535,7 @@
         <v>3000.0</v>
       </c>
       <c r="G312" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H312"/>
       <c r="I312"/>
@@ -8562,7 +8562,7 @@
         <v>3000.0</v>
       </c>
       <c r="G313" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H313"/>
       <c r="I313"/>
@@ -8589,7 +8589,7 @@
         <v>100.0</v>
       </c>
       <c r="G314" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H314"/>
       <c r="I314"/>
@@ -8616,7 +8616,7 @@
         <v>100.0</v>
       </c>
       <c r="G315" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H315"/>
       <c r="I315"/>
@@ -8643,7 +8643,7 @@
         <v>3000.0</v>
       </c>
       <c r="G316" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H316"/>
       <c r="I316"/>
@@ -8670,7 +8670,7 @@
         <v>3000.0</v>
       </c>
       <c r="G317" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H317"/>
       <c r="I317"/>
@@ -8697,7 +8697,7 @@
         <v>100.0</v>
       </c>
       <c r="G318" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H318"/>
       <c r="I318"/>
@@ -8724,7 +8724,7 @@
         <v>100.0</v>
       </c>
       <c r="G319" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H319"/>
       <c r="I319"/>
@@ -8751,7 +8751,7 @@
         <v>3000.0</v>
       </c>
       <c r="G320" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H320"/>
       <c r="I320"/>
@@ -8778,7 +8778,7 @@
         <v>3000.0</v>
       </c>
       <c r="G321" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H321"/>
       <c r="I321"/>
@@ -8805,7 +8805,7 @@
         <v>100.0</v>
       </c>
       <c r="G322" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H322"/>
       <c r="I322"/>
@@ -8832,7 +8832,7 @@
         <v>100.0</v>
       </c>
       <c r="G323" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H323"/>
       <c r="I323"/>
@@ -8859,7 +8859,7 @@
         <v>3000.0</v>
       </c>
       <c r="G324" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H324"/>
       <c r="I324"/>
@@ -8886,7 +8886,7 @@
         <v>3000.0</v>
       </c>
       <c r="G325" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H325"/>
       <c r="I325"/>
@@ -8913,7 +8913,7 @@
         <v>100.0</v>
       </c>
       <c r="G326" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H326"/>
       <c r="I326"/>
@@ -8940,7 +8940,7 @@
         <v>100.0</v>
       </c>
       <c r="G327" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H327"/>
       <c r="I327"/>
@@ -8967,7 +8967,7 @@
         <v>3000.0</v>
       </c>
       <c r="G328" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H328"/>
       <c r="I328"/>
@@ -8994,7 +8994,7 @@
         <v>3000.0</v>
       </c>
       <c r="G329" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H329"/>
       <c r="I329"/>
@@ -9021,7 +9021,7 @@
         <v>100.0</v>
       </c>
       <c r="G330" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H330"/>
       <c r="I330"/>
@@ -9048,7 +9048,7 @@
         <v>100.0</v>
       </c>
       <c r="G331" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H331"/>
       <c r="I331"/>
@@ -9075,7 +9075,7 @@
         <v>3000.0</v>
       </c>
       <c r="G332" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H332"/>
       <c r="I332"/>
@@ -9102,7 +9102,7 @@
         <v>3000.0</v>
       </c>
       <c r="G333" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H333"/>
       <c r="I333"/>
@@ -9129,7 +9129,7 @@
         <v>100.0</v>
       </c>
       <c r="G334" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H334"/>
       <c r="I334"/>
@@ -9156,7 +9156,7 @@
         <v>100.0</v>
       </c>
       <c r="G335" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H335"/>
       <c r="I335"/>
@@ -9183,7 +9183,7 @@
         <v>3000.0</v>
       </c>
       <c r="G336" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H336"/>
       <c r="I336"/>
@@ -9210,7 +9210,7 @@
         <v>3000.0</v>
       </c>
       <c r="G337" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H337"/>
       <c r="I337"/>
@@ -9237,7 +9237,7 @@
         <v>100.0</v>
       </c>
       <c r="G338" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H338"/>
       <c r="I338"/>
@@ -9264,7 +9264,7 @@
         <v>100.0</v>
       </c>
       <c r="G339" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H339"/>
       <c r="I339"/>
@@ -9291,7 +9291,7 @@
         <v>3000.0</v>
       </c>
       <c r="G340" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H340"/>
       <c r="I340"/>
@@ -9318,7 +9318,7 @@
         <v>3000.0</v>
       </c>
       <c r="G341" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H341"/>
       <c r="I341"/>
@@ -9345,7 +9345,7 @@
         <v>100.0</v>
       </c>
       <c r="G342" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H342"/>
       <c r="I342"/>
@@ -9372,7 +9372,7 @@
         <v>100.0</v>
       </c>
       <c r="G343" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H343"/>
       <c r="I343"/>
@@ -9399,7 +9399,7 @@
         <v>3000.0</v>
       </c>
       <c r="G344" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H344"/>
       <c r="I344"/>
@@ -9426,7 +9426,7 @@
         <v>3000.0</v>
       </c>
       <c r="G345" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H345"/>
       <c r="I345"/>
@@ -9453,7 +9453,7 @@
         <v>100.0</v>
       </c>
       <c r="G346" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H346"/>
       <c r="I346"/>
@@ -9480,7 +9480,7 @@
         <v>100.0</v>
       </c>
       <c r="G347" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H347"/>
       <c r="I347"/>
@@ -9507,7 +9507,7 @@
         <v>3000.0</v>
       </c>
       <c r="G348" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H348"/>
       <c r="I348"/>
@@ -9534,7 +9534,7 @@
         <v>3000.0</v>
       </c>
       <c r="G349" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H349"/>
       <c r="I349"/>
@@ -9561,7 +9561,7 @@
         <v>100.0</v>
       </c>
       <c r="G350" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H350"/>
       <c r="I350"/>
@@ -9588,7 +9588,7 @@
         <v>100.0</v>
       </c>
       <c r="G351" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H351"/>
       <c r="I351"/>
@@ -9615,7 +9615,7 @@
         <v>3000.0</v>
       </c>
       <c r="G352" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H352"/>
       <c r="I352"/>
@@ -9642,7 +9642,7 @@
         <v>3000.0</v>
       </c>
       <c r="G353" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H353"/>
       <c r="I353"/>
@@ -9669,7 +9669,7 @@
         <v>100.0</v>
       </c>
       <c r="G354" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H354"/>
       <c r="I354"/>
@@ -9696,7 +9696,7 @@
         <v>100.0</v>
       </c>
       <c r="G355" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H355"/>
       <c r="I355"/>
@@ -9723,7 +9723,7 @@
         <v>3000.0</v>
       </c>
       <c r="G356" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H356"/>
       <c r="I356"/>
@@ -9750,7 +9750,7 @@
         <v>3000.0</v>
       </c>
       <c r="G357" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H357"/>
       <c r="I357"/>
@@ -9777,7 +9777,7 @@
         <v>100.0</v>
       </c>
       <c r="G358" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H358"/>
       <c r="I358"/>
@@ -9804,7 +9804,7 @@
         <v>100.0</v>
       </c>
       <c r="G359" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H359"/>
       <c r="I359"/>
@@ -9831,7 +9831,7 @@
         <v>3000.0</v>
       </c>
       <c r="G360" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H360"/>
       <c r="I360"/>
@@ -9858,7 +9858,7 @@
         <v>3000.0</v>
       </c>
       <c r="G361" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H361"/>
       <c r="I361"/>
@@ -9885,7 +9885,7 @@
         <v>100.0</v>
       </c>
       <c r="G362" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H362"/>
       <c r="I362"/>
@@ -9912,7 +9912,7 @@
         <v>100.0</v>
       </c>
       <c r="G363" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H363"/>
       <c r="I363"/>
@@ -9939,7 +9939,7 @@
         <v>3000.0</v>
       </c>
       <c r="G364" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H364"/>
       <c r="I364"/>
@@ -9966,7 +9966,7 @@
         <v>3000.0</v>
       </c>
       <c r="G365" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H365"/>
       <c r="I365"/>
@@ -9993,7 +9993,7 @@
         <v>100.0</v>
       </c>
       <c r="G366" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H366"/>
       <c r="I366"/>
@@ -10020,7 +10020,7 @@
         <v>100.0</v>
       </c>
       <c r="G367" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H367"/>
       <c r="I367"/>
@@ -10047,7 +10047,7 @@
         <v>3000.0</v>
       </c>
       <c r="G368" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H368"/>
       <c r="I368"/>
@@ -10074,7 +10074,7 @@
         <v>3000.0</v>
       </c>
       <c r="G369" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H369"/>
       <c r="I369"/>
@@ -10101,7 +10101,7 @@
         <v>100.0</v>
       </c>
       <c r="G370" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H370"/>
       <c r="I370"/>
@@ -10128,7 +10128,7 @@
         <v>100.0</v>
       </c>
       <c r="G371" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H371"/>
       <c r="I371"/>
@@ -10155,7 +10155,7 @@
         <v>3000.0</v>
       </c>
       <c r="G372" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H372"/>
       <c r="I372"/>
@@ -10182,7 +10182,7 @@
         <v>3000.0</v>
       </c>
       <c r="G373" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H373"/>
       <c r="I373"/>
@@ -10209,7 +10209,7 @@
         <v>100.0</v>
       </c>
       <c r="G374" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H374"/>
       <c r="I374"/>
@@ -10236,7 +10236,7 @@
         <v>100.0</v>
       </c>
       <c r="G375" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H375"/>
       <c r="I375"/>
@@ -10263,7 +10263,7 @@
         <v>3000.0</v>
       </c>
       <c r="G376" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H376"/>
       <c r="I376"/>
@@ -10290,7 +10290,7 @@
         <v>3000.0</v>
       </c>
       <c r="G377" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H377"/>
       <c r="I377"/>
@@ -10317,7 +10317,7 @@
         <v>100.0</v>
       </c>
       <c r="G378" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H378"/>
       <c r="I378"/>
@@ -10344,7 +10344,7 @@
         <v>100.0</v>
       </c>
       <c r="G379" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H379"/>
       <c r="I379"/>
@@ -10371,7 +10371,7 @@
         <v>3000.0</v>
       </c>
       <c r="G380" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H380"/>
       <c r="I380"/>
@@ -10398,7 +10398,7 @@
         <v>3000.0</v>
       </c>
       <c r="G381" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H381"/>
       <c r="I381"/>
@@ -10425,7 +10425,7 @@
         <v>100.0</v>
       </c>
       <c r="G382" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H382"/>
       <c r="I382"/>
@@ -10452,7 +10452,7 @@
         <v>100.0</v>
       </c>
       <c r="G383" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H383"/>
       <c r="I383"/>
@@ -10479,7 +10479,7 @@
         <v>3000.0</v>
       </c>
       <c r="G384" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H384"/>
       <c r="I384"/>
@@ -10506,7 +10506,7 @@
         <v>3000.0</v>
       </c>
       <c r="G385" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H385"/>
       <c r="I385"/>
@@ -10533,7 +10533,7 @@
         <v>100.0</v>
       </c>
       <c r="G386" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H386"/>
       <c r="I386"/>
@@ -10560,7 +10560,7 @@
         <v>100.0</v>
       </c>
       <c r="G387" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H387"/>
       <c r="I387"/>
@@ -10587,7 +10587,7 @@
         <v>3000.0</v>
       </c>
       <c r="G388" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H388"/>
       <c r="I388"/>
@@ -10614,7 +10614,7 @@
         <v>3000.0</v>
       </c>
       <c r="G389" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H389"/>
       <c r="I389"/>
@@ -10641,7 +10641,7 @@
         <v>100.0</v>
       </c>
       <c r="G390" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H390"/>
       <c r="I390"/>
@@ -10668,7 +10668,7 @@
         <v>100.0</v>
       </c>
       <c r="G391" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H391"/>
       <c r="I391"/>
@@ -10695,7 +10695,7 @@
         <v>3000.0</v>
       </c>
       <c r="G392" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H392"/>
       <c r="I392"/>
@@ -10722,7 +10722,7 @@
         <v>3000.0</v>
       </c>
       <c r="G393" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H393"/>
       <c r="I393"/>
@@ -10749,7 +10749,7 @@
         <v>100.0</v>
       </c>
       <c r="G394" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H394"/>
       <c r="I394"/>
@@ -10776,7 +10776,7 @@
         <v>100.0</v>
       </c>
       <c r="G395" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H395"/>
       <c r="I395"/>
@@ -10803,7 +10803,7 @@
         <v>3000.0</v>
       </c>
       <c r="G396" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H396"/>
       <c r="I396"/>
@@ -10830,7 +10830,7 @@
         <v>3000.0</v>
       </c>
       <c r="G397" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H397"/>
       <c r="I397"/>
@@ -10857,7 +10857,7 @@
         <v>100.0</v>
       </c>
       <c r="G398" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H398"/>
       <c r="I398"/>
@@ -10884,7 +10884,7 @@
         <v>100.0</v>
       </c>
       <c r="G399" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H399"/>
       <c r="I399"/>
@@ -10911,7 +10911,7 @@
         <v>3000.0</v>
       </c>
       <c r="G400" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H400"/>
       <c r="I400"/>
@@ -10938,7 +10938,7 @@
         <v>3000.0</v>
       </c>
       <c r="G401" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H401"/>
       <c r="I401"/>
@@ -10965,7 +10965,7 @@
         <v>100.0</v>
       </c>
       <c r="G402" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H402"/>
       <c r="I402"/>
@@ -10992,7 +10992,7 @@
         <v>100.0</v>
       </c>
       <c r="G403" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H403"/>
       <c r="I403"/>
@@ -11019,7 +11019,7 @@
         <v>3000.0</v>
       </c>
       <c r="G404" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H404"/>
       <c r="I404"/>
@@ -11046,7 +11046,7 @@
         <v>3000.0</v>
       </c>
       <c r="G405" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H405"/>
       <c r="I405"/>
@@ -11073,7 +11073,7 @@
         <v>100.0</v>
       </c>
       <c r="G406" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H406"/>
       <c r="I406"/>
@@ -11100,7 +11100,7 @@
         <v>100.0</v>
       </c>
       <c r="G407" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H407"/>
       <c r="I407"/>
@@ -11127,7 +11127,7 @@
         <v>3000.0</v>
       </c>
       <c r="G408" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H408"/>
       <c r="I408"/>
@@ -11154,7 +11154,7 @@
         <v>3000.0</v>
       </c>
       <c r="G409" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H409"/>
       <c r="I409"/>
@@ -11181,7 +11181,7 @@
         <v>100.0</v>
       </c>
       <c r="G410" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H410"/>
       <c r="I410"/>
@@ -11208,7 +11208,7 @@
         <v>100.0</v>
       </c>
       <c r="G411" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H411"/>
       <c r="I411"/>
@@ -11235,7 +11235,7 @@
         <v>3000.0</v>
       </c>
       <c r="G412" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H412"/>
       <c r="I412"/>
@@ -11262,7 +11262,7 @@
         <v>3000.0</v>
       </c>
       <c r="G413" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H413"/>
       <c r="I413"/>
@@ -11289,7 +11289,7 @@
         <v>100.0</v>
       </c>
       <c r="G414" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H414"/>
       <c r="I414"/>
@@ -11316,7 +11316,7 @@
         <v>100.0</v>
       </c>
       <c r="G415" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H415"/>
       <c r="I415"/>
@@ -11343,7 +11343,7 @@
         <v>3000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H416"/>
       <c r="I416"/>
@@ -11370,7 +11370,7 @@
         <v>3000.0</v>
       </c>
       <c r="G417" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H417"/>
       <c r="I417"/>
@@ -11397,7 +11397,7 @@
         <v>100.0</v>
       </c>
       <c r="G418" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H418"/>
       <c r="I418"/>
@@ -11424,7 +11424,7 @@
         <v>100.0</v>
       </c>
       <c r="G419" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H419"/>
       <c r="I419"/>
@@ -11451,7 +11451,7 @@
         <v>3000.0</v>
       </c>
       <c r="G420" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H420"/>
       <c r="I420"/>
@@ -11478,7 +11478,7 @@
         <v>3000.0</v>
       </c>
       <c r="G421" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H421"/>
       <c r="I421"/>
@@ -11505,7 +11505,7 @@
         <v>100.0</v>
       </c>
       <c r="G422" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H422"/>
       <c r="I422"/>
@@ -11532,7 +11532,7 @@
         <v>100.0</v>
       </c>
       <c r="G423" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H423"/>
       <c r="I423"/>
@@ -11559,7 +11559,7 @@
         <v>3000.0</v>
       </c>
       <c r="G424" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H424"/>
       <c r="I424"/>
@@ -11586,7 +11586,7 @@
         <v>3000.0</v>
       </c>
       <c r="G425" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H425"/>
       <c r="I425"/>
@@ -11613,7 +11613,7 @@
         <v>100.0</v>
       </c>
       <c r="G426" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H426"/>
       <c r="I426"/>
@@ -11640,7 +11640,7 @@
         <v>100.0</v>
       </c>
       <c r="G427" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H427"/>
       <c r="I427"/>
@@ -11667,7 +11667,7 @@
         <v>3000.0</v>
       </c>
       <c r="G428" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H428"/>
       <c r="I428"/>
@@ -11694,7 +11694,7 @@
         <v>3000.0</v>
       </c>
       <c r="G429" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H429"/>
       <c r="I429"/>
@@ -11721,7 +11721,7 @@
         <v>100.0</v>
       </c>
       <c r="G430" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H430"/>
       <c r="I430"/>
@@ -11748,7 +11748,7 @@
         <v>100.0</v>
       </c>
       <c r="G431" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H431"/>
       <c r="I431"/>
@@ -11775,7 +11775,7 @@
         <v>3000.0</v>
       </c>
       <c r="G432" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H432"/>
       <c r="I432"/>
@@ -11802,7 +11802,7 @@
         <v>3000.0</v>
       </c>
       <c r="G433" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H433"/>
       <c r="I433"/>
@@ -11829,7 +11829,7 @@
         <v>100.0</v>
       </c>
       <c r="G434" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H434"/>
       <c r="I434"/>
@@ -11856,7 +11856,7 @@
         <v>100.0</v>
       </c>
       <c r="G435" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H435"/>
       <c r="I435"/>
@@ -11883,7 +11883,7 @@
         <v>3000.0</v>
       </c>
       <c r="G436" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H436"/>
       <c r="I436"/>
@@ -11910,7 +11910,7 @@
         <v>3000.0</v>
       </c>
       <c r="G437" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H437"/>
       <c r="I437"/>
@@ -11937,7 +11937,7 @@
         <v>100.0</v>
       </c>
       <c r="G438" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H438"/>
       <c r="I438"/>
@@ -11964,7 +11964,7 @@
         <v>100.0</v>
       </c>
       <c r="G439" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H439"/>
       <c r="I439"/>
@@ -11991,7 +11991,7 @@
         <v>3000.0</v>
       </c>
       <c r="G440" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H440"/>
       <c r="I440"/>
@@ -12018,7 +12018,7 @@
         <v>3000.0</v>
       </c>
       <c r="G441" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H441"/>
       <c r="I441"/>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
@@ -173,11 +173,21 @@
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
+      <c r="H2" t="n">
+        <v>0.29668560373520353</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.29092501563738044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9635983854478722</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6680735207789316</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -187,7 +197,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -196,16 +206,26 @@
         <v>12.0</v>
       </c>
       <c r="F3" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="H3" t="n">
+        <v>0.3313726215902938</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.32492148191485054</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9583209807187061</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.668317032177065</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -215,13 +235,13 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F4" t="n">
         <v>100.0</v>
@@ -229,11 +249,21 @@
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
+      <c r="H4" t="n">
+        <v>0.4782644685605718</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.46719113026301745</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9145199689894067</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5914893617021276</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6782639146376632</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -246,22 +276,32 @@
         <v>0.005</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E5" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F5" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="H5" t="n">
+        <v>0.2946070657885985</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.28886956038810124</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9640619455045549</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7024264352402398</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -271,7 +311,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D6" t="n">
         <v>0.78125</v>
@@ -285,11 +325,21 @@
       <c r="G6" t="n">
         <v>0.0</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="H6" t="n">
+        <v>0.3294258873192831</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3229813098135655</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9591976167817521</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7026352555276585</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -299,7 +349,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D7" t="n">
         <v>0.78125</v>
@@ -308,16 +358,26 @@
         <v>12.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
+      <c r="H7" t="n">
+        <v>0.4776634567990489</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4664591704204341</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9144971183857398</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5870535714285714</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.7127157667275487</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -330,10 +390,10 @@
         <v>0.005</v>
       </c>
       <c r="D8" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E8" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F8" t="n">
         <v>100.0</v>
@@ -341,11 +401,21 @@
       <c r="G8" t="n">
         <v>0.0</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
+      <c r="H8" t="n">
+        <v>0.29167389233764385</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2863108132430967</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9648119543216366</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7269314064808631</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -355,25 +425,35 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D9" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E9" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F9" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
+      <c r="H9" t="n">
+        <v>0.3266091538935049</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3205276296079611</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9595588097032359</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.7271494082989988</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -383,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D10" t="n">
         <v>1.5625</v>
@@ -397,11 +477,21 @@
       <c r="G10" t="n">
         <v>0.0</v>
       </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
+      <c r="H10" t="n">
+        <v>0.47412822557529827</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4647020705735003</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9162881150556091</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5788288288288288</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7374238177282897</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -414,22 +504,32 @@
         <v>0.005</v>
       </c>
       <c r="D11" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E11" t="n">
         <v>12.0</v>
       </c>
       <c r="F11" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
+      <c r="H11" t="n">
+        <v>0.28778189356004796</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.28240428798638506</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9713166687903086</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.7727583154167194</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -439,13 +539,13 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D12" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E12" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F12" t="n">
         <v>100.0</v>
@@ -453,11 +553,21 @@
       <c r="G12" t="n">
         <v>0.0</v>
       </c>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
+      <c r="H12" t="n">
+        <v>0.32271658606744025</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.3165798436524071</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9656846087789078</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.7728063873063418</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -467,25 +577,35 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D13" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E13" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F13" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
       </c>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="H13" t="n">
+        <v>0.4720951657469333</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.4627071163031693</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9210026377097709</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5501618122977346</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.7800559513519872</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -498,10 +618,10 @@
         <v>0.005</v>
       </c>
       <c r="D14" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F14" t="n">
         <v>100.0</v>
@@ -523,16 +643,16 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D15" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F15" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -551,10 +671,10 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D16" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E16" t="n">
         <v>36.0</v>
@@ -582,22 +702,30 @@
         <v>0.005</v>
       </c>
       <c r="D17" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E17" t="n">
         <v>36.0</v>
       </c>
       <c r="F17" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
       </c>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
+      <c r="H17" t="n">
+        <v>0.13153457055697518</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.12756930473474307</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9703585003005586</v>
+      </c>
       <c r="K17"/>
-      <c r="L17"/>
+      <c r="L17" t="n">
+        <v>0.8733592534992224</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -610,10 +738,10 @@
         <v>0.01</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E18" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F18" t="n">
         <v>100.0</v>
@@ -635,16 +763,16 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E19" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F19" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -663,10 +791,10 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E20" t="n">
         <v>36.0</v>
@@ -677,11 +805,19 @@
       <c r="G20" t="n">
         <v>0.0</v>
       </c>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
+      <c r="H20" t="n">
+        <v>0.12975803780285167</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.12583220335520803</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.9698098762280148</v>
+      </c>
       <c r="K20"/>
-      <c r="L20"/>
+      <c r="L20" t="n">
+        <v>0.8781441161223432</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -694,22 +830,30 @@
         <v>0.01</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E21" t="n">
         <v>36.0</v>
       </c>
       <c r="F21" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
       </c>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
+      <c r="H21" t="n">
+        <v>0.15937711308008343</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.154514517286543</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.9638474094604665</v>
+      </c>
       <c r="K21"/>
-      <c r="L21"/>
+      <c r="L21" t="n">
+        <v>0.8781441161223432</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -719,13 +863,13 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E22" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F22" t="n">
         <v>100.0</v>
@@ -733,11 +877,21 @@
       <c r="G22" t="n">
         <v>0.0</v>
       </c>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
+      <c r="H22" t="n">
+        <v>0.3210855842729068</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3090266873655633</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.905441325935577</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.881717574147853</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -747,25 +901,33 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D23" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E23" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F23" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
       </c>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="H23" t="n">
+        <v>0.12592735087158485</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.12207759230113427</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.9688550862270294</v>
+      </c>
       <c r="K23"/>
-      <c r="L23"/>
+      <c r="L23" t="n">
+        <v>0.8912286158631415</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -778,7 +940,7 @@
         <v>0.01</v>
       </c>
       <c r="D24" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E24" t="n">
         <v>36.0</v>
@@ -789,11 +951,19 @@
       <c r="G24" t="n">
         <v>0.0</v>
       </c>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
+      <c r="H24" t="n">
+        <v>0.154748463111876</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1499122509395427</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9649227579610196</v>
+      </c>
       <c r="K24"/>
-      <c r="L24"/>
+      <c r="L24" t="n">
+        <v>0.8912286158631415</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -803,25 +973,35 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E25" t="n">
         <v>36.0</v>
       </c>
       <c r="F25" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
       </c>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="H25" t="n">
+        <v>0.31769071637675844</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3058019951156911</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9082115399871016</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.8948311329844023</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -831,16 +1011,16 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D26" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E26" t="n">
         <v>12.0</v>
       </c>
       <c r="F26" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -862,7 +1042,7 @@
         <v>0.01</v>
       </c>
       <c r="D27" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n">
         <v>12.0</v>
@@ -887,16 +1067,16 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D28" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E28" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F28" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -915,13 +1095,13 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D29" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E29" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F29" t="n">
         <v>3000.0</v>
@@ -946,13 +1126,13 @@
         <v>0.01</v>
       </c>
       <c r="D30" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E30" t="n">
         <v>12.0</v>
       </c>
       <c r="F30" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -971,10 +1151,10 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D31" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E31" t="n">
         <v>12.0</v>
@@ -999,16 +1179,16 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D32" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E32" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F32" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G32" t="n">
         <v>0.0</v>
@@ -1030,10 +1210,10 @@
         <v>0.01</v>
       </c>
       <c r="D33" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E33" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F33" t="n">
         <v>3000.0</v>
@@ -1058,13 +1238,13 @@
         <v>0.1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E34" t="n">
         <v>12.0</v>
       </c>
       <c r="F34" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G34" t="n">
         <v>0.0</v>
@@ -1083,10 +1263,10 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E35" t="n">
         <v>12.0</v>
@@ -1111,16 +1291,16 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E36" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F36" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G36" t="n">
         <v>0.0</v>
@@ -1142,10 +1322,10 @@
         <v>0.1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E37" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F37" t="n">
         <v>3000.0</v>
@@ -1167,16 +1347,16 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D38" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E38" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F38" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G38" t="n">
         <v>0.0</v>
@@ -1195,13 +1375,13 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D39" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F39" t="n">
         <v>3000.0</v>
@@ -1226,13 +1406,13 @@
         <v>0.1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n">
         <v>36.0</v>
       </c>
       <c r="F40" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G40" t="n">
         <v>0.0</v>
@@ -1251,7 +1431,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D41" t="n">
         <v>0.78125</v>
@@ -1279,16 +1459,16 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D42" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E42" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F42" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G42" t="n">
         <v>0.0</v>
@@ -1310,10 +1490,10 @@
         <v>0.1</v>
       </c>
       <c r="D43" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E43" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F43" t="n">
         <v>3000.0</v>
@@ -1335,7 +1515,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D44" t="n">
         <v>1.5625</v>
@@ -1344,7 +1524,7 @@
         <v>36.0</v>
       </c>
       <c r="F44" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G44" t="n">
         <v>0.0</v>
@@ -1363,7 +1543,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D45" t="n">
         <v>1.5625</v>
@@ -1394,13 +1574,13 @@
         <v>0.1</v>
       </c>
       <c r="D46" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E46" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F46" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G46" t="n">
         <v>0.0</v>
@@ -1419,13 +1599,13 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D47" t="n">
         <v>3.125</v>
       </c>
       <c r="E47" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F47" t="n">
         <v>3000.0</v>
@@ -1447,7 +1627,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D48" t="n">
         <v>3.125</v>
@@ -1456,7 +1636,7 @@
         <v>36.0</v>
       </c>
       <c r="F48" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
@@ -1531,7 +1711,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D51" t="n">
         <v>0.0</v>
@@ -1540,7 +1720,7 @@
         <v>12.0</v>
       </c>
       <c r="F51" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G51" t="n">
         <v>0.0</v>
@@ -1559,13 +1739,13 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D52" t="n">
         <v>0.0</v>
       </c>
       <c r="E52" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F52" t="n">
         <v>100.0</v>
@@ -1587,16 +1767,16 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.005</v>
+        <v>0.75</v>
       </c>
       <c r="D53" t="n">
         <v>0.0</v>
       </c>
       <c r="E53" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F53" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G53" t="n">
         <v>0.0</v>
@@ -1643,7 +1823,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D55" t="n">
         <v>0.78125</v>
@@ -1652,7 +1832,7 @@
         <v>12.0</v>
       </c>
       <c r="F55" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G55" t="n">
         <v>0.0</v>
@@ -1671,13 +1851,13 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D56" t="n">
         <v>0.78125</v>
       </c>
       <c r="E56" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F56" t="n">
         <v>100.0</v>
@@ -1699,16 +1879,16 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.005</v>
+        <v>0.75</v>
       </c>
       <c r="D57" t="n">
         <v>0.78125</v>
       </c>
       <c r="E57" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F57" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G57" t="n">
         <v>0.0</v>
@@ -1755,7 +1935,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D59" t="n">
         <v>1.5625</v>
@@ -1764,7 +1944,7 @@
         <v>12.0</v>
       </c>
       <c r="F59" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G59" t="n">
         <v>0.0</v>
@@ -1783,13 +1963,13 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D60" t="n">
         <v>1.5625</v>
       </c>
       <c r="E60" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F60" t="n">
         <v>100.0</v>
@@ -1811,16 +1991,16 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.005</v>
+        <v>0.75</v>
       </c>
       <c r="D61" t="n">
         <v>1.5625</v>
       </c>
       <c r="E61" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F61" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G61" t="n">
         <v>0.0</v>
@@ -1867,7 +2047,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D63" t="n">
         <v>3.125</v>
@@ -1876,7 +2056,7 @@
         <v>12.0</v>
       </c>
       <c r="F63" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G63" t="n">
         <v>0.0</v>
@@ -1895,13 +2075,13 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D64" t="n">
         <v>3.125</v>
       </c>
       <c r="E64" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F64" t="n">
         <v>100.0</v>
@@ -1923,16 +2103,16 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.005</v>
+        <v>0.75</v>
       </c>
       <c r="D65" t="n">
         <v>3.125</v>
       </c>
       <c r="E65" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F65" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G65" t="n">
         <v>0.0</v>
@@ -1951,13 +2131,13 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D66" t="n">
         <v>0.0</v>
       </c>
       <c r="E66" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F66" t="n">
         <v>100.0</v>
@@ -1985,10 +2165,10 @@
         <v>0.0</v>
       </c>
       <c r="E67" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F67" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G67" t="n">
         <v>0.0</v>
@@ -2007,7 +2187,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D68" t="n">
         <v>0.0</v>
@@ -2035,7 +2215,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01</v>
+        <v>0.75</v>
       </c>
       <c r="D69" t="n">
         <v>0.0</v>
@@ -2044,7 +2224,7 @@
         <v>36.0</v>
       </c>
       <c r="F69" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G69" t="n">
         <v>0.0</v>
@@ -2063,13 +2243,13 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D70" t="n">
         <v>0.78125</v>
       </c>
       <c r="E70" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F70" t="n">
         <v>100.0</v>
@@ -2097,10 +2277,10 @@
         <v>0.78125</v>
       </c>
       <c r="E71" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F71" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G71" t="n">
         <v>0.0</v>
@@ -2119,7 +2299,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D72" t="n">
         <v>0.78125</v>
@@ -2147,7 +2327,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01</v>
+        <v>0.75</v>
       </c>
       <c r="D73" t="n">
         <v>0.78125</v>
@@ -2156,7 +2336,7 @@
         <v>36.0</v>
       </c>
       <c r="F73" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G73" t="n">
         <v>0.0</v>
@@ -2175,13 +2355,13 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D74" t="n">
         <v>1.5625</v>
       </c>
       <c r="E74" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F74" t="n">
         <v>100.0</v>
@@ -2209,10 +2389,10 @@
         <v>1.5625</v>
       </c>
       <c r="E75" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F75" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G75" t="n">
         <v>0.0</v>
@@ -2231,7 +2411,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D76" t="n">
         <v>1.5625</v>
@@ -2259,7 +2439,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.01</v>
+        <v>0.75</v>
       </c>
       <c r="D77" t="n">
         <v>1.5625</v>
@@ -2268,7 +2448,7 @@
         <v>36.0</v>
       </c>
       <c r="F77" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G77" t="n">
         <v>0.0</v>
@@ -2287,13 +2467,13 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D78" t="n">
         <v>3.125</v>
       </c>
       <c r="E78" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F78" t="n">
         <v>100.0</v>
@@ -2321,10 +2501,10 @@
         <v>3.125</v>
       </c>
       <c r="E79" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F79" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G79" t="n">
         <v>0.0</v>
@@ -2343,7 +2523,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D80" t="n">
         <v>3.125</v>
@@ -2371,7 +2551,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01</v>
+        <v>0.75</v>
       </c>
       <c r="D81" t="n">
         <v>3.125</v>
@@ -2380,7 +2560,7 @@
         <v>36.0</v>
       </c>
       <c r="F81" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G81" t="n">
         <v>0.0</v>
@@ -2399,7 +2579,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D82" t="n">
         <v>0.0</v>
@@ -2408,7 +2588,7 @@
         <v>12.0</v>
       </c>
       <c r="F82" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G82" t="n">
         <v>0.0</v>
@@ -2427,7 +2607,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D83" t="n">
         <v>0.0</v>
@@ -2461,10 +2641,10 @@
         <v>0.0</v>
       </c>
       <c r="E84" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F84" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G84" t="n">
         <v>0.0</v>
@@ -2483,13 +2663,13 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D85" t="n">
         <v>0.0</v>
       </c>
       <c r="E85" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F85" t="n">
         <v>3000.0</v>
@@ -2511,7 +2691,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D86" t="n">
         <v>0.78125</v>
@@ -2520,7 +2700,7 @@
         <v>12.0</v>
       </c>
       <c r="F86" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G86" t="n">
         <v>0.0</v>
@@ -2539,7 +2719,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D87" t="n">
         <v>0.78125</v>
@@ -2573,10 +2753,10 @@
         <v>0.78125</v>
       </c>
       <c r="E88" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F88" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G88" t="n">
         <v>0.0</v>
@@ -2595,13 +2775,13 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D89" t="n">
         <v>0.78125</v>
       </c>
       <c r="E89" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F89" t="n">
         <v>3000.0</v>
@@ -2623,7 +2803,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D90" t="n">
         <v>1.5625</v>
@@ -2632,7 +2812,7 @@
         <v>12.0</v>
       </c>
       <c r="F90" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G90" t="n">
         <v>0.0</v>
@@ -2651,7 +2831,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D91" t="n">
         <v>1.5625</v>
@@ -2685,10 +2865,10 @@
         <v>1.5625</v>
       </c>
       <c r="E92" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F92" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G92" t="n">
         <v>0.0</v>
@@ -2707,13 +2887,13 @@
         <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D93" t="n">
         <v>1.5625</v>
       </c>
       <c r="E93" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F93" t="n">
         <v>3000.0</v>
@@ -2735,7 +2915,7 @@
         <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D94" t="n">
         <v>3.125</v>
@@ -2744,7 +2924,7 @@
         <v>12.0</v>
       </c>
       <c r="F94" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G94" t="n">
         <v>0.0</v>
@@ -2763,7 +2943,7 @@
         <v>0.0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D95" t="n">
         <v>3.125</v>
@@ -2797,10 +2977,10 @@
         <v>3.125</v>
       </c>
       <c r="E96" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F96" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G96" t="n">
         <v>0.0</v>
@@ -2819,13 +2999,13 @@
         <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D97" t="n">
         <v>3.125</v>
       </c>
       <c r="E97" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F97" t="n">
         <v>3000.0</v>
@@ -2847,16 +3027,16 @@
         <v>0.0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.75</v>
+        <v>0.005</v>
       </c>
       <c r="D98" t="n">
         <v>0.0</v>
       </c>
       <c r="E98" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F98" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G98" t="n">
         <v>0.0</v>
@@ -2875,13 +3055,13 @@
         <v>0.0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="D99" t="n">
         <v>0.0</v>
       </c>
       <c r="E99" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F99" t="n">
         <v>3000.0</v>
@@ -2903,7 +3083,7 @@
         <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D100" t="n">
         <v>0.0</v>
@@ -2912,7 +3092,7 @@
         <v>36.0</v>
       </c>
       <c r="F100" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G100" t="n">
         <v>0.0</v>
@@ -2959,16 +3139,16 @@
         <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.75</v>
+        <v>0.005</v>
       </c>
       <c r="D102" t="n">
         <v>0.78125</v>
       </c>
       <c r="E102" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F102" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G102" t="n">
         <v>0.0</v>
@@ -2987,13 +3167,13 @@
         <v>0.0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="D103" t="n">
         <v>0.78125</v>
       </c>
       <c r="E103" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F103" t="n">
         <v>3000.0</v>
@@ -3015,7 +3195,7 @@
         <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D104" t="n">
         <v>0.78125</v>
@@ -3024,7 +3204,7 @@
         <v>36.0</v>
       </c>
       <c r="F104" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G104" t="n">
         <v>0.0</v>
@@ -3071,16 +3251,16 @@
         <v>0.0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.75</v>
+        <v>0.005</v>
       </c>
       <c r="D106" t="n">
         <v>1.5625</v>
       </c>
       <c r="E106" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F106" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G106" t="n">
         <v>0.0</v>
@@ -3099,13 +3279,13 @@
         <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="D107" t="n">
         <v>1.5625</v>
       </c>
       <c r="E107" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F107" t="n">
         <v>3000.0</v>
@@ -3127,7 +3307,7 @@
         <v>0.0</v>
       </c>
       <c r="C108" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D108" t="n">
         <v>1.5625</v>
@@ -3136,7 +3316,7 @@
         <v>36.0</v>
       </c>
       <c r="F108" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G108" t="n">
         <v>0.0</v>
@@ -3183,16 +3363,16 @@
         <v>0.0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.75</v>
+        <v>0.005</v>
       </c>
       <c r="D110" t="n">
         <v>3.125</v>
       </c>
       <c r="E110" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F110" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G110" t="n">
         <v>0.0</v>
@@ -3211,13 +3391,13 @@
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="D111" t="n">
         <v>3.125</v>
       </c>
       <c r="E111" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F111" t="n">
         <v>3000.0</v>
@@ -3239,7 +3419,7 @@
         <v>0.0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D112" t="n">
         <v>3.125</v>
@@ -3248,7 +3428,7 @@
         <v>36.0</v>
       </c>
       <c r="F112" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G112" t="n">
         <v>0.0</v>
@@ -3307,7 +3487,7 @@
         <v>100.0</v>
       </c>
       <c r="G114" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
@@ -3335,7 +3515,7 @@
         <v>100.0</v>
       </c>
       <c r="G115" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
@@ -3351,7 +3531,7 @@
         <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D116" t="n">
         <v>0.0</v>
@@ -3360,10 +3540,10 @@
         <v>12.0</v>
       </c>
       <c r="F116" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G116" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H116"/>
       <c r="I116"/>
@@ -3379,7 +3559,7 @@
         <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D117" t="n">
         <v>0.0</v>
@@ -3388,10 +3568,10 @@
         <v>12.0</v>
       </c>
       <c r="F117" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G117" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
@@ -3407,19 +3587,19 @@
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D118" t="n">
         <v>0.0</v>
       </c>
       <c r="E118" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F118" t="n">
         <v>100.0</v>
       </c>
       <c r="G118" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
@@ -3435,19 +3615,19 @@
         <v>0.0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D119" t="n">
         <v>0.0</v>
       </c>
       <c r="E119" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F119" t="n">
         <v>100.0</v>
       </c>
       <c r="G119" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H119"/>
       <c r="I119"/>
@@ -3463,19 +3643,19 @@
         <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.005</v>
+        <v>0.75</v>
       </c>
       <c r="D120" t="n">
         <v>0.0</v>
       </c>
       <c r="E120" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F120" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G120" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H120"/>
       <c r="I120"/>
@@ -3491,19 +3671,19 @@
         <v>0.0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.005</v>
+        <v>0.75</v>
       </c>
       <c r="D121" t="n">
         <v>0.0</v>
       </c>
       <c r="E121" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F121" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G121" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H121"/>
       <c r="I121"/>
@@ -3531,7 +3711,7 @@
         <v>100.0</v>
       </c>
       <c r="G122" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H122"/>
       <c r="I122"/>
@@ -3559,7 +3739,7 @@
         <v>100.0</v>
       </c>
       <c r="G123" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
@@ -3575,7 +3755,7 @@
         <v>0.0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D124" t="n">
         <v>0.78125</v>
@@ -3584,10 +3764,10 @@
         <v>12.0</v>
       </c>
       <c r="F124" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G124" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H124"/>
       <c r="I124"/>
@@ -3603,7 +3783,7 @@
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D125" t="n">
         <v>0.78125</v>
@@ -3612,10 +3792,10 @@
         <v>12.0</v>
       </c>
       <c r="F125" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G125" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H125"/>
       <c r="I125"/>
@@ -3631,19 +3811,19 @@
         <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D126" t="n">
         <v>0.78125</v>
       </c>
       <c r="E126" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F126" t="n">
         <v>100.0</v>
       </c>
       <c r="G126" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H126"/>
       <c r="I126"/>
@@ -3659,19 +3839,19 @@
         <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D127" t="n">
         <v>0.78125</v>
       </c>
       <c r="E127" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F127" t="n">
         <v>100.0</v>
       </c>
       <c r="G127" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H127"/>
       <c r="I127"/>
@@ -3687,19 +3867,19 @@
         <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.005</v>
+        <v>0.75</v>
       </c>
       <c r="D128" t="n">
         <v>0.78125</v>
       </c>
       <c r="E128" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F128" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G128" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H128"/>
       <c r="I128"/>
@@ -3715,19 +3895,19 @@
         <v>0.0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.005</v>
+        <v>0.75</v>
       </c>
       <c r="D129" t="n">
         <v>0.78125</v>
       </c>
       <c r="E129" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F129" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G129" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H129"/>
       <c r="I129"/>
@@ -3755,7 +3935,7 @@
         <v>100.0</v>
       </c>
       <c r="G130" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H130"/>
       <c r="I130"/>
@@ -3783,7 +3963,7 @@
         <v>100.0</v>
       </c>
       <c r="G131" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H131"/>
       <c r="I131"/>
@@ -3799,7 +3979,7 @@
         <v>0.0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D132" t="n">
         <v>1.5625</v>
@@ -3808,10 +3988,10 @@
         <v>12.0</v>
       </c>
       <c r="F132" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G132" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H132"/>
       <c r="I132"/>
@@ -3827,7 +4007,7 @@
         <v>0.0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D133" t="n">
         <v>1.5625</v>
@@ -3836,10 +4016,10 @@
         <v>12.0</v>
       </c>
       <c r="F133" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G133" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H133"/>
       <c r="I133"/>
@@ -3855,19 +4035,19 @@
         <v>0.0</v>
       </c>
       <c r="C134" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D134" t="n">
         <v>1.5625</v>
       </c>
       <c r="E134" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F134" t="n">
         <v>100.0</v>
       </c>
       <c r="G134" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H134"/>
       <c r="I134"/>
@@ -3883,19 +4063,19 @@
         <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D135" t="n">
         <v>1.5625</v>
       </c>
       <c r="E135" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F135" t="n">
         <v>100.0</v>
       </c>
       <c r="G135" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H135"/>
       <c r="I135"/>
@@ -3911,19 +4091,19 @@
         <v>0.0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.005</v>
+        <v>0.75</v>
       </c>
       <c r="D136" t="n">
         <v>1.5625</v>
       </c>
       <c r="E136" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F136" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G136" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H136"/>
       <c r="I136"/>
@@ -3939,19 +4119,19 @@
         <v>0.0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.005</v>
+        <v>0.75</v>
       </c>
       <c r="D137" t="n">
         <v>1.5625</v>
       </c>
       <c r="E137" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F137" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G137" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H137"/>
       <c r="I137"/>
@@ -3979,7 +4159,7 @@
         <v>100.0</v>
       </c>
       <c r="G138" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H138"/>
       <c r="I138"/>
@@ -4007,7 +4187,7 @@
         <v>100.0</v>
       </c>
       <c r="G139" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H139"/>
       <c r="I139"/>
@@ -4023,7 +4203,7 @@
         <v>0.0</v>
       </c>
       <c r="C140" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D140" t="n">
         <v>3.125</v>
@@ -4032,10 +4212,10 @@
         <v>12.0</v>
       </c>
       <c r="F140" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G140" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H140"/>
       <c r="I140"/>
@@ -4051,7 +4231,7 @@
         <v>0.0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D141" t="n">
         <v>3.125</v>
@@ -4060,10 +4240,10 @@
         <v>12.0</v>
       </c>
       <c r="F141" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G141" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H141"/>
       <c r="I141"/>
@@ -4079,19 +4259,19 @@
         <v>0.0</v>
       </c>
       <c r="C142" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D142" t="n">
         <v>3.125</v>
       </c>
       <c r="E142" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F142" t="n">
         <v>100.0</v>
       </c>
       <c r="G142" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H142"/>
       <c r="I142"/>
@@ -4107,19 +4287,19 @@
         <v>0.0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D143" t="n">
         <v>3.125</v>
       </c>
       <c r="E143" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F143" t="n">
         <v>100.0</v>
       </c>
       <c r="G143" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H143"/>
       <c r="I143"/>
@@ -4135,19 +4315,19 @@
         <v>0.0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.005</v>
+        <v>0.75</v>
       </c>
       <c r="D144" t="n">
         <v>3.125</v>
       </c>
       <c r="E144" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F144" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G144" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H144"/>
       <c r="I144"/>
@@ -4163,19 +4343,19 @@
         <v>0.0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.005</v>
+        <v>0.75</v>
       </c>
       <c r="D145" t="n">
         <v>3.125</v>
       </c>
       <c r="E145" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F145" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G145" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H145"/>
       <c r="I145"/>
@@ -4191,19 +4371,19 @@
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D146" t="n">
         <v>0.0</v>
       </c>
       <c r="E146" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F146" t="n">
         <v>100.0</v>
       </c>
       <c r="G146" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H146"/>
       <c r="I146"/>
@@ -4219,19 +4399,19 @@
         <v>0.0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D147" t="n">
         <v>0.0</v>
       </c>
       <c r="E147" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F147" t="n">
         <v>100.0</v>
       </c>
       <c r="G147" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H147"/>
       <c r="I147"/>
@@ -4253,13 +4433,13 @@
         <v>0.0</v>
       </c>
       <c r="E148" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F148" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G148" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H148"/>
       <c r="I148"/>
@@ -4281,13 +4461,13 @@
         <v>0.0</v>
       </c>
       <c r="E149" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F149" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G149" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H149"/>
       <c r="I149"/>
@@ -4303,7 +4483,7 @@
         <v>0.0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D150" t="n">
         <v>0.0</v>
@@ -4315,7 +4495,7 @@
         <v>100.0</v>
       </c>
       <c r="G150" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H150"/>
       <c r="I150"/>
@@ -4331,7 +4511,7 @@
         <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D151" t="n">
         <v>0.0</v>
@@ -4343,7 +4523,7 @@
         <v>100.0</v>
       </c>
       <c r="G151" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H151"/>
       <c r="I151"/>
@@ -4359,7 +4539,7 @@
         <v>0.0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.01</v>
+        <v>0.75</v>
       </c>
       <c r="D152" t="n">
         <v>0.0</v>
@@ -4368,10 +4548,10 @@
         <v>36.0</v>
       </c>
       <c r="F152" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G152" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H152"/>
       <c r="I152"/>
@@ -4387,7 +4567,7 @@
         <v>0.0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.01</v>
+        <v>0.75</v>
       </c>
       <c r="D153" t="n">
         <v>0.0</v>
@@ -4396,10 +4576,10 @@
         <v>36.0</v>
       </c>
       <c r="F153" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G153" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H153"/>
       <c r="I153"/>
@@ -4415,19 +4595,19 @@
         <v>0.0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D154" t="n">
         <v>0.78125</v>
       </c>
       <c r="E154" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F154" t="n">
         <v>100.0</v>
       </c>
       <c r="G154" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H154"/>
       <c r="I154"/>
@@ -4443,19 +4623,19 @@
         <v>0.0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D155" t="n">
         <v>0.78125</v>
       </c>
       <c r="E155" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F155" t="n">
         <v>100.0</v>
       </c>
       <c r="G155" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H155"/>
       <c r="I155"/>
@@ -4477,13 +4657,13 @@
         <v>0.78125</v>
       </c>
       <c r="E156" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F156" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G156" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H156"/>
       <c r="I156"/>
@@ -4505,13 +4685,13 @@
         <v>0.78125</v>
       </c>
       <c r="E157" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F157" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G157" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H157"/>
       <c r="I157"/>
@@ -4527,7 +4707,7 @@
         <v>0.0</v>
       </c>
       <c r="C158" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D158" t="n">
         <v>0.78125</v>
@@ -4539,7 +4719,7 @@
         <v>100.0</v>
       </c>
       <c r="G158" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H158"/>
       <c r="I158"/>
@@ -4555,7 +4735,7 @@
         <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D159" t="n">
         <v>0.78125</v>
@@ -4567,7 +4747,7 @@
         <v>100.0</v>
       </c>
       <c r="G159" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H159"/>
       <c r="I159"/>
@@ -4583,7 +4763,7 @@
         <v>0.0</v>
       </c>
       <c r="C160" t="n">
-        <v>0.01</v>
+        <v>0.75</v>
       </c>
       <c r="D160" t="n">
         <v>0.78125</v>
@@ -4592,10 +4772,10 @@
         <v>36.0</v>
       </c>
       <c r="F160" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G160" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H160"/>
       <c r="I160"/>
@@ -4611,7 +4791,7 @@
         <v>0.0</v>
       </c>
       <c r="C161" t="n">
-        <v>0.01</v>
+        <v>0.75</v>
       </c>
       <c r="D161" t="n">
         <v>0.78125</v>
@@ -4620,10 +4800,10 @@
         <v>36.0</v>
       </c>
       <c r="F161" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G161" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H161"/>
       <c r="I161"/>
@@ -4639,19 +4819,19 @@
         <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D162" t="n">
         <v>1.5625</v>
       </c>
       <c r="E162" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F162" t="n">
         <v>100.0</v>
       </c>
       <c r="G162" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H162"/>
       <c r="I162"/>
@@ -4667,19 +4847,19 @@
         <v>0.0</v>
       </c>
       <c r="C163" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D163" t="n">
         <v>1.5625</v>
       </c>
       <c r="E163" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F163" t="n">
         <v>100.0</v>
       </c>
       <c r="G163" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H163"/>
       <c r="I163"/>
@@ -4701,13 +4881,13 @@
         <v>1.5625</v>
       </c>
       <c r="E164" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F164" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G164" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H164"/>
       <c r="I164"/>
@@ -4729,13 +4909,13 @@
         <v>1.5625</v>
       </c>
       <c r="E165" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F165" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G165" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H165"/>
       <c r="I165"/>
@@ -4751,7 +4931,7 @@
         <v>0.0</v>
       </c>
       <c r="C166" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D166" t="n">
         <v>1.5625</v>
@@ -4763,7 +4943,7 @@
         <v>100.0</v>
       </c>
       <c r="G166" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H166"/>
       <c r="I166"/>
@@ -4779,7 +4959,7 @@
         <v>0.0</v>
       </c>
       <c r="C167" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D167" t="n">
         <v>1.5625</v>
@@ -4791,7 +4971,7 @@
         <v>100.0</v>
       </c>
       <c r="G167" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H167"/>
       <c r="I167"/>
@@ -4807,7 +4987,7 @@
         <v>0.0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.01</v>
+        <v>0.75</v>
       </c>
       <c r="D168" t="n">
         <v>1.5625</v>
@@ -4816,10 +4996,10 @@
         <v>36.0</v>
       </c>
       <c r="F168" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G168" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H168"/>
       <c r="I168"/>
@@ -4835,7 +5015,7 @@
         <v>0.0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.01</v>
+        <v>0.75</v>
       </c>
       <c r="D169" t="n">
         <v>1.5625</v>
@@ -4844,10 +5024,10 @@
         <v>36.0</v>
       </c>
       <c r="F169" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G169" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H169"/>
       <c r="I169"/>
@@ -4863,19 +5043,19 @@
         <v>0.0</v>
       </c>
       <c r="C170" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D170" t="n">
         <v>3.125</v>
       </c>
       <c r="E170" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F170" t="n">
         <v>100.0</v>
       </c>
       <c r="G170" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H170"/>
       <c r="I170"/>
@@ -4891,19 +5071,19 @@
         <v>0.0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D171" t="n">
         <v>3.125</v>
       </c>
       <c r="E171" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F171" t="n">
         <v>100.0</v>
       </c>
       <c r="G171" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H171"/>
       <c r="I171"/>
@@ -4925,13 +5105,13 @@
         <v>3.125</v>
       </c>
       <c r="E172" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F172" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G172" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H172"/>
       <c r="I172"/>
@@ -4953,13 +5133,13 @@
         <v>3.125</v>
       </c>
       <c r="E173" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F173" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G173" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H173"/>
       <c r="I173"/>
@@ -4975,7 +5155,7 @@
         <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D174" t="n">
         <v>3.125</v>
@@ -4987,7 +5167,7 @@
         <v>100.0</v>
       </c>
       <c r="G174" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H174"/>
       <c r="I174"/>
@@ -5003,7 +5183,7 @@
         <v>0.0</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D175" t="n">
         <v>3.125</v>
@@ -5015,7 +5195,7 @@
         <v>100.0</v>
       </c>
       <c r="G175" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H175"/>
       <c r="I175"/>
@@ -5031,7 +5211,7 @@
         <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.01</v>
+        <v>0.75</v>
       </c>
       <c r="D176" t="n">
         <v>3.125</v>
@@ -5040,10 +5220,10 @@
         <v>36.0</v>
       </c>
       <c r="F176" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G176" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H176"/>
       <c r="I176"/>
@@ -5059,7 +5239,7 @@
         <v>0.0</v>
       </c>
       <c r="C177" t="n">
-        <v>0.01</v>
+        <v>0.75</v>
       </c>
       <c r="D177" t="n">
         <v>3.125</v>
@@ -5068,10 +5248,10 @@
         <v>36.0</v>
       </c>
       <c r="F177" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G177" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H177"/>
       <c r="I177"/>
@@ -5087,7 +5267,7 @@
         <v>0.0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D178" t="n">
         <v>0.0</v>
@@ -5096,10 +5276,10 @@
         <v>12.0</v>
       </c>
       <c r="F178" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G178" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H178"/>
       <c r="I178"/>
@@ -5115,7 +5295,7 @@
         <v>0.0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D179" t="n">
         <v>0.0</v>
@@ -5124,10 +5304,10 @@
         <v>12.0</v>
       </c>
       <c r="F179" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G179" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H179"/>
       <c r="I179"/>
@@ -5143,7 +5323,7 @@
         <v>0.0</v>
       </c>
       <c r="C180" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D180" t="n">
         <v>0.0</v>
@@ -5155,7 +5335,7 @@
         <v>3000.0</v>
       </c>
       <c r="G180" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H180"/>
       <c r="I180"/>
@@ -5171,7 +5351,7 @@
         <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D181" t="n">
         <v>0.0</v>
@@ -5183,7 +5363,7 @@
         <v>3000.0</v>
       </c>
       <c r="G181" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H181"/>
       <c r="I181"/>
@@ -5205,13 +5385,13 @@
         <v>0.0</v>
       </c>
       <c r="E182" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F182" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G182" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H182"/>
       <c r="I182"/>
@@ -5233,13 +5413,13 @@
         <v>0.0</v>
       </c>
       <c r="E183" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F183" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G183" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H183"/>
       <c r="I183"/>
@@ -5255,19 +5435,19 @@
         <v>0.0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D184" t="n">
         <v>0.0</v>
       </c>
       <c r="E184" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F184" t="n">
         <v>3000.0</v>
       </c>
       <c r="G184" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H184"/>
       <c r="I184"/>
@@ -5283,19 +5463,19 @@
         <v>0.0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D185" t="n">
         <v>0.0</v>
       </c>
       <c r="E185" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F185" t="n">
         <v>3000.0</v>
       </c>
       <c r="G185" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H185"/>
       <c r="I185"/>
@@ -5311,7 +5491,7 @@
         <v>0.0</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D186" t="n">
         <v>0.78125</v>
@@ -5320,10 +5500,10 @@
         <v>12.0</v>
       </c>
       <c r="F186" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G186" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H186"/>
       <c r="I186"/>
@@ -5339,7 +5519,7 @@
         <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D187" t="n">
         <v>0.78125</v>
@@ -5348,10 +5528,10 @@
         <v>12.0</v>
       </c>
       <c r="F187" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G187" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H187"/>
       <c r="I187"/>
@@ -5367,7 +5547,7 @@
         <v>0.0</v>
       </c>
       <c r="C188" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D188" t="n">
         <v>0.78125</v>
@@ -5379,7 +5559,7 @@
         <v>3000.0</v>
       </c>
       <c r="G188" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H188"/>
       <c r="I188"/>
@@ -5395,7 +5575,7 @@
         <v>0.0</v>
       </c>
       <c r="C189" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D189" t="n">
         <v>0.78125</v>
@@ -5407,7 +5587,7 @@
         <v>3000.0</v>
       </c>
       <c r="G189" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H189"/>
       <c r="I189"/>
@@ -5429,13 +5609,13 @@
         <v>0.78125</v>
       </c>
       <c r="E190" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F190" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G190" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H190"/>
       <c r="I190"/>
@@ -5457,13 +5637,13 @@
         <v>0.78125</v>
       </c>
       <c r="E191" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F191" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G191" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H191"/>
       <c r="I191"/>
@@ -5479,19 +5659,19 @@
         <v>0.0</v>
       </c>
       <c r="C192" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D192" t="n">
         <v>0.78125</v>
       </c>
       <c r="E192" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F192" t="n">
         <v>3000.0</v>
       </c>
       <c r="G192" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H192"/>
       <c r="I192"/>
@@ -5507,19 +5687,19 @@
         <v>0.0</v>
       </c>
       <c r="C193" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D193" t="n">
         <v>0.78125</v>
       </c>
       <c r="E193" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F193" t="n">
         <v>3000.0</v>
       </c>
       <c r="G193" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H193"/>
       <c r="I193"/>
@@ -5535,7 +5715,7 @@
         <v>0.0</v>
       </c>
       <c r="C194" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D194" t="n">
         <v>1.5625</v>
@@ -5544,10 +5724,10 @@
         <v>12.0</v>
       </c>
       <c r="F194" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G194" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H194"/>
       <c r="I194"/>
@@ -5563,7 +5743,7 @@
         <v>0.0</v>
       </c>
       <c r="C195" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D195" t="n">
         <v>1.5625</v>
@@ -5572,10 +5752,10 @@
         <v>12.0</v>
       </c>
       <c r="F195" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G195" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H195"/>
       <c r="I195"/>
@@ -5591,7 +5771,7 @@
         <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D196" t="n">
         <v>1.5625</v>
@@ -5603,7 +5783,7 @@
         <v>3000.0</v>
       </c>
       <c r="G196" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H196"/>
       <c r="I196"/>
@@ -5619,7 +5799,7 @@
         <v>0.0</v>
       </c>
       <c r="C197" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D197" t="n">
         <v>1.5625</v>
@@ -5631,7 +5811,7 @@
         <v>3000.0</v>
       </c>
       <c r="G197" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H197"/>
       <c r="I197"/>
@@ -5653,13 +5833,13 @@
         <v>1.5625</v>
       </c>
       <c r="E198" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F198" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G198" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H198"/>
       <c r="I198"/>
@@ -5681,13 +5861,13 @@
         <v>1.5625</v>
       </c>
       <c r="E199" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F199" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G199" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H199"/>
       <c r="I199"/>
@@ -5703,19 +5883,19 @@
         <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D200" t="n">
         <v>1.5625</v>
       </c>
       <c r="E200" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F200" t="n">
         <v>3000.0</v>
       </c>
       <c r="G200" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H200"/>
       <c r="I200"/>
@@ -5731,19 +5911,19 @@
         <v>0.0</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D201" t="n">
         <v>1.5625</v>
       </c>
       <c r="E201" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F201" t="n">
         <v>3000.0</v>
       </c>
       <c r="G201" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H201"/>
       <c r="I201"/>
@@ -5759,7 +5939,7 @@
         <v>0.0</v>
       </c>
       <c r="C202" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D202" t="n">
         <v>3.125</v>
@@ -5768,10 +5948,10 @@
         <v>12.0</v>
       </c>
       <c r="F202" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G202" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H202"/>
       <c r="I202"/>
@@ -5787,7 +5967,7 @@
         <v>0.0</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D203" t="n">
         <v>3.125</v>
@@ -5796,10 +5976,10 @@
         <v>12.0</v>
       </c>
       <c r="F203" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G203" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H203"/>
       <c r="I203"/>
@@ -5815,7 +5995,7 @@
         <v>0.0</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D204" t="n">
         <v>3.125</v>
@@ -5827,7 +6007,7 @@
         <v>3000.0</v>
       </c>
       <c r="G204" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H204"/>
       <c r="I204"/>
@@ -5843,7 +6023,7 @@
         <v>0.0</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D205" t="n">
         <v>3.125</v>
@@ -5855,7 +6035,7 @@
         <v>3000.0</v>
       </c>
       <c r="G205" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H205"/>
       <c r="I205"/>
@@ -5877,13 +6057,13 @@
         <v>3.125</v>
       </c>
       <c r="E206" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F206" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G206" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H206"/>
       <c r="I206"/>
@@ -5905,13 +6085,13 @@
         <v>3.125</v>
       </c>
       <c r="E207" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F207" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G207" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H207"/>
       <c r="I207"/>
@@ -5927,19 +6107,19 @@
         <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D208" t="n">
         <v>3.125</v>
       </c>
       <c r="E208" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F208" t="n">
         <v>3000.0</v>
       </c>
       <c r="G208" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H208"/>
       <c r="I208"/>
@@ -5955,19 +6135,19 @@
         <v>0.0</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D209" t="n">
         <v>3.125</v>
       </c>
       <c r="E209" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F209" t="n">
         <v>3000.0</v>
       </c>
       <c r="G209" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H209"/>
       <c r="I209"/>
@@ -5983,19 +6163,19 @@
         <v>0.0</v>
       </c>
       <c r="C210" t="n">
-        <v>0.75</v>
+        <v>0.005</v>
       </c>
       <c r="D210" t="n">
         <v>0.0</v>
       </c>
       <c r="E210" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F210" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G210" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H210"/>
       <c r="I210"/>
@@ -6011,19 +6191,19 @@
         <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>0.75</v>
+        <v>0.005</v>
       </c>
       <c r="D211" t="n">
         <v>0.0</v>
       </c>
       <c r="E211" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F211" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G211" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H211"/>
       <c r="I211"/>
@@ -6039,19 +6219,19 @@
         <v>0.0</v>
       </c>
       <c r="C212" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="D212" t="n">
         <v>0.0</v>
       </c>
       <c r="E212" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F212" t="n">
         <v>3000.0</v>
       </c>
       <c r="G212" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H212"/>
       <c r="I212"/>
@@ -6067,19 +6247,19 @@
         <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="D213" t="n">
         <v>0.0</v>
       </c>
       <c r="E213" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F213" t="n">
         <v>3000.0</v>
       </c>
       <c r="G213" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H213"/>
       <c r="I213"/>
@@ -6095,7 +6275,7 @@
         <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D214" t="n">
         <v>0.0</v>
@@ -6104,10 +6284,10 @@
         <v>36.0</v>
       </c>
       <c r="F214" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G214" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H214"/>
       <c r="I214"/>
@@ -6123,7 +6303,7 @@
         <v>0.0</v>
       </c>
       <c r="C215" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D215" t="n">
         <v>0.0</v>
@@ -6132,10 +6312,10 @@
         <v>36.0</v>
       </c>
       <c r="F215" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G215" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H215"/>
       <c r="I215"/>
@@ -6163,7 +6343,7 @@
         <v>3000.0</v>
       </c>
       <c r="G216" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H216"/>
       <c r="I216"/>
@@ -6191,7 +6371,7 @@
         <v>3000.0</v>
       </c>
       <c r="G217" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H217"/>
       <c r="I217"/>
@@ -6207,19 +6387,19 @@
         <v>0.0</v>
       </c>
       <c r="C218" t="n">
-        <v>0.75</v>
+        <v>0.005</v>
       </c>
       <c r="D218" t="n">
         <v>0.78125</v>
       </c>
       <c r="E218" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F218" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G218" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H218"/>
       <c r="I218"/>
@@ -6235,19 +6415,19 @@
         <v>0.0</v>
       </c>
       <c r="C219" t="n">
-        <v>0.75</v>
+        <v>0.005</v>
       </c>
       <c r="D219" t="n">
         <v>0.78125</v>
       </c>
       <c r="E219" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F219" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G219" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H219"/>
       <c r="I219"/>
@@ -6263,19 +6443,19 @@
         <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="D220" t="n">
         <v>0.78125</v>
       </c>
       <c r="E220" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F220" t="n">
         <v>3000.0</v>
       </c>
       <c r="G220" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H220"/>
       <c r="I220"/>
@@ -6291,19 +6471,19 @@
         <v>0.0</v>
       </c>
       <c r="C221" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="D221" t="n">
         <v>0.78125</v>
       </c>
       <c r="E221" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F221" t="n">
         <v>3000.0</v>
       </c>
       <c r="G221" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H221"/>
       <c r="I221"/>
@@ -6319,7 +6499,7 @@
         <v>0.0</v>
       </c>
       <c r="C222" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D222" t="n">
         <v>0.78125</v>
@@ -6328,10 +6508,10 @@
         <v>36.0</v>
       </c>
       <c r="F222" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G222" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H222"/>
       <c r="I222"/>
@@ -6347,7 +6527,7 @@
         <v>0.0</v>
       </c>
       <c r="C223" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D223" t="n">
         <v>0.78125</v>
@@ -6356,10 +6536,10 @@
         <v>36.0</v>
       </c>
       <c r="F223" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G223" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H223"/>
       <c r="I223"/>
@@ -6387,7 +6567,7 @@
         <v>3000.0</v>
       </c>
       <c r="G224" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H224"/>
       <c r="I224"/>
@@ -6415,7 +6595,7 @@
         <v>3000.0</v>
       </c>
       <c r="G225" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H225"/>
       <c r="I225"/>
@@ -6431,19 +6611,19 @@
         <v>0.0</v>
       </c>
       <c r="C226" t="n">
-        <v>0.75</v>
+        <v>0.005</v>
       </c>
       <c r="D226" t="n">
         <v>1.5625</v>
       </c>
       <c r="E226" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F226" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G226" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H226"/>
       <c r="I226"/>
@@ -6459,19 +6639,19 @@
         <v>0.0</v>
       </c>
       <c r="C227" t="n">
-        <v>0.75</v>
+        <v>0.005</v>
       </c>
       <c r="D227" t="n">
         <v>1.5625</v>
       </c>
       <c r="E227" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F227" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G227" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H227"/>
       <c r="I227"/>
@@ -6487,19 +6667,19 @@
         <v>0.0</v>
       </c>
       <c r="C228" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="D228" t="n">
         <v>1.5625</v>
       </c>
       <c r="E228" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F228" t="n">
         <v>3000.0</v>
       </c>
       <c r="G228" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H228"/>
       <c r="I228"/>
@@ -6515,19 +6695,19 @@
         <v>0.0</v>
       </c>
       <c r="C229" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="D229" t="n">
         <v>1.5625</v>
       </c>
       <c r="E229" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F229" t="n">
         <v>3000.0</v>
       </c>
       <c r="G229" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H229"/>
       <c r="I229"/>
@@ -6543,7 +6723,7 @@
         <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D230" t="n">
         <v>1.5625</v>
@@ -6552,10 +6732,10 @@
         <v>36.0</v>
       </c>
       <c r="F230" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G230" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H230"/>
       <c r="I230"/>
@@ -6571,7 +6751,7 @@
         <v>0.0</v>
       </c>
       <c r="C231" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D231" t="n">
         <v>1.5625</v>
@@ -6580,10 +6760,10 @@
         <v>36.0</v>
       </c>
       <c r="F231" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G231" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H231"/>
       <c r="I231"/>
@@ -6611,7 +6791,7 @@
         <v>3000.0</v>
       </c>
       <c r="G232" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H232"/>
       <c r="I232"/>
@@ -6639,7 +6819,7 @@
         <v>3000.0</v>
       </c>
       <c r="G233" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H233"/>
       <c r="I233"/>
@@ -6655,19 +6835,19 @@
         <v>0.0</v>
       </c>
       <c r="C234" t="n">
-        <v>0.75</v>
+        <v>0.005</v>
       </c>
       <c r="D234" t="n">
         <v>3.125</v>
       </c>
       <c r="E234" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F234" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G234" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H234"/>
       <c r="I234"/>
@@ -6683,19 +6863,19 @@
         <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>0.75</v>
+        <v>0.005</v>
       </c>
       <c r="D235" t="n">
         <v>3.125</v>
       </c>
       <c r="E235" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F235" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G235" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H235"/>
       <c r="I235"/>
@@ -6711,19 +6891,19 @@
         <v>0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="D236" t="n">
         <v>3.125</v>
       </c>
       <c r="E236" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F236" t="n">
         <v>3000.0</v>
       </c>
       <c r="G236" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H236"/>
       <c r="I236"/>
@@ -6739,19 +6919,19 @@
         <v>0.0</v>
       </c>
       <c r="C237" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="D237" t="n">
         <v>3.125</v>
       </c>
       <c r="E237" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F237" t="n">
         <v>3000.0</v>
       </c>
       <c r="G237" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H237"/>
       <c r="I237"/>
@@ -6767,7 +6947,7 @@
         <v>0.0</v>
       </c>
       <c r="C238" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D238" t="n">
         <v>3.125</v>
@@ -6776,10 +6956,10 @@
         <v>36.0</v>
       </c>
       <c r="F238" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G238" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H238"/>
       <c r="I238"/>
@@ -6795,7 +6975,7 @@
         <v>0.0</v>
       </c>
       <c r="C239" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="D239" t="n">
         <v>3.125</v>
@@ -6804,10 +6984,10 @@
         <v>36.0</v>
       </c>
       <c r="F239" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G239" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H239"/>
       <c r="I239"/>
@@ -6835,7 +7015,7 @@
         <v>3000.0</v>
       </c>
       <c r="G240" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="H240"/>
       <c r="I240"/>
@@ -6863,7 +7043,7 @@
         <v>3000.0</v>
       </c>
       <c r="G241" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H241"/>
       <c r="I241"/>
@@ -6904,7 +7084,7 @@
         <v>15</v>
       </c>
       <c r="B243" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C243" t="n">
         <v>0.005</v>
@@ -6916,7 +7096,7 @@
         <v>12.0</v>
       </c>
       <c r="F243" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G243" t="n">
         <v>0.0</v>
@@ -6932,7 +7112,7 @@
         <v>15</v>
       </c>
       <c r="B244" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C244" t="n">
         <v>0.005</v>
@@ -6941,7 +7121,7 @@
         <v>0.0</v>
       </c>
       <c r="E244" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F244" t="n">
         <v>100.0</v>
@@ -6963,16 +7143,16 @@
         <v>10.0</v>
       </c>
       <c r="C245" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D245" t="n">
         <v>0.0</v>
       </c>
       <c r="E245" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F245" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G245" t="n">
         <v>0.0</v>
@@ -6988,13 +7168,13 @@
         <v>15</v>
       </c>
       <c r="B246" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C246" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D246" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E246" t="n">
         <v>12.0</v>
@@ -7016,19 +7196,19 @@
         <v>15</v>
       </c>
       <c r="B247" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C247" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D247" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E247" t="n">
         <v>12.0</v>
       </c>
       <c r="F247" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G247" t="n">
         <v>0.0</v>
@@ -7047,13 +7227,13 @@
         <v>10.0</v>
       </c>
       <c r="C248" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D248" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E248" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F248" t="n">
         <v>100.0</v>
@@ -7072,19 +7252,19 @@
         <v>15</v>
       </c>
       <c r="B249" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C249" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D249" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E249" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F249" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G249" t="n">
         <v>0.0</v>
@@ -7100,13 +7280,13 @@
         <v>15</v>
       </c>
       <c r="B250" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C250" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D250" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E250" t="n">
         <v>12.0</v>
@@ -7134,13 +7314,13 @@
         <v>0.005</v>
       </c>
       <c r="D251" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E251" t="n">
         <v>12.0</v>
       </c>
       <c r="F251" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G251" t="n">
         <v>0.0</v>
@@ -7156,16 +7336,16 @@
         <v>15</v>
       </c>
       <c r="B252" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C252" t="n">
         <v>0.005</v>
       </c>
       <c r="D252" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E252" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F252" t="n">
         <v>100.0</v>
@@ -7184,19 +7364,19 @@
         <v>15</v>
       </c>
       <c r="B253" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C253" t="n">
         <v>0.005</v>
       </c>
       <c r="D253" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E253" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F253" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G253" t="n">
         <v>0.0</v>
@@ -7215,10 +7395,10 @@
         <v>10.0</v>
       </c>
       <c r="C254" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D254" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E254" t="n">
         <v>12.0</v>
@@ -7240,19 +7420,19 @@
         <v>15</v>
       </c>
       <c r="B255" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C255" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D255" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E255" t="n">
         <v>12.0</v>
       </c>
       <c r="F255" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G255" t="n">
         <v>0.0</v>
@@ -7268,16 +7448,16 @@
         <v>15</v>
       </c>
       <c r="B256" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C256" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D256" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E256" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F256" t="n">
         <v>100.0</v>
@@ -7299,16 +7479,16 @@
         <v>10.0</v>
       </c>
       <c r="C257" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D257" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E257" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F257" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G257" t="n">
         <v>0.0</v>
@@ -7324,13 +7504,13 @@
         <v>15</v>
       </c>
       <c r="B258" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C258" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D258" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E258" t="n">
         <v>12.0</v>
@@ -7352,19 +7532,19 @@
         <v>15</v>
       </c>
       <c r="B259" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C259" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D259" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E259" t="n">
         <v>12.0</v>
       </c>
       <c r="F259" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G259" t="n">
         <v>0.0</v>
@@ -7383,13 +7563,13 @@
         <v>10.0</v>
       </c>
       <c r="C260" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D260" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E260" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F260" t="n">
         <v>100.0</v>
@@ -7408,19 +7588,19 @@
         <v>15</v>
       </c>
       <c r="B261" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C261" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D261" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E261" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F261" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G261" t="n">
         <v>0.0</v>
@@ -7436,13 +7616,13 @@
         <v>15</v>
       </c>
       <c r="B262" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C262" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D262" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E262" t="n">
         <v>12.0</v>
@@ -7470,13 +7650,13 @@
         <v>0.01</v>
       </c>
       <c r="D263" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E263" t="n">
         <v>12.0</v>
       </c>
       <c r="F263" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G263" t="n">
         <v>0.0</v>
@@ -7492,16 +7672,16 @@
         <v>15</v>
       </c>
       <c r="B264" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C264" t="n">
         <v>0.01</v>
       </c>
       <c r="D264" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E264" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F264" t="n">
         <v>100.0</v>
@@ -7520,19 +7700,19 @@
         <v>15</v>
       </c>
       <c r="B265" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C265" t="n">
         <v>0.01</v>
       </c>
       <c r="D265" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E265" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F265" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G265" t="n">
         <v>0.0</v>
@@ -7551,7 +7731,7 @@
         <v>10.0</v>
       </c>
       <c r="C266" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D266" t="n">
         <v>1.5625</v>
@@ -7576,10 +7756,10 @@
         <v>15</v>
       </c>
       <c r="B267" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C267" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D267" t="n">
         <v>1.5625</v>
@@ -7588,7 +7768,7 @@
         <v>12.0</v>
       </c>
       <c r="F267" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G267" t="n">
         <v>0.0</v>
@@ -7604,16 +7784,16 @@
         <v>15</v>
       </c>
       <c r="B268" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C268" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D268" t="n">
         <v>1.5625</v>
       </c>
       <c r="E268" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F268" t="n">
         <v>100.0</v>
@@ -7635,16 +7815,16 @@
         <v>10.0</v>
       </c>
       <c r="C269" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D269" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E269" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F269" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G269" t="n">
         <v>0.0</v>
@@ -7660,10 +7840,10 @@
         <v>15</v>
       </c>
       <c r="B270" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C270" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D270" t="n">
         <v>3.125</v>
@@ -7688,10 +7868,10 @@
         <v>15</v>
       </c>
       <c r="B271" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C271" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D271" t="n">
         <v>3.125</v>
@@ -7700,7 +7880,7 @@
         <v>12.0</v>
       </c>
       <c r="F271" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G271" t="n">
         <v>0.0</v>
@@ -7725,7 +7905,7 @@
         <v>3.125</v>
       </c>
       <c r="E272" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F272" t="n">
         <v>100.0</v>
@@ -7744,7 +7924,7 @@
         <v>15</v>
       </c>
       <c r="B273" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C273" t="n">
         <v>0.01</v>
@@ -7753,10 +7933,10 @@
         <v>3.125</v>
       </c>
       <c r="E273" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F273" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G273" t="n">
         <v>0.0</v>
@@ -7772,13 +7952,13 @@
         <v>15</v>
       </c>
       <c r="B274" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C274" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D274" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E274" t="n">
         <v>12.0</v>
@@ -7806,13 +7986,13 @@
         <v>0.1</v>
       </c>
       <c r="D275" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E275" t="n">
         <v>12.0</v>
       </c>
       <c r="F275" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G275" t="n">
         <v>0.0</v>
@@ -7828,16 +8008,16 @@
         <v>15</v>
       </c>
       <c r="B276" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C276" t="n">
         <v>0.1</v>
       </c>
       <c r="D276" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E276" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F276" t="n">
         <v>100.0</v>
@@ -7856,19 +8036,19 @@
         <v>15</v>
       </c>
       <c r="B277" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C277" t="n">
         <v>0.1</v>
       </c>
       <c r="D277" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E277" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F277" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G277" t="n">
         <v>0.0</v>
@@ -7887,13 +8067,13 @@
         <v>10.0</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D278" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E278" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F278" t="n">
         <v>100.0</v>
@@ -7912,19 +8092,19 @@
         <v>15</v>
       </c>
       <c r="B279" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C279" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D279" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E279" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F279" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G279" t="n">
         <v>0.0</v>
@@ -7940,13 +8120,13 @@
         <v>15</v>
       </c>
       <c r="B280" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C280" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D280" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E280" t="n">
         <v>36.0</v>
@@ -7971,16 +8151,16 @@
         <v>10.0</v>
       </c>
       <c r="C281" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D281" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E281" t="n">
         <v>36.0</v>
       </c>
       <c r="F281" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G281" t="n">
         <v>0.0</v>
@@ -7996,16 +8176,16 @@
         <v>15</v>
       </c>
       <c r="B282" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C282" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D282" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E282" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F282" t="n">
         <v>100.0</v>
@@ -8024,19 +8204,19 @@
         <v>15</v>
       </c>
       <c r="B283" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C283" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D283" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E283" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F283" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G283" t="n">
         <v>0.0</v>
@@ -8058,7 +8238,7 @@
         <v>0.1</v>
       </c>
       <c r="D284" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E284" t="n">
         <v>36.0</v>
@@ -8080,19 +8260,19 @@
         <v>15</v>
       </c>
       <c r="B285" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C285" t="n">
         <v>0.1</v>
       </c>
       <c r="D285" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E285" t="n">
         <v>36.0</v>
       </c>
       <c r="F285" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G285" t="n">
         <v>0.0</v>
@@ -8108,16 +8288,16 @@
         <v>15</v>
       </c>
       <c r="B286" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C286" t="n">
         <v>0.1</v>
       </c>
       <c r="D286" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E286" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F286" t="n">
         <v>100.0</v>
@@ -8139,16 +8319,16 @@
         <v>10.0</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D287" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E287" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F287" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G287" t="n">
         <v>0.0</v>
@@ -8164,13 +8344,13 @@
         <v>15</v>
       </c>
       <c r="B288" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C288" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D288" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E288" t="n">
         <v>36.0</v>
@@ -8192,19 +8372,19 @@
         <v>15</v>
       </c>
       <c r="B289" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C289" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D289" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E289" t="n">
         <v>36.0</v>
       </c>
       <c r="F289" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G289" t="n">
         <v>0.0</v>
@@ -8220,16 +8400,16 @@
         <v>15</v>
       </c>
       <c r="B290" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C290" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D290" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E290" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F290" t="n">
         <v>100.0</v>
@@ -8251,16 +8431,16 @@
         <v>20.0</v>
       </c>
       <c r="C291" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D291" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E291" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F291" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G291" t="n">
         <v>0.0</v>
@@ -8276,13 +8456,13 @@
         <v>15</v>
       </c>
       <c r="B292" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C292" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D292" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E292" t="n">
         <v>36.0</v>
@@ -8304,19 +8484,19 @@
         <v>15</v>
       </c>
       <c r="B293" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C293" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D293" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E293" t="n">
         <v>36.0</v>
       </c>
       <c r="F293" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G293" t="n">
         <v>0.0</v>
@@ -8335,13 +8515,13 @@
         <v>20.0</v>
       </c>
       <c r="C294" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D294" t="n">
         <v>0.78125</v>
       </c>
       <c r="E294" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F294" t="n">
         <v>100.0</v>
@@ -8360,19 +8540,19 @@
         <v>15</v>
       </c>
       <c r="B295" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C295" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D295" t="n">
         <v>0.78125</v>
       </c>
       <c r="E295" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F295" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G295" t="n">
         <v>0.0</v>
@@ -8388,13 +8568,13 @@
         <v>15</v>
       </c>
       <c r="B296" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C296" t="n">
         <v>0.005</v>
       </c>
       <c r="D296" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E296" t="n">
         <v>36.0</v>
@@ -8422,13 +8602,13 @@
         <v>0.005</v>
       </c>
       <c r="D297" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E297" t="n">
         <v>36.0</v>
       </c>
       <c r="F297" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G297" t="n">
         <v>0.0</v>
@@ -8444,7 +8624,7 @@
         <v>15</v>
       </c>
       <c r="B298" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C298" t="n">
         <v>0.005</v>
@@ -8453,7 +8633,7 @@
         <v>1.5625</v>
       </c>
       <c r="E298" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F298" t="n">
         <v>100.0</v>
@@ -8472,19 +8652,19 @@
         <v>15</v>
       </c>
       <c r="B299" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C299" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D299" t="n">
         <v>1.5625</v>
       </c>
       <c r="E299" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F299" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G299" t="n">
         <v>0.0</v>
@@ -8503,7 +8683,7 @@
         <v>20.0</v>
       </c>
       <c r="C300" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D300" t="n">
         <v>1.5625</v>
@@ -8528,10 +8708,10 @@
         <v>15</v>
       </c>
       <c r="B301" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C301" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D301" t="n">
         <v>1.5625</v>
@@ -8540,7 +8720,7 @@
         <v>36.0</v>
       </c>
       <c r="F301" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G301" t="n">
         <v>0.0</v>
@@ -8556,16 +8736,16 @@
         <v>15</v>
       </c>
       <c r="B302" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C302" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D302" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E302" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F302" t="n">
         <v>100.0</v>
@@ -8587,16 +8767,16 @@
         <v>20.0</v>
       </c>
       <c r="C303" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D303" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E303" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F303" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G303" t="n">
         <v>0.0</v>
@@ -8612,13 +8792,13 @@
         <v>15</v>
       </c>
       <c r="B304" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C304" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D304" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E304" t="n">
         <v>36.0</v>
@@ -8640,7 +8820,7 @@
         <v>15</v>
       </c>
       <c r="B305" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C305" t="n">
         <v>0.005</v>
@@ -8652,7 +8832,7 @@
         <v>36.0</v>
       </c>
       <c r="F305" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G305" t="n">
         <v>0.0</v>
@@ -8671,13 +8851,13 @@
         <v>20.0</v>
       </c>
       <c r="C306" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D306" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E306" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F306" t="n">
         <v>100.0</v>
@@ -8696,19 +8876,19 @@
         <v>15</v>
       </c>
       <c r="B307" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C307" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D307" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E307" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F307" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G307" t="n">
         <v>0.0</v>
@@ -8724,13 +8904,13 @@
         <v>15</v>
       </c>
       <c r="B308" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C308" t="n">
         <v>0.01</v>
       </c>
       <c r="D308" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E308" t="n">
         <v>36.0</v>
@@ -8758,13 +8938,13 @@
         <v>0.01</v>
       </c>
       <c r="D309" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E309" t="n">
         <v>36.0</v>
       </c>
       <c r="F309" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G309" t="n">
         <v>0.0</v>
@@ -8780,16 +8960,16 @@
         <v>15</v>
       </c>
       <c r="B310" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C310" t="n">
         <v>0.01</v>
       </c>
       <c r="D310" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E310" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F310" t="n">
         <v>100.0</v>
@@ -8808,19 +8988,19 @@
         <v>15</v>
       </c>
       <c r="B311" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C311" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D311" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E311" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F311" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G311" t="n">
         <v>0.0</v>
@@ -8839,10 +9019,10 @@
         <v>20.0</v>
       </c>
       <c r="C312" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D312" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E312" t="n">
         <v>36.0</v>
@@ -8864,19 +9044,19 @@
         <v>15</v>
       </c>
       <c r="B313" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C313" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D313" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E313" t="n">
         <v>36.0</v>
       </c>
       <c r="F313" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G313" t="n">
         <v>0.0</v>
@@ -8892,19 +9072,19 @@
         <v>15</v>
       </c>
       <c r="B314" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C314" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D314" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E314" t="n">
         <v>12.0</v>
       </c>
       <c r="F314" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G314" t="n">
         <v>0.0</v>
@@ -8923,10 +9103,10 @@
         <v>20.0</v>
       </c>
       <c r="C315" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D315" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E315" t="n">
         <v>12.0</v>
@@ -8948,19 +9128,19 @@
         <v>15</v>
       </c>
       <c r="B316" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C316" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D316" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E316" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F316" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G316" t="n">
         <v>0.0</v>
@@ -8976,16 +9156,16 @@
         <v>15</v>
       </c>
       <c r="B317" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C317" t="n">
         <v>0.01</v>
       </c>
       <c r="D317" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E317" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F317" t="n">
         <v>3000.0</v>
@@ -9010,13 +9190,13 @@
         <v>0.01</v>
       </c>
       <c r="D318" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E318" t="n">
         <v>12.0</v>
       </c>
       <c r="F318" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G318" t="n">
         <v>0.0</v>
@@ -9032,13 +9212,13 @@
         <v>15</v>
       </c>
       <c r="B319" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C319" t="n">
         <v>0.01</v>
       </c>
       <c r="D319" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E319" t="n">
         <v>12.0</v>
@@ -9060,19 +9240,19 @@
         <v>15</v>
       </c>
       <c r="B320" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C320" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D320" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E320" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F320" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G320" t="n">
         <v>0.0</v>
@@ -9091,13 +9271,13 @@
         <v>20.0</v>
       </c>
       <c r="C321" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D321" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E321" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F321" t="n">
         <v>3000.0</v>
@@ -9116,7 +9296,7 @@
         <v>15</v>
       </c>
       <c r="B322" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C322" t="n">
         <v>0.1</v>
@@ -9128,7 +9308,7 @@
         <v>12.0</v>
       </c>
       <c r="F322" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G322" t="n">
         <v>0.0</v>
@@ -9144,13 +9324,13 @@
         <v>15</v>
       </c>
       <c r="B323" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C323" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D323" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E323" t="n">
         <v>12.0</v>
@@ -9175,16 +9355,16 @@
         <v>20.0</v>
       </c>
       <c r="C324" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D324" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E324" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F324" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G324" t="n">
         <v>0.0</v>
@@ -9200,16 +9380,16 @@
         <v>15</v>
       </c>
       <c r="B325" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C325" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D325" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E325" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F325" t="n">
         <v>3000.0</v>
@@ -9228,10 +9408,10 @@
         <v>15</v>
       </c>
       <c r="B326" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C326" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D326" t="n">
         <v>0.78125</v>
@@ -9240,7 +9420,7 @@
         <v>12.0</v>
       </c>
       <c r="F326" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G326" t="n">
         <v>0.0</v>
@@ -9259,7 +9439,7 @@
         <v>20.0</v>
       </c>
       <c r="C327" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D327" t="n">
         <v>0.78125</v>
@@ -9284,19 +9464,19 @@
         <v>15</v>
       </c>
       <c r="B328" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C328" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D328" t="n">
         <v>0.78125</v>
       </c>
       <c r="E328" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F328" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G328" t="n">
         <v>0.0</v>
@@ -9312,7 +9492,7 @@
         <v>15</v>
       </c>
       <c r="B329" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C329" t="n">
         <v>0.1</v>
@@ -9321,7 +9501,7 @@
         <v>0.78125</v>
       </c>
       <c r="E329" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F329" t="n">
         <v>3000.0</v>
@@ -9346,13 +9526,13 @@
         <v>0.1</v>
       </c>
       <c r="D330" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E330" t="n">
         <v>12.0</v>
       </c>
       <c r="F330" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G330" t="n">
         <v>0.0</v>
@@ -9368,13 +9548,13 @@
         <v>15</v>
       </c>
       <c r="B331" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C331" t="n">
         <v>0.1</v>
       </c>
       <c r="D331" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E331" t="n">
         <v>12.0</v>
@@ -9396,19 +9576,19 @@
         <v>15</v>
       </c>
       <c r="B332" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D332" t="n">
         <v>1.5625</v>
       </c>
       <c r="E332" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F332" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G332" t="n">
         <v>0.0</v>
@@ -9427,13 +9607,13 @@
         <v>20.0</v>
       </c>
       <c r="C333" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D333" t="n">
         <v>1.5625</v>
       </c>
       <c r="E333" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F333" t="n">
         <v>3000.0</v>
@@ -9452,19 +9632,19 @@
         <v>15</v>
       </c>
       <c r="B334" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C334" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D334" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E334" t="n">
         <v>12.0</v>
       </c>
       <c r="F334" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G334" t="n">
         <v>0.0</v>
@@ -9480,13 +9660,13 @@
         <v>15</v>
       </c>
       <c r="B335" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C335" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D335" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E335" t="n">
         <v>12.0</v>
@@ -9511,16 +9691,16 @@
         <v>20.0</v>
       </c>
       <c r="C336" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D336" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E336" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F336" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G336" t="n">
         <v>0.0</v>
@@ -9536,16 +9716,16 @@
         <v>15</v>
       </c>
       <c r="B337" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="C337" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D337" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E337" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F337" t="n">
         <v>3000.0</v>
@@ -9564,19 +9744,19 @@
         <v>15</v>
       </c>
       <c r="B338" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C338" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D338" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E338" t="n">
         <v>12.0</v>
       </c>
       <c r="F338" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G338" t="n">
         <v>0.0</v>
@@ -9592,13 +9772,13 @@
         <v>15</v>
       </c>
       <c r="B339" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C339" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D339" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E339" t="n">
         <v>12.0</v>
@@ -9623,16 +9803,16 @@
         <v>50.0</v>
       </c>
       <c r="C340" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D340" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E340" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F340" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G340" t="n">
         <v>0.0</v>
@@ -9648,16 +9828,16 @@
         <v>15</v>
       </c>
       <c r="B341" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C341" t="n">
         <v>0.005</v>
       </c>
       <c r="D341" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E341" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F341" t="n">
         <v>3000.0</v>
@@ -9676,19 +9856,19 @@
         <v>15</v>
       </c>
       <c r="B342" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C342" t="n">
         <v>0.005</v>
       </c>
       <c r="D342" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E342" t="n">
         <v>12.0</v>
       </c>
       <c r="F342" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G342" t="n">
         <v>0.0</v>
@@ -9710,7 +9890,7 @@
         <v>0.005</v>
       </c>
       <c r="D343" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E343" t="n">
         <v>12.0</v>
@@ -9732,19 +9912,19 @@
         <v>15</v>
       </c>
       <c r="B344" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C344" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D344" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E344" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F344" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G344" t="n">
         <v>0.0</v>
@@ -9760,16 +9940,16 @@
         <v>15</v>
       </c>
       <c r="B345" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C345" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D345" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E345" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F345" t="n">
         <v>3000.0</v>
@@ -9791,16 +9971,16 @@
         <v>50.0</v>
       </c>
       <c r="C346" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D346" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E346" t="n">
         <v>12.0</v>
       </c>
       <c r="F346" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G346" t="n">
         <v>0.0</v>
@@ -9816,13 +9996,13 @@
         <v>15</v>
       </c>
       <c r="B347" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C347" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D347" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E347" t="n">
         <v>12.0</v>
@@ -9844,19 +10024,19 @@
         <v>15</v>
       </c>
       <c r="B348" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C348" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D348" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E348" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F348" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G348" t="n">
         <v>0.0</v>
@@ -9875,13 +10055,13 @@
         <v>50.0</v>
       </c>
       <c r="C349" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D349" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E349" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F349" t="n">
         <v>3000.0</v>
@@ -9900,19 +10080,19 @@
         <v>15</v>
       </c>
       <c r="B350" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C350" t="n">
         <v>0.005</v>
       </c>
       <c r="D350" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E350" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F350" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G350" t="n">
         <v>0.0</v>
@@ -9928,16 +10108,16 @@
         <v>15</v>
       </c>
       <c r="B351" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C351" t="n">
         <v>0.005</v>
       </c>
       <c r="D351" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E351" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F351" t="n">
         <v>3000.0</v>
@@ -9962,13 +10142,13 @@
         <v>0.005</v>
       </c>
       <c r="D352" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E352" t="n">
         <v>36.0</v>
       </c>
       <c r="F352" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G352" t="n">
         <v>0.0</v>
@@ -9984,13 +10164,13 @@
         <v>15</v>
       </c>
       <c r="B353" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C353" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D353" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E353" t="n">
         <v>36.0</v>
@@ -10012,7 +10192,7 @@
         <v>15</v>
       </c>
       <c r="B354" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C354" t="n">
         <v>0.01</v>
@@ -10021,10 +10201,10 @@
         <v>0.0</v>
       </c>
       <c r="E354" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F354" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G354" t="n">
         <v>0.0</v>
@@ -10049,7 +10229,7 @@
         <v>0.0</v>
       </c>
       <c r="E355" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F355" t="n">
         <v>3000.0</v>
@@ -10068,10 +10248,10 @@
         <v>15</v>
       </c>
       <c r="B356" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C356" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D356" t="n">
         <v>0.0</v>
@@ -10080,7 +10260,7 @@
         <v>36.0</v>
       </c>
       <c r="F356" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G356" t="n">
         <v>0.0</v>
@@ -10096,10 +10276,10 @@
         <v>15</v>
       </c>
       <c r="B357" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C357" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D357" t="n">
         <v>0.0</v>
@@ -10127,16 +10307,16 @@
         <v>50.0</v>
       </c>
       <c r="C358" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D358" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E358" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F358" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G358" t="n">
         <v>0.0</v>
@@ -10152,16 +10332,16 @@
         <v>15</v>
       </c>
       <c r="B359" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C359" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D359" t="n">
         <v>0.78125</v>
       </c>
       <c r="E359" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F359" t="n">
         <v>3000.0</v>
@@ -10180,10 +10360,10 @@
         <v>15</v>
       </c>
       <c r="B360" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C360" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D360" t="n">
         <v>0.78125</v>
@@ -10192,7 +10372,7 @@
         <v>36.0</v>
       </c>
       <c r="F360" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G360" t="n">
         <v>0.0</v>
@@ -10211,7 +10391,7 @@
         <v>50.0</v>
       </c>
       <c r="C361" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D361" t="n">
         <v>0.78125</v>
@@ -10236,19 +10416,19 @@
         <v>15</v>
       </c>
       <c r="B362" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C362" t="n">
         <v>0.01</v>
       </c>
       <c r="D362" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E362" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F362" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G362" t="n">
         <v>0.0</v>
@@ -10264,16 +10444,16 @@
         <v>15</v>
       </c>
       <c r="B363" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C363" t="n">
         <v>0.01</v>
       </c>
       <c r="D363" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E363" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F363" t="n">
         <v>3000.0</v>
@@ -10298,13 +10478,13 @@
         <v>0.01</v>
       </c>
       <c r="D364" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E364" t="n">
         <v>36.0</v>
       </c>
       <c r="F364" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G364" t="n">
         <v>0.0</v>
@@ -10320,13 +10500,13 @@
         <v>15</v>
       </c>
       <c r="B365" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C365" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D365" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E365" t="n">
         <v>36.0</v>
@@ -10348,19 +10528,19 @@
         <v>15</v>
       </c>
       <c r="B366" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C366" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D366" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E366" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F366" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G366" t="n">
         <v>0.0</v>
@@ -10379,13 +10559,13 @@
         <v>50.0</v>
       </c>
       <c r="C367" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D367" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E367" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F367" t="n">
         <v>3000.0</v>
@@ -10404,19 +10584,19 @@
         <v>15</v>
       </c>
       <c r="B368" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C368" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D368" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E368" t="n">
         <v>36.0</v>
       </c>
       <c r="F368" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G368" t="n">
         <v>0.0</v>
@@ -10432,13 +10612,13 @@
         <v>15</v>
       </c>
       <c r="B369" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C369" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D369" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E369" t="n">
         <v>36.0</v>
@@ -10463,16 +10643,16 @@
         <v>50.0</v>
       </c>
       <c r="C370" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D370" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E370" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F370" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G370" t="n">
         <v>0.0</v>
@@ -10488,16 +10668,16 @@
         <v>15</v>
       </c>
       <c r="B371" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C371" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D371" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E371" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F371" t="n">
         <v>3000.0</v>
@@ -10516,19 +10696,19 @@
         <v>15</v>
       </c>
       <c r="B372" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C372" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D372" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E372" t="n">
         <v>36.0</v>
       </c>
       <c r="F372" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G372" t="n">
         <v>0.0</v>
@@ -10547,10 +10727,10 @@
         <v>50.0</v>
       </c>
       <c r="C373" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D373" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E373" t="n">
         <v>36.0</v>
@@ -10572,19 +10752,19 @@
         <v>15</v>
       </c>
       <c r="B374" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C374" t="n">
         <v>0.1</v>
       </c>
       <c r="D374" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E374" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F374" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G374" t="n">
         <v>0.0</v>
@@ -10600,16 +10780,16 @@
         <v>15</v>
       </c>
       <c r="B375" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C375" t="n">
         <v>0.1</v>
       </c>
       <c r="D375" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E375" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F375" t="n">
         <v>3000.0</v>
@@ -10634,13 +10814,13 @@
         <v>0.1</v>
       </c>
       <c r="D376" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E376" t="n">
         <v>36.0</v>
       </c>
       <c r="F376" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G376" t="n">
         <v>0.0</v>
@@ -10656,13 +10836,13 @@
         <v>15</v>
       </c>
       <c r="B377" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C377" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D377" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E377" t="n">
         <v>36.0</v>
@@ -10684,19 +10864,19 @@
         <v>15</v>
       </c>
       <c r="B378" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C378" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D378" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E378" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F378" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G378" t="n">
         <v>0.0</v>
@@ -10715,13 +10895,13 @@
         <v>50.0</v>
       </c>
       <c r="C379" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D379" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E379" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F379" t="n">
         <v>3000.0</v>
@@ -10740,19 +10920,19 @@
         <v>15</v>
       </c>
       <c r="B380" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C380" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D380" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E380" t="n">
         <v>36.0</v>
       </c>
       <c r="F380" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G380" t="n">
         <v>0.0</v>
@@ -10768,13 +10948,13 @@
         <v>15</v>
       </c>
       <c r="B381" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C381" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D381" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E381" t="n">
         <v>36.0</v>
@@ -10799,16 +10979,16 @@
         <v>50.0</v>
       </c>
       <c r="C382" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D382" t="n">
         <v>3.125</v>
       </c>
       <c r="E382" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F382" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G382" t="n">
         <v>0.0</v>
@@ -10824,7 +11004,7 @@
         <v>15</v>
       </c>
       <c r="B383" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="C383" t="n">
         <v>0.1</v>
@@ -10833,7 +11013,7 @@
         <v>3.125</v>
       </c>
       <c r="E383" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F383" t="n">
         <v>3000.0</v>
@@ -10852,7 +11032,7 @@
         <v>15</v>
       </c>
       <c r="B384" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C384" t="n">
         <v>0.1</v>
@@ -10864,7 +11044,7 @@
         <v>36.0</v>
       </c>
       <c r="F384" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G384" t="n">
         <v>0.0</v>
@@ -10939,7 +11119,7 @@
         <v>0.0</v>
       </c>
       <c r="C387" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D387" t="n">
         <v>0.0</v>
@@ -10948,7 +11128,7 @@
         <v>12.0</v>
       </c>
       <c r="F387" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G387" t="n">
         <v>0.0</v>
@@ -10967,13 +11147,13 @@
         <v>0.0</v>
       </c>
       <c r="C388" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D388" t="n">
         <v>0.0</v>
       </c>
       <c r="E388" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F388" t="n">
         <v>100.0</v>
@@ -10998,13 +11178,13 @@
         <v>0.005</v>
       </c>
       <c r="D389" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E389" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F389" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G389" t="n">
         <v>0.0</v>
@@ -11023,7 +11203,7 @@
         <v>0.0</v>
       </c>
       <c r="C390" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D390" t="n">
         <v>0.78125</v>
@@ -11051,7 +11231,7 @@
         <v>0.0</v>
       </c>
       <c r="C391" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D391" t="n">
         <v>0.78125</v>
@@ -11060,7 +11240,7 @@
         <v>12.0</v>
       </c>
       <c r="F391" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G391" t="n">
         <v>0.0</v>
@@ -11082,10 +11262,10 @@
         <v>0.005</v>
       </c>
       <c r="D392" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E392" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F392" t="n">
         <v>100.0</v>
@@ -11107,16 +11287,16 @@
         <v>0.0</v>
       </c>
       <c r="C393" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D393" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E393" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F393" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G393" t="n">
         <v>0.0</v>
@@ -11135,7 +11315,7 @@
         <v>0.0</v>
       </c>
       <c r="C394" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D394" t="n">
         <v>1.5625</v>
@@ -11166,13 +11346,13 @@
         <v>0.005</v>
       </c>
       <c r="D395" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E395" t="n">
         <v>12.0</v>
       </c>
       <c r="F395" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G395" t="n">
         <v>0.0</v>
@@ -11191,13 +11371,13 @@
         <v>0.0</v>
       </c>
       <c r="C396" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D396" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E396" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F396" t="n">
         <v>100.0</v>
@@ -11219,16 +11399,16 @@
         <v>0.0</v>
       </c>
       <c r="C397" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D397" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
       <c r="E397" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F397" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G397" t="n">
         <v>0.0</v>
@@ -11250,10 +11430,10 @@
         <v>0.005</v>
       </c>
       <c r="D398" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E398" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F398" t="n">
         <v>100.0</v>
@@ -11275,16 +11455,16 @@
         <v>0.0</v>
       </c>
       <c r="C399" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D399" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E399" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F399" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G399" t="n">
         <v>0.0</v>
@@ -11303,10 +11483,10 @@
         <v>0.0</v>
       </c>
       <c r="C400" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D400" t="n">
-        <v>3.125</v>
+        <v>0.0</v>
       </c>
       <c r="E400" t="n">
         <v>36.0</v>
@@ -11334,13 +11514,13 @@
         <v>0.005</v>
       </c>
       <c r="D401" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E401" t="n">
         <v>36.0</v>
       </c>
       <c r="F401" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G401" t="n">
         <v>0.0</v>
@@ -11362,10 +11542,10 @@
         <v>0.01</v>
       </c>
       <c r="D402" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E402" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F402" t="n">
         <v>100.0</v>
@@ -11387,16 +11567,16 @@
         <v>0.0</v>
       </c>
       <c r="C403" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D403" t="n">
-        <v>0.0</v>
+        <v>0.78125</v>
       </c>
       <c r="E403" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F403" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G403" t="n">
         <v>0.0</v>
@@ -11415,10 +11595,10 @@
         <v>0.0</v>
       </c>
       <c r="C404" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D404" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E404" t="n">
         <v>36.0</v>
@@ -11446,13 +11626,13 @@
         <v>0.01</v>
       </c>
       <c r="D405" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E405" t="n">
         <v>36.0</v>
       </c>
       <c r="F405" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G405" t="n">
         <v>0.0</v>
@@ -11471,13 +11651,13 @@
         <v>0.0</v>
       </c>
       <c r="C406" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D406" t="n">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
       <c r="E406" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F406" t="n">
         <v>100.0</v>
@@ -11499,16 +11679,16 @@
         <v>0.0</v>
       </c>
       <c r="C407" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D407" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E407" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F407" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G407" t="n">
         <v>0.0</v>
@@ -11530,7 +11710,7 @@
         <v>0.01</v>
       </c>
       <c r="D408" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E408" t="n">
         <v>36.0</v>
@@ -11555,16 +11735,16 @@
         <v>0.0</v>
       </c>
       <c r="C409" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D409" t="n">
-        <v>0.78125</v>
+        <v>3.125</v>
       </c>
       <c r="E409" t="n">
         <v>36.0</v>
       </c>
       <c r="F409" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G409" t="n">
         <v>0.0</v>
@@ -11583,16 +11763,16 @@
         <v>0.0</v>
       </c>
       <c r="C410" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D410" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E410" t="n">
         <v>12.0</v>
       </c>
       <c r="F410" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G410" t="n">
         <v>0.0</v>
@@ -11614,7 +11794,7 @@
         <v>0.01</v>
       </c>
       <c r="D411" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E411" t="n">
         <v>12.0</v>
@@ -11639,16 +11819,16 @@
         <v>0.0</v>
       </c>
       <c r="C412" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D412" t="n">
-        <v>1.5625</v>
+        <v>0.0</v>
       </c>
       <c r="E412" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F412" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G412" t="n">
         <v>0.0</v>
@@ -11667,13 +11847,13 @@
         <v>0.0</v>
       </c>
       <c r="C413" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D413" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E413" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F413" t="n">
         <v>3000.0</v>
@@ -11698,13 +11878,13 @@
         <v>0.01</v>
       </c>
       <c r="D414" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E414" t="n">
         <v>12.0</v>
       </c>
       <c r="F414" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G414" t="n">
         <v>0.0</v>
@@ -11723,10 +11903,10 @@
         <v>0.0</v>
       </c>
       <c r="C415" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D415" t="n">
-        <v>3.125</v>
+        <v>0.78125</v>
       </c>
       <c r="E415" t="n">
         <v>12.0</v>
@@ -11751,16 +11931,16 @@
         <v>0.0</v>
       </c>
       <c r="C416" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D416" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E416" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F416" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G416" t="n">
         <v>0.0</v>
@@ -11782,10 +11962,10 @@
         <v>0.01</v>
       </c>
       <c r="D417" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E417" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F417" t="n">
         <v>3000.0</v>
@@ -11810,13 +11990,13 @@
         <v>0.1</v>
       </c>
       <c r="D418" t="n">
-        <v>0.0</v>
+        <v>1.5625</v>
       </c>
       <c r="E418" t="n">
         <v>12.0</v>
       </c>
       <c r="F418" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G418" t="n">
         <v>0.0</v>
@@ -11835,10 +12015,10 @@
         <v>0.0</v>
       </c>
       <c r="C419" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D419" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E419" t="n">
         <v>12.0</v>
@@ -11863,16 +12043,16 @@
         <v>0.0</v>
       </c>
       <c r="C420" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D420" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E420" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F420" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G420" t="n">
         <v>0.0</v>
@@ -11894,10 +12074,10 @@
         <v>0.1</v>
       </c>
       <c r="D421" t="n">
-        <v>0.0</v>
+        <v>3.125</v>
       </c>
       <c r="E421" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F421" t="n">
         <v>3000.0</v>
@@ -11919,16 +12099,16 @@
         <v>0.0</v>
       </c>
       <c r="C422" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D422" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E422" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F422" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G422" t="n">
         <v>0.0</v>
@@ -11947,13 +12127,13 @@
         <v>0.0</v>
       </c>
       <c r="C423" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D423" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E423" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F423" t="n">
         <v>3000.0</v>
@@ -11978,13 +12158,13 @@
         <v>0.1</v>
       </c>
       <c r="D424" t="n">
-        <v>0.78125</v>
+        <v>0.0</v>
       </c>
       <c r="E424" t="n">
         <v>36.0</v>
       </c>
       <c r="F424" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G424" t="n">
         <v>0.0</v>
@@ -12003,7 +12183,7 @@
         <v>0.0</v>
       </c>
       <c r="C425" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D425" t="n">
         <v>0.78125</v>
@@ -12031,16 +12211,16 @@
         <v>0.0</v>
       </c>
       <c r="C426" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D426" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E426" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F426" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G426" t="n">
         <v>0.0</v>
@@ -12062,10 +12242,10 @@
         <v>0.1</v>
       </c>
       <c r="D427" t="n">
-        <v>1.5625</v>
+        <v>0.78125</v>
       </c>
       <c r="E427" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F427" t="n">
         <v>3000.0</v>
@@ -12087,7 +12267,7 @@
         <v>0.0</v>
       </c>
       <c r="C428" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D428" t="n">
         <v>1.5625</v>
@@ -12096,7 +12276,7 @@
         <v>36.0</v>
       </c>
       <c r="F428" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G428" t="n">
         <v>0.0</v>
@@ -12115,7 +12295,7 @@
         <v>0.0</v>
       </c>
       <c r="C429" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D429" t="n">
         <v>1.5625</v>
@@ -12146,13 +12326,13 @@
         <v>0.1</v>
       </c>
       <c r="D430" t="n">
-        <v>3.125</v>
+        <v>1.5625</v>
       </c>
       <c r="E430" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F430" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G430" t="n">
         <v>0.0</v>
@@ -12171,13 +12351,13 @@
         <v>0.0</v>
       </c>
       <c r="C431" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D431" t="n">
         <v>3.125</v>
       </c>
       <c r="E431" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="F431" t="n">
         <v>3000.0</v>
@@ -12199,7 +12379,7 @@
         <v>0.0</v>
       </c>
       <c r="C432" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D432" t="n">
         <v>3.125</v>
@@ -12208,7 +12388,7 @@
         <v>36.0</v>
       </c>
       <c r="F432" t="n">
-        <v>100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G432" t="n">
         <v>0.0</v>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
@@ -174,13 +174,13 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.29668560373520353</v>
+        <v>0.2959872569363487</v>
       </c>
       <c r="I2" t="n">
-        <v>0.29092501563738044</v>
+        <v>0.2905043050655766</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9635983854478722</v>
+        <v>0.9635997905270599</v>
       </c>
       <c r="K2" t="n">
         <v>0.2</v>
@@ -212,13 +212,13 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3313726215902938</v>
+        <v>0.3305354825821602</v>
       </c>
       <c r="I3" t="n">
-        <v>0.32492148191485054</v>
+        <v>0.32444827698339673</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9583209807187061</v>
+        <v>0.9584125721205399</v>
       </c>
       <c r="K3" t="n">
         <v>0.3333333333333333</v>
@@ -250,13 +250,13 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4782644685605718</v>
+        <v>0.4756373418939114</v>
       </c>
       <c r="I4" t="n">
-        <v>0.46719113026301745</v>
+        <v>0.4664092692417163</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9145199689894067</v>
+        <v>0.9141545214659356</v>
       </c>
       <c r="K4" t="n">
         <v>0.5914893617021276</v>
@@ -288,13 +288,13 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2946070657885985</v>
+        <v>0.29397100194615505</v>
       </c>
       <c r="I5" t="n">
-        <v>0.28886956038810124</v>
+        <v>0.2885388064770747</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9640619455045549</v>
+        <v>0.9641116191336238</v>
       </c>
       <c r="K5" t="n">
         <v>0.16666666666666666</v>
@@ -326,13 +326,13 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3294258873192831</v>
+        <v>0.3286413136000995</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3229813098135655</v>
+        <v>0.3225676227500133</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9591976167817521</v>
+        <v>0.9593152264314967</v>
       </c>
       <c r="K6" t="n">
         <v>0.2631578947368421</v>
@@ -364,13 +364,13 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4776634567990489</v>
+        <v>0.47501345188231253</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4664591704204341</v>
+        <v>0.46561323720171016</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9144971183857398</v>
+        <v>0.9141661538784345</v>
       </c>
       <c r="K7" t="n">
         <v>0.5870535714285714</v>
@@ -629,11 +629,19 @@
       <c r="G14" t="n">
         <v>0.0</v>
       </c>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
+      <c r="H14" t="n">
+        <v>0.13269835542191824</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.12899423779893335</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9694403965751474</v>
+      </c>
       <c r="K14"/>
-      <c r="L14"/>
+      <c r="L14" t="n">
+        <v>0.8611197511664075</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -657,11 +665,19 @@
       <c r="G15" t="n">
         <v>0.0</v>
       </c>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
+      <c r="H15" t="n">
+        <v>0.16281078936438512</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1581008951096126</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9608671351542502</v>
+      </c>
       <c r="K15"/>
-      <c r="L15"/>
+      <c r="L15" t="n">
+        <v>0.8611197511664075</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -685,11 +701,21 @@
       <c r="G16" t="n">
         <v>0.0</v>
       </c>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
+      <c r="H16" t="n">
+        <v>0.321428000994617</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3126599915382455</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9047207443984226</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8647523906748057</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -714,13 +740,13 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.13153457055697518</v>
+        <v>0.13110783040132956</v>
       </c>
       <c r="I17" t="n">
-        <v>0.12756930473474307</v>
+        <v>0.12743261261958277</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9703585003005586</v>
+        <v>0.9702855455736246</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="n">
@@ -749,11 +775,19 @@
       <c r="G18" t="n">
         <v>0.0</v>
       </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
+      <c r="H18" t="n">
+        <v>0.16068968889137825</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.15601678201500963</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9616690668954693</v>
+      </c>
       <c r="K18"/>
-      <c r="L18"/>
+      <c r="L18" t="n">
+        <v>0.8733592534992224</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -777,11 +811,21 @@
       <c r="G19" t="n">
         <v>0.0</v>
       </c>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
+      <c r="H19" t="n">
+        <v>0.3196332736807648</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.31081777746795514</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9048985991234918</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.8769106580215087</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -806,13 +850,13 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.12975803780285167</v>
+        <v>0.1293276131566044</v>
       </c>
       <c r="I20" t="n">
-        <v>0.12583220335520803</v>
+        <v>0.12564236694662043</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9698098762280148</v>
+        <v>0.9697369215010809</v>
       </c>
       <c r="K20"/>
       <c r="L20" t="n">
@@ -842,13 +886,13 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15937711308008343</v>
+        <v>0.15872064753017776</v>
       </c>
       <c r="I21" t="n">
-        <v>0.154514517286543</v>
+        <v>0.15411885596609712</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9638474094604665</v>
+        <v>0.9634794369603747</v>
       </c>
       <c r="K21"/>
       <c r="L21" t="n">
@@ -878,13 +922,13 @@
         <v>0.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3210855842729068</v>
+        <v>0.31746522287554957</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3090266873655633</v>
+        <v>0.3086648315479442</v>
       </c>
       <c r="J22" t="n">
-        <v>0.905441325935577</v>
+        <v>0.9055034096008995</v>
       </c>
       <c r="K22" t="n">
         <v>0.2875</v>
@@ -916,13 +960,13 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.12592735087158485</v>
+        <v>0.12556480431807632</v>
       </c>
       <c r="I23" t="n">
-        <v>0.12207759230113427</v>
+        <v>0.12192173275586453</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9688550862270294</v>
+        <v>0.9685088202412195</v>
       </c>
       <c r="K23"/>
       <c r="L23" t="n">
@@ -952,13 +996,13 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.154748463111876</v>
+        <v>0.15406273811400611</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1499122509395427</v>
+        <v>0.14951165269962732</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9649227579610196</v>
+        <v>0.9643263061295657</v>
       </c>
       <c r="K24"/>
       <c r="L24" t="n">
@@ -988,13 +1032,13 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.31769071637675844</v>
+        <v>0.31405021719307635</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3058019951156911</v>
+        <v>0.30518091016621396</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9082115399871016</v>
+        <v>0.9080318659585273</v>
       </c>
       <c r="K25" t="n">
         <v>0.2875</v>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
@@ -3533,11 +3533,21 @@
       <c r="G114" t="n">
         <v>500.0</v>
       </c>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114"/>
-      <c r="K114"/>
-      <c r="L114"/>
+      <c r="H114" t="n">
+        <v>0.3132051774571339</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.30745434997719184</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.9409869764417652</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.6725884703196348</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -3561,11 +3571,21 @@
       <c r="G115" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115"/>
-      <c r="K115"/>
-      <c r="L115"/>
+      <c r="H115" t="n">
+        <v>0.33764044269913246</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.33139571812453805</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.9382841321833022</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.6725884703196348</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -3589,11 +3609,21 @@
       <c r="G116" t="n">
         <v>500.0</v>
       </c>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
-      <c r="K116"/>
-      <c r="L116"/>
+      <c r="H116" t="n">
+        <v>0.3383861461867901</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.3322114076928473</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.9336269378549019</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.5707317073170731</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.6725835550255328</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -3617,11 +3647,21 @@
       <c r="G117" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
-      <c r="K117"/>
-      <c r="L117"/>
+      <c r="H117" t="n">
+        <v>0.36146507176145637</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.3547892064264698</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.9328611370790871</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.5707317073170731</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.6725835550255328</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
@@ -3645,11 +3685,21 @@
       <c r="G118" t="n">
         <v>500.0</v>
       </c>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
-      <c r="K118"/>
-      <c r="L118"/>
+      <c r="H118" t="n">
+        <v>0.4474370046911074</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.4392828774682395</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.896445101837848</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.6131059245960503</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.6951470378263468</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -3673,11 +3723,21 @@
       <c r="G119" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="L119"/>
+      <c r="H119" t="n">
+        <v>0.4627244654950706</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.45400133330754194</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.8890703770878577</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.6131059245960503</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.6951470378263468</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -3701,11 +3761,21 @@
       <c r="G120" t="n">
         <v>500.0</v>
       </c>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120"/>
+      <c r="H120" t="n">
+        <v>0.4807603671342853</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.4707038719499337</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.7127421805014768</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.20192307692307693</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.7830226182316655</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -3729,11 +3799,21 @@
       <c r="G121" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121"/>
-      <c r="L121"/>
+      <c r="H121" t="n">
+        <v>0.487722459089183</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.4773658648149585</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.7177100168553008</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.20192307692307693</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.7830226182316655</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -3757,11 +3837,21 @@
       <c r="G122" t="n">
         <v>500.0</v>
       </c>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
-      <c r="K122"/>
-      <c r="L122"/>
+      <c r="H122" t="n">
+        <v>0.3115777257393617</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.30573818269343184</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.9444885639337155</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.7071815883887802</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -3785,11 +3875,21 @@
       <c r="G123" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123"/>
-      <c r="K123"/>
-      <c r="L123"/>
+      <c r="H123" t="n">
+        <v>0.33575492490961745</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.3295284519077967</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.9406487822847069</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.7071815883887802</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -3813,11 +3913,21 @@
       <c r="G124" t="n">
         <v>500.0</v>
       </c>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124"/>
-      <c r="K124"/>
-      <c r="L124"/>
+      <c r="H124" t="n">
+        <v>0.33674931258767266</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.33058457258111856</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9367973339594612</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.5707317073170731</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.7071777308911517</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -3841,11 +3951,21 @@
       <c r="G125" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125"/>
-      <c r="K125"/>
-      <c r="L125"/>
+      <c r="H125" t="n">
+        <v>0.3599605645663336</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.35325905859346235</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.9351811595124435</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.5707317073170731</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.7071777308911517</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
@@ -3869,11 +3989,21 @@
       <c r="G126" t="n">
         <v>500.0</v>
       </c>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126"/>
+      <c r="H126" t="n">
+        <v>0.4456143300284338</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.4374584605035318</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.9005572676397532</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.6131059245960503</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.7309797409849763</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
@@ -3897,11 +4027,21 @@
       <c r="G127" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H127"/>
-      <c r="I127"/>
-      <c r="J127"/>
-      <c r="K127"/>
-      <c r="L127"/>
+      <c r="H127" t="n">
+        <v>0.4620388826571794</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.4532928488391723</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.8935343885961808</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.6131059245960503</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.7309797409849763</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
@@ -3925,11 +4065,21 @@
       <c r="G128" t="n">
         <v>500.0</v>
       </c>
-      <c r="H128"/>
-      <c r="I128"/>
-      <c r="J128"/>
-      <c r="K128"/>
-      <c r="L128"/>
+      <c r="H128" t="n">
+        <v>0.4920704541528022</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.4818488697654565</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.7207716763466893</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.1813189989017976</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.8205616438356165</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -3953,11 +4103,21 @@
       <c r="G129" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H129"/>
-      <c r="I129"/>
-      <c r="J129"/>
-      <c r="K129"/>
-      <c r="L129"/>
+      <c r="H129" t="n">
+        <v>0.501300111041654</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.49071160712695744</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.7259705162256076</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.1813189989017976</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.8205616438356165</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -3981,11 +4141,21 @@
       <c r="G130" t="n">
         <v>500.0</v>
       </c>
-      <c r="H130"/>
-      <c r="I130"/>
-      <c r="J130"/>
-      <c r="K130"/>
-      <c r="L130"/>
+      <c r="H130" t="n">
+        <v>0.3096890801063121</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.30390144207748915</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.951635829728524</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.7318880463144162</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
@@ -4009,11 +4179,21 @@
       <c r="G131" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H131"/>
-      <c r="I131"/>
-      <c r="J131"/>
-      <c r="K131"/>
-      <c r="L131"/>
+      <c r="H131" t="n">
+        <v>0.33371193048436865</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.3275487846625823</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.9438417957380281</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.7318880463144162</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
@@ -4037,11 +4217,21 @@
       <c r="G132" t="n">
         <v>500.0</v>
       </c>
-      <c r="H132"/>
-      <c r="I132"/>
-      <c r="J132"/>
-      <c r="K132"/>
-      <c r="L132"/>
+      <c r="H132" t="n">
+        <v>0.33527447059704396</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.32907215055799727</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.9416897025674358</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.5707317073170731</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.7318849442966496</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
@@ -4065,11 +4255,21 @@
       <c r="G133" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H133"/>
-      <c r="I133"/>
-      <c r="J133"/>
-      <c r="K133"/>
-      <c r="L133"/>
+      <c r="H133" t="n">
+        <v>0.3583676938107141</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.35168018719592725</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.9369609524214952</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.5707317073170731</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.7318849442966496</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
@@ -4093,11 +4293,21 @@
       <c r="G134" t="n">
         <v>500.0</v>
       </c>
-      <c r="H134"/>
-      <c r="I134"/>
-      <c r="J134"/>
-      <c r="K134"/>
-      <c r="L134"/>
+      <c r="H134" t="n">
+        <v>0.4444733854289832</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.43635740045908245</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.9058792876884745</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.6021220159151194</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.7565703890939474</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
@@ -4121,11 +4331,21 @@
       <c r="G135" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H135"/>
-      <c r="I135"/>
-      <c r="J135"/>
-      <c r="K135"/>
-      <c r="L135"/>
+      <c r="H135" t="n">
+        <v>0.46042763691486016</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.4517596205126955</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.8947009011272744</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.6021220159151194</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.7565703890939474</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
@@ -4149,11 +4369,21 @@
       <c r="G136" t="n">
         <v>500.0</v>
       </c>
-      <c r="H136"/>
-      <c r="I136"/>
-      <c r="J136"/>
-      <c r="K136"/>
-      <c r="L136"/>
+      <c r="H136" t="n">
+        <v>0.5029829644904075</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.49265527666056474</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.730683846007913</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.17876167019875136</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.852696242928954</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -4177,11 +4407,21 @@
       <c r="G137" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H137"/>
-      <c r="I137"/>
-      <c r="J137"/>
-      <c r="K137"/>
-      <c r="L137"/>
+      <c r="H137" t="n">
+        <v>0.5114548849403393</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.5008915986664665</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.7335555758316052</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.17876167019875136</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.852696242928954</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
@@ -4205,11 +4445,21 @@
       <c r="G138" t="n">
         <v>500.0</v>
       </c>
-      <c r="H138"/>
-      <c r="I138"/>
-      <c r="J138"/>
-      <c r="K138"/>
-      <c r="L138"/>
+      <c r="H138" t="n">
+        <v>0.30657522644171437</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.3008473991249848</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.953773143017477</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.7780291911285062</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -4233,11 +4483,21 @@
       <c r="G139" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H139"/>
-      <c r="I139"/>
-      <c r="J139"/>
-      <c r="K139"/>
-      <c r="L139"/>
+      <c r="H139" t="n">
+        <v>0.3302792473583995</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.32410062565477826</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.9506061118065446</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.7780291911285062</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
@@ -4261,11 +4521,21 @@
       <c r="G140" t="n">
         <v>500.0</v>
       </c>
-      <c r="H140"/>
-      <c r="I140"/>
-      <c r="J140"/>
-      <c r="K140"/>
-      <c r="L140"/>
+      <c r="H140" t="n">
+        <v>0.33192949676305844</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.32567450005544724</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.9476227107591016</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.5707317073170731</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.7780275000254818</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -4289,11 +4559,21 @@
       <c r="G141" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H141"/>
-      <c r="I141"/>
-      <c r="J141"/>
-      <c r="K141"/>
-      <c r="L141"/>
+      <c r="H141" t="n">
+        <v>0.3556471192420519</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.34896722392744023</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.9442018510704527</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.5707317073170731</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.7780275000254818</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
@@ -4317,11 +4597,21 @@
       <c r="G142" t="n">
         <v>500.0</v>
       </c>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142"/>
-      <c r="K142"/>
-      <c r="L142"/>
+      <c r="H142" t="n">
+        <v>0.4424470725879543</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.4342251348871042</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.9106897440907415</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.5772843723313408</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.8042364412201712</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
@@ -4345,11 +4635,21 @@
       <c r="G143" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H143"/>
-      <c r="I143"/>
-      <c r="J143"/>
-      <c r="K143"/>
-      <c r="L143"/>
+      <c r="H143" t="n">
+        <v>0.4585559128239924</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.44989936221804916</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.9020227477557148</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.5772843723313408</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.8042364412201712</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
@@ -4373,11 +4673,21 @@
       <c r="G144" t="n">
         <v>500.0</v>
       </c>
-      <c r="H144"/>
-      <c r="I144"/>
-      <c r="J144"/>
-      <c r="K144"/>
-      <c r="L144"/>
+      <c r="H144" t="n">
+        <v>0.5206878497380413</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.509905504419051</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.7418924363507631</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.1520322680732237</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.901860684737458</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -4401,11 +4711,21 @@
       <c r="G145" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H145"/>
-      <c r="I145"/>
-      <c r="J145"/>
-      <c r="K145"/>
-      <c r="L145"/>
+      <c r="H145" t="n">
+        <v>0.5251546627907588</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.5141640250085484</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.7456707370086209</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.1520322680732237</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.901860684737458</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
@@ -4429,11 +4749,21 @@
       <c r="G146" t="n">
         <v>500.0</v>
       </c>
-      <c r="H146"/>
-      <c r="I146"/>
-      <c r="J146"/>
-      <c r="K146"/>
-      <c r="L146"/>
+      <c r="H146" t="n">
+        <v>0.13435802575112438</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.1304654773712501</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.9129912243143768</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.8729633803410252</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
@@ -4457,11 +4787,21 @@
       <c r="G147" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H147"/>
-      <c r="I147"/>
-      <c r="J147"/>
-      <c r="K147"/>
-      <c r="L147"/>
+      <c r="H147" t="n">
+        <v>0.14724596272865342</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.14306032708186803</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.9153590453237503</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.8729633803410252</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
@@ -4485,11 +4825,21 @@
       <c r="G148" t="n">
         <v>500.0</v>
       </c>
-      <c r="H148"/>
-      <c r="I148"/>
-      <c r="J148"/>
-      <c r="K148"/>
-      <c r="L148"/>
+      <c r="H148" t="n">
+        <v>0.1495433279931488</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.14520221350522725</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.9047143930805379</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.8731791864881808</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
@@ -4513,11 +4863,21 @@
       <c r="G149" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H149"/>
-      <c r="I149"/>
-      <c r="J149"/>
-      <c r="K149"/>
-      <c r="L149"/>
+      <c r="H149" t="n">
+        <v>0.16268454782841532</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.15809234996490784</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.9055793319278358</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.8731791864881808</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
@@ -4541,11 +4901,21 @@
       <c r="G150" t="n">
         <v>500.0</v>
       </c>
-      <c r="H150"/>
-      <c r="I150"/>
-      <c r="J150"/>
-      <c r="K150"/>
-      <c r="L150"/>
+      <c r="H150" t="n">
+        <v>0.2274288721589196</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.2208257062166459</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.8792933673453505</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.1811320754716981</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.8824434659941008</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -4569,11 +4939,21 @@
       <c r="G151" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H151"/>
-      <c r="I151"/>
-      <c r="J151"/>
-      <c r="K151"/>
-      <c r="L151"/>
+      <c r="H151" t="n">
+        <v>0.2364965230896028</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.22980240014194545</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.8766231151557183</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.1811320754716981</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.8824434659941008</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
@@ -4597,11 +4977,21 @@
       <c r="G152" t="n">
         <v>500.0</v>
       </c>
-      <c r="H152"/>
-      <c r="I152"/>
-      <c r="J152"/>
-      <c r="K152"/>
-      <c r="L152"/>
+      <c r="H152" t="n">
+        <v>0.33664633542637135</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.32655393157560136</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.7494603414475477</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.07118055555555555</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.929896199505261</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
@@ -4625,11 +5015,21 @@
       <c r="G153" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H153"/>
-      <c r="I153"/>
-      <c r="J153"/>
-      <c r="K153"/>
-      <c r="L153"/>
+      <c r="H153" t="n">
+        <v>0.34007949850593067</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.32970373882934934</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.7507065389598524</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.07118055555555555</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.929896199505261</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
@@ -4653,11 +5053,21 @@
       <c r="G154" t="n">
         <v>500.0</v>
       </c>
-      <c r="H154"/>
-      <c r="I154"/>
-      <c r="J154"/>
-      <c r="K154"/>
-      <c r="L154"/>
+      <c r="H154" t="n">
+        <v>0.1332396874695256</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.12929821083219065</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.9164558147509759</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.8853911046983117</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
@@ -4681,11 +5091,21 @@
       <c r="G155" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H155"/>
-      <c r="I155"/>
-      <c r="J155"/>
-      <c r="K155"/>
-      <c r="L155"/>
+      <c r="H155" t="n">
+        <v>0.14639926363648859</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.1421758796596653</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.9187691224662606</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.8853911046983117</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
@@ -4709,11 +5129,21 @@
       <c r="G156" t="n">
         <v>500.0</v>
       </c>
-      <c r="H156"/>
-      <c r="I156"/>
-      <c r="J156"/>
-      <c r="K156"/>
-      <c r="L156"/>
+      <c r="H156" t="n">
+        <v>0.14824168951360742</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.14390051404025694</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.9087657933008487</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.8856120830896802</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -4737,11 +5167,21 @@
       <c r="G157" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H157"/>
-      <c r="I157"/>
-      <c r="J157"/>
-      <c r="K157"/>
-      <c r="L157"/>
+      <c r="H157" t="n">
+        <v>0.1616502585677053</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.15710766687999358</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.9121011955570388</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.8856120830896802</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -4765,11 +5205,21 @@
       <c r="G158" t="n">
         <v>500.0</v>
       </c>
-      <c r="H158"/>
-      <c r="I158"/>
-      <c r="J158"/>
-      <c r="K158"/>
-      <c r="L158"/>
+      <c r="H158" t="n">
+        <v>0.22641164585488344</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.21993620446578796</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.8856203617071764</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.1794228356336261</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.894917644796102</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
@@ -4793,11 +5243,21 @@
       <c r="G159" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H159"/>
-      <c r="I159"/>
-      <c r="J159"/>
-      <c r="K159"/>
-      <c r="L159"/>
+      <c r="H159" t="n">
+        <v>0.2355628834871915</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.22893959503236821</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.878899993510082</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.1794228356336261</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.894917644796102</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
@@ -4821,11 +5281,21 @@
       <c r="G160" t="n">
         <v>500.0</v>
       </c>
-      <c r="H160"/>
-      <c r="I160"/>
-      <c r="J160"/>
-      <c r="K160"/>
-      <c r="L160"/>
+      <c r="H160" t="n">
+        <v>0.3396155297971011</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.3294008862197844</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.7573364441854725</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.06874115983026874</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.9420162101402118</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
@@ -4849,11 +5319,21 @@
       <c r="G161" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H161"/>
-      <c r="I161"/>
-      <c r="J161"/>
-      <c r="K161"/>
-      <c r="L161"/>
+      <c r="H161" t="n">
+        <v>0.34209578008936037</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.33176144858032314</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.7585020534114619</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.06874115983026874</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.9420162101402118</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
@@ -4877,11 +5357,21 @@
       <c r="G162" t="n">
         <v>500.0</v>
       </c>
-      <c r="H162"/>
-      <c r="I162"/>
-      <c r="J162"/>
-      <c r="K162"/>
-      <c r="L162"/>
+      <c r="H162" t="n">
+        <v>0.13211211825880625</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.12818647078501622</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.9183042022085709</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.890251608758386</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -4905,11 +5395,21 @@
       <c r="G163" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H163"/>
-      <c r="I163"/>
-      <c r="J163"/>
-      <c r="K163"/>
-      <c r="L163"/>
+      <c r="H163" t="n">
+        <v>0.1450261489005977</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.1408136914614674</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.9156853533127752</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.890251608758386</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -4933,11 +5433,21 @@
       <c r="G164" t="n">
         <v>500.0</v>
       </c>
-      <c r="H164"/>
-      <c r="I164"/>
-      <c r="J164"/>
-      <c r="K164"/>
-      <c r="L164"/>
+      <c r="H164" t="n">
+        <v>0.14710188645084266</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.1427834703945103</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.9046360393888802</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.8904746100232327</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
@@ -4961,11 +5471,21 @@
       <c r="G165" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H165"/>
-      <c r="I165"/>
-      <c r="J165"/>
-      <c r="K165"/>
-      <c r="L165"/>
+      <c r="H165" t="n">
+        <v>0.16072863424733594</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.1561521044645962</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.9140937829909588</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.8904746100232327</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
@@ -4989,11 +5509,21 @@
       <c r="G166" t="n">
         <v>500.0</v>
       </c>
-      <c r="H166"/>
-      <c r="I166"/>
-      <c r="J166"/>
-      <c r="K166"/>
-      <c r="L166"/>
+      <c r="H166" t="n">
+        <v>0.22508166669693402</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.21857990500284255</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.8883147070743724</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.1794228356336261</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.8998488062101647</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
@@ -5017,11 +5547,21 @@
       <c r="G167" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H167"/>
-      <c r="I167"/>
-      <c r="J167"/>
-      <c r="K167"/>
-      <c r="L167"/>
+      <c r="H167" t="n">
+        <v>0.2343120049967893</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.2276299090375396</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.8781876907546113</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.1794228356336261</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.8998488062101647</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
@@ -5045,11 +5585,21 @@
       <c r="G168" t="n">
         <v>500.0</v>
       </c>
-      <c r="H168"/>
-      <c r="I168"/>
-      <c r="J168"/>
-      <c r="K168"/>
-      <c r="L168"/>
+      <c r="H168" t="n">
+        <v>0.34128313312731745</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.3310899093353278</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.7642964812598109</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.06731707317073171</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.9470153227237769</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
@@ -5073,11 +5623,21 @@
       <c r="G169" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H169"/>
-      <c r="I169"/>
-      <c r="J169"/>
-      <c r="K169"/>
-      <c r="L169"/>
+      <c r="H169" t="n">
+        <v>0.34425046122735875</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.33400290662231247</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.7659864879418887</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.06731707317073171</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.9470153227237769</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
@@ -5101,11 +5661,21 @@
       <c r="G170" t="n">
         <v>500.0</v>
       </c>
-      <c r="H170"/>
-      <c r="I170"/>
-      <c r="J170"/>
-      <c r="K170"/>
-      <c r="L170"/>
+      <c r="H170" t="n">
+        <v>0.13025720849979747</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.12628776774808465</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.9194849378575713</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.9035429546388061</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
@@ -5129,11 +5699,21 @@
       <c r="G171" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H171"/>
-      <c r="I171"/>
-      <c r="J171"/>
-      <c r="K171"/>
-      <c r="L171"/>
+      <c r="H171" t="n">
+        <v>0.14304018023794968</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.13882761867663146</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.923077836044066</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.9035429546388061</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
@@ -5157,11 +5737,21 @@
       <c r="G172" t="n">
         <v>500.0</v>
       </c>
-      <c r="H172"/>
-      <c r="I172"/>
-      <c r="J172"/>
-      <c r="K172"/>
-      <c r="L172"/>
+      <c r="H172" t="n">
+        <v>0.14512212891227125</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.14091323111920306</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.9153816307565774</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.9037714875750057</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -5185,11 +5775,21 @@
       <c r="G173" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H173"/>
-      <c r="I173"/>
-      <c r="J173"/>
-      <c r="K173"/>
-      <c r="L173"/>
+      <c r="H173" t="n">
+        <v>0.1582273688651344</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.15369756599480314</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.9218920926308705</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.9037714875750057</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
@@ -5213,11 +5813,21 @@
       <c r="G174" t="n">
         <v>500.0</v>
       </c>
-      <c r="H174"/>
-      <c r="I174"/>
-      <c r="J174"/>
-      <c r="K174"/>
-      <c r="L174"/>
+      <c r="H174" t="n">
+        <v>0.2223542464489535</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.2158822235838777</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.8896975923008623</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.1794228356336261</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.913263915972582</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
@@ -5241,11 +5851,21 @@
       <c r="G175" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H175"/>
-      <c r="I175"/>
-      <c r="J175"/>
-      <c r="K175"/>
-      <c r="L175"/>
+      <c r="H175" t="n">
+        <v>0.2326951578720598</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.22608918660991745</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.8845076169799834</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.1794228356336261</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.913263915972582</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
@@ -5269,11 +5889,21 @@
       <c r="G176" t="n">
         <v>500.0</v>
       </c>
-      <c r="H176"/>
-      <c r="I176"/>
-      <c r="J176"/>
-      <c r="K176"/>
-      <c r="L176"/>
+      <c r="H176" t="n">
+        <v>0.3465849317035376</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.33626549011525236</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.7640266327043675</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.05870368012224628</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.9562036456546683</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
@@ -5297,11 +5927,21 @@
       <c r="G177" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H177"/>
-      <c r="I177"/>
-      <c r="J177"/>
-      <c r="K177"/>
-      <c r="L177"/>
+      <c r="H177" t="n">
+        <v>0.34857642195104543</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.33837212364925795</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.7718821415560481</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.05870368012224628</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.9562036456546683</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
@@ -7117,11 +7757,21 @@
       <c r="G242" t="n">
         <v>0.0</v>
       </c>
-      <c r="H242"/>
-      <c r="I242"/>
-      <c r="J242"/>
-      <c r="K242"/>
-      <c r="L242"/>
+      <c r="H242" t="n">
+        <v>0.16168518928060555</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.15954117729789766</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.9153792028424037</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0.06321499013806706</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0.6664857169762198</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
@@ -7145,11 +7795,21 @@
       <c r="G243" t="n">
         <v>0.0</v>
       </c>
-      <c r="H243"/>
-      <c r="I243"/>
-      <c r="J243"/>
-      <c r="K243"/>
-      <c r="L243"/>
+      <c r="H243" t="n">
+        <v>0.24262469832022207</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.23827104159590917</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.8499858704992197</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0.057668494604634704</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0.6638437463388509</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
@@ -7173,11 +7833,21 @@
       <c r="G244" t="n">
         <v>0.0</v>
       </c>
-      <c r="H244"/>
-      <c r="I244"/>
-      <c r="J244"/>
-      <c r="K244"/>
-      <c r="L244"/>
+      <c r="H244" t="n">
+        <v>0.26551750882716535</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.26123076781942606</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.6816415351821693</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0.06445424899290236</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0.6657662014262925</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
@@ -7201,11 +7871,21 @@
       <c r="G245" t="n">
         <v>0.0</v>
       </c>
-      <c r="H245"/>
-      <c r="I245"/>
-      <c r="J245"/>
-      <c r="K245"/>
-      <c r="L245"/>
+      <c r="H245" t="n">
+        <v>0.20544195005924085</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.20266847552324155</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.9174763296676682</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0.06258463919520217</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0.666235819487976</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
@@ -7229,11 +7909,21 @@
       <c r="G246" t="n">
         <v>0.0</v>
       </c>
-      <c r="H246"/>
-      <c r="I246"/>
-      <c r="J246"/>
-      <c r="K246"/>
-      <c r="L246"/>
+      <c r="H246" t="n">
+        <v>0.27092971822624445</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.26608974107720545</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.8495439105608636</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0.057655460721128725</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0.6635970965741139</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
@@ -7257,11 +7947,21 @@
       <c r="G247" t="n">
         <v>0.0</v>
       </c>
-      <c r="H247"/>
-      <c r="I247"/>
-      <c r="J247"/>
-      <c r="K247"/>
-      <c r="L247"/>
+      <c r="H247" t="n">
+        <v>0.2733729819642951</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.2690059993442102</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.6781550940257076</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0.06445424899290236</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0.6657662014262925</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
@@ -7285,11 +7985,21 @@
       <c r="G248" t="n">
         <v>0.0</v>
       </c>
-      <c r="H248"/>
-      <c r="I248"/>
-      <c r="J248"/>
-      <c r="K248"/>
-      <c r="L248"/>
+      <c r="H248" t="n">
+        <v>0.4351703048083433</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.4277187802957651</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.879001034457028</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0.055842265449252346</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0.6613263334006404</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
@@ -7313,11 +8023,21 @@
       <c r="G249" t="n">
         <v>0.0</v>
       </c>
-      <c r="H249"/>
-      <c r="I249"/>
-      <c r="J249"/>
-      <c r="K249"/>
-      <c r="L249"/>
+      <c r="H249" t="n">
+        <v>0.4402481615804804</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.4322473687095479</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.8113303931888349</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0.05014432436060952</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0.657872281939537</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
@@ -7341,11 +8061,21 @@
       <c r="G250" t="n">
         <v>0.0</v>
       </c>
-      <c r="H250"/>
-      <c r="I250"/>
-      <c r="J250"/>
-      <c r="K250"/>
-      <c r="L250"/>
+      <c r="H250" t="n">
+        <v>0.3429887459145396</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.3373468838838648</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.6508552495156045</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0.061242117992571475</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0.6638837335785455</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
@@ -7369,11 +8099,21 @@
       <c r="G251" t="n">
         <v>0.0</v>
       </c>
-      <c r="H251"/>
-      <c r="I251"/>
-      <c r="J251"/>
-      <c r="K251"/>
-      <c r="L251"/>
+      <c r="H251" t="n">
+        <v>0.17723998344956446</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.17409170450679387</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.9119530113741856</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0.0463849600281121</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0.6979931202189122</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
@@ -7397,11 +8137,21 @@
       <c r="G252" t="n">
         <v>0.0</v>
       </c>
-      <c r="H252"/>
-      <c r="I252"/>
-      <c r="J252"/>
-      <c r="K252"/>
-      <c r="L252"/>
+      <c r="H252" t="n">
+        <v>0.2502971031447937</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.2454641737964513</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.8484907974603604</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0.0431867166919454</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0.6957048095644558</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
@@ -7425,11 +8175,21 @@
       <c r="G253" t="n">
         <v>0.0</v>
       </c>
-      <c r="H253"/>
-      <c r="I253"/>
-      <c r="J253"/>
-      <c r="K253"/>
-      <c r="L253"/>
+      <c r="H253" t="n">
+        <v>0.2706342414050262</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.2661430231642567</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.6849402573913247</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0.04764348644256265</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0.6973325106860767</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
@@ -7453,11 +8213,21 @@
       <c r="G254" t="n">
         <v>0.0</v>
       </c>
-      <c r="H254"/>
-      <c r="I254"/>
-      <c r="J254"/>
-      <c r="K254"/>
-      <c r="L254"/>
+      <c r="H254" t="n">
+        <v>0.2172258465330394</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.21357457671653504</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.9147303045960136</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0.04599585778391439</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0.6977849768956393</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -7481,11 +8251,21 @@
       <c r="G255" t="n">
         <v>0.0</v>
       </c>
-      <c r="H255"/>
-      <c r="I255"/>
-      <c r="J255"/>
-      <c r="K255"/>
-      <c r="L255"/>
+      <c r="H255" t="n">
+        <v>0.27727593725550537</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.2719968597278226</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.848182636122272</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0.043145606562549295</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0.6955594034519355</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
@@ -7509,11 +8289,21 @@
       <c r="G256" t="n">
         <v>0.0</v>
       </c>
-      <c r="H256"/>
-      <c r="I256"/>
-      <c r="J256"/>
-      <c r="K256"/>
-      <c r="L256"/>
+      <c r="H256" t="n">
+        <v>0.27797108357885736</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.2734395364260262</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.6831275287515586</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0.04764348644256265</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0.6973325106860767</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
@@ -7537,11 +8327,21 @@
       <c r="G257" t="n">
         <v>0.0</v>
       </c>
-      <c r="H257"/>
-      <c r="I257"/>
-      <c r="J257"/>
-      <c r="K257"/>
-      <c r="L257"/>
+      <c r="H257" t="n">
+        <v>0.4375382582482389</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.430076986560966</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.8796633563088057</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0.04398612885563059</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0.6939939887967786</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
@@ -7565,11 +8365,21 @@
       <c r="G258" t="n">
         <v>0.0</v>
       </c>
-      <c r="H258"/>
-      <c r="I258"/>
-      <c r="J258"/>
-      <c r="K258"/>
-      <c r="L258"/>
+      <c r="H258" t="n">
+        <v>0.4422132290899727</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.43416704503915127</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.8154186033014671</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0.03904242652127593</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0.6908296793446259</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
@@ -7593,11 +8403,21 @@
       <c r="G259" t="n">
         <v>0.0</v>
       </c>
-      <c r="H259"/>
-      <c r="I259"/>
-      <c r="J259"/>
-      <c r="K259"/>
-      <c r="L259"/>
+      <c r="H259" t="n">
+        <v>0.3466169500263096</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.340932177937869</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.6603167600365594</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0.04625447749571718</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0.6957257960515618</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
@@ -7621,11 +8441,21 @@
       <c r="G260" t="n">
         <v>0.0</v>
       </c>
-      <c r="H260"/>
-      <c r="I260"/>
-      <c r="J260"/>
-      <c r="K260"/>
-      <c r="L260"/>
+      <c r="H260" t="n">
+        <v>0.17647449906850884</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.17332750788540913</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.9129751008630762</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0.037977614820532614</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0.7216996649066366</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
@@ -7649,11 +8479,21 @@
       <c r="G261" t="n">
         <v>0.0</v>
       </c>
-      <c r="H261"/>
-      <c r="I261"/>
-      <c r="J261"/>
-      <c r="K261"/>
-      <c r="L261"/>
+      <c r="H261" t="n">
+        <v>0.25106975939247017</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.24617641767415555</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.8549964316563786</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0.03645520144317498</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0.7202238030890187</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
@@ -7677,11 +8517,21 @@
       <c r="G262" t="n">
         <v>0.0</v>
       </c>
-      <c r="H262"/>
-      <c r="I262"/>
-      <c r="J262"/>
-      <c r="K262"/>
-      <c r="L262"/>
+      <c r="H262" t="n">
+        <v>0.2718518450424404</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.2673361316798495</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.692916691745605</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0.0404736799416011</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0.7219174351192561</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
@@ -7705,11 +8555,21 @@
       <c r="G263" t="n">
         <v>0.0</v>
       </c>
-      <c r="H263"/>
-      <c r="I263"/>
-      <c r="J263"/>
-      <c r="K263"/>
-      <c r="L263"/>
+      <c r="H263" t="n">
+        <v>0.21646949252412864</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.21279878954656126</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.9149785327680982</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0.03795080730345556</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0.7215829388653854</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
@@ -7733,11 +8593,21 @@
       <c r="G264" t="n">
         <v>0.0</v>
       </c>
-      <c r="H264"/>
-      <c r="I264"/>
-      <c r="J264"/>
-      <c r="K264"/>
-      <c r="L264"/>
+      <c r="H264" t="n">
+        <v>0.2784170764800717</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.273074070851713</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.8551057276670778</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0.036155202821869487</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0.7198679387817912</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
@@ -7761,11 +8631,21 @@
       <c r="G265" t="n">
         <v>0.0</v>
       </c>
-      <c r="H265"/>
-      <c r="I265"/>
-      <c r="J265"/>
-      <c r="K265"/>
-      <c r="L265"/>
+      <c r="H265" t="n">
+        <v>0.27921714894175764</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.27465170124892835</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.6910963287487892</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.0404736799416011</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0.7219174351192561</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
@@ -7789,11 +8669,21 @@
       <c r="G266" t="n">
         <v>0.0</v>
       </c>
-      <c r="H266"/>
-      <c r="I266"/>
-      <c r="J266"/>
-      <c r="K266"/>
-      <c r="L266"/>
+      <c r="H266" t="n">
+        <v>0.4375794223795562</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.4300988734141322</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.8804550072673261</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.04043309084757232</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0.7204252970397699</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
@@ -7817,11 +8707,21 @@
       <c r="G267" t="n">
         <v>0.0</v>
       </c>
-      <c r="H267"/>
-      <c r="I267"/>
-      <c r="J267"/>
-      <c r="K267"/>
-      <c r="L267"/>
+      <c r="H267" t="n">
+        <v>0.443752483270934</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.43570067594081396</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.8227307034155936</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.03397462136717151</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0.7158533295837375</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
@@ -7845,11 +8745,21 @@
       <c r="G268" t="n">
         <v>0.0</v>
       </c>
-      <c r="H268"/>
-      <c r="I268"/>
-      <c r="J268"/>
-      <c r="K268"/>
-      <c r="L268"/>
+      <c r="H268" t="n">
+        <v>0.3485679375626829</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.34284417376578324</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.6687887961318565</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.039762611275964393</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0.7205254865460418</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
@@ -7873,11 +8783,21 @@
       <c r="G269" t="n">
         <v>0.0</v>
       </c>
-      <c r="H269"/>
-      <c r="I269"/>
-      <c r="J269"/>
-      <c r="K269"/>
-      <c r="L269"/>
+      <c r="H269" t="n">
+        <v>0.17745742614791365</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0.17423140022737882</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.9120895827969935</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.029020824102791314</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0.7686153059181994</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
@@ -7901,11 +8821,21 @@
       <c r="G270" t="n">
         <v>0.0</v>
       </c>
-      <c r="H270"/>
-      <c r="I270"/>
-      <c r="J270"/>
-      <c r="K270"/>
-      <c r="L270"/>
+      <c r="H270" t="n">
+        <v>0.2562355680098215</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.2511467422181145</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.8599410269935424</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.02970755590842927</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0.7675227529844824</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
@@ -7929,11 +8859,21 @@
       <c r="G271" t="n">
         <v>0.0</v>
       </c>
-      <c r="H271"/>
-      <c r="I271"/>
-      <c r="J271"/>
-      <c r="K271"/>
-      <c r="L271"/>
+      <c r="H271" t="n">
+        <v>0.28219394744840676</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0.27741472680276563</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.7007937500226112</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.03098827470686767</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0.7694098353438408</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
@@ -7957,11 +8897,21 @@
       <c r="G272" t="n">
         <v>0.0</v>
       </c>
-      <c r="H272"/>
-      <c r="I272"/>
-      <c r="J272"/>
-      <c r="K272"/>
-      <c r="L272"/>
+      <c r="H272" t="n">
+        <v>0.21738417977264493</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0.21365243022303965</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.9143468910276408</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.02925243770314193</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0.7686116700201208</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
@@ -7985,11 +8935,21 @@
       <c r="G273" t="n">
         <v>0.0</v>
       </c>
-      <c r="H273"/>
-      <c r="I273"/>
-      <c r="J273"/>
-      <c r="K273"/>
-      <c r="L273"/>
+      <c r="H273" t="n">
+        <v>0.2834493070502259</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.2779046905984873</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.8598591114716536</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.029642094362824414</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0.76730067199675</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
@@ -8013,11 +8973,21 @@
       <c r="G274" t="n">
         <v>0.0</v>
       </c>
-      <c r="H274"/>
-      <c r="I274"/>
-      <c r="J274"/>
-      <c r="K274"/>
-      <c r="L274"/>
+      <c r="H274" t="n">
+        <v>0.2905459484358587</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.28563751985843777</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.6999138746867709</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.03098827470686767</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0.7694098353438408</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
@@ -8041,11 +9011,21 @@
       <c r="G275" t="n">
         <v>0.0</v>
       </c>
-      <c r="H275"/>
-      <c r="I275"/>
-      <c r="J275"/>
-      <c r="K275"/>
-      <c r="L275"/>
+      <c r="H275" t="n">
+        <v>0.43926593808947745</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.4316711583310288</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.8811027289653709</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.03090519844101663</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0.7663251058723071</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
@@ -8069,11 +9049,21 @@
       <c r="G276" t="n">
         <v>0.0</v>
       </c>
-      <c r="H276"/>
-      <c r="I276"/>
-      <c r="J276"/>
-      <c r="K276"/>
-      <c r="L276"/>
+      <c r="H276" t="n">
+        <v>0.44964011142994026</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.44136814625311954</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.8294550384778548</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.029600758453597387</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0.764890300297864</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
@@ -8097,11 +9087,21 @@
       <c r="G277" t="n">
         <v>0.0</v>
       </c>
-      <c r="H277"/>
-      <c r="I277"/>
-      <c r="J277"/>
-      <c r="K277"/>
-      <c r="L277"/>
+      <c r="H277" t="n">
+        <v>0.35871015553909824</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0.3527156773326626</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.6820353249193398</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.031090061874570314</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0.7684425547031983</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
@@ -8125,11 +9125,21 @@
       <c r="G278" t="n">
         <v>0.0</v>
       </c>
-      <c r="H278"/>
-      <c r="I278"/>
-      <c r="J278"/>
-      <c r="K278"/>
-      <c r="L278"/>
+      <c r="H278" t="n">
+        <v>0.10733948854704699</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0.10414115256593735</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.8972957386909169</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.005774002672265699</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0.8592351068776004</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
@@ -8153,11 +9163,21 @@
       <c r="G279" t="n">
         <v>0.0</v>
       </c>
-      <c r="H279"/>
-      <c r="I279"/>
-      <c r="J279"/>
-      <c r="K279"/>
-      <c r="L279"/>
+      <c r="H279" t="n">
+        <v>0.16291749596474903</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0.1580756458665925</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.775349365399073</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.004317189360857483</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0.8549000895423913</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
@@ -8209,11 +9229,21 @@
       <c r="G281" t="n">
         <v>0.0</v>
       </c>
-      <c r="H281"/>
-      <c r="I281"/>
-      <c r="J281"/>
-      <c r="K281"/>
-      <c r="L281"/>
+      <c r="H281" t="n">
+        <v>0.12438051780371318</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0.12059806949515915</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.9014325010830657</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.005786927236505076</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0.8591177856934028</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
@@ -8237,11 +9267,21 @@
       <c r="G282" t="n">
         <v>0.0</v>
       </c>
-      <c r="H282"/>
-      <c r="I282"/>
-      <c r="J282"/>
-      <c r="K282"/>
-      <c r="L282"/>
+      <c r="H282" t="n">
+        <v>0.17254836504218832</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0.16739264325199124</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.7800604640874589</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.004317189360857483</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0.8549000895423913</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
@@ -8293,11 +9333,21 @@
       <c r="G284" t="n">
         <v>0.0</v>
       </c>
-      <c r="H284"/>
-      <c r="I284"/>
-      <c r="J284"/>
-      <c r="K284"/>
-      <c r="L284"/>
+      <c r="H284" t="n">
+        <v>0.2921654362245627</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0.2843656700460773</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.8689787971064723</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.005987488829311886</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0.8594732431894769</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
@@ -8321,11 +9371,21 @@
       <c r="G285" t="n">
         <v>0.0</v>
       </c>
-      <c r="H285"/>
-      <c r="I285"/>
-      <c r="J285"/>
-      <c r="K285"/>
-      <c r="L285"/>
+      <c r="H285" t="n">
+        <v>0.2902479485620832</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0.28256018321526427</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.7546695701979161</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.004356584063334426</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0.8543425187262025</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
@@ -8377,11 +9437,21 @@
       <c r="G287" t="n">
         <v>0.0</v>
       </c>
-      <c r="H287"/>
-      <c r="I287"/>
-      <c r="J287"/>
-      <c r="K287"/>
-      <c r="L287"/>
+      <c r="H287" t="n">
+        <v>0.1348313717872707</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0.13029665018431305</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.884849115614803</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.004610206998294224</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0.8713236609005615</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
@@ -8405,11 +9475,21 @@
       <c r="G288" t="n">
         <v>0.0</v>
       </c>
-      <c r="H288"/>
-      <c r="I288"/>
-      <c r="J288"/>
-      <c r="K288"/>
-      <c r="L288"/>
+      <c r="H288" t="n">
+        <v>0.17683086446941912</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0.17137326938900277</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.7560198781809487</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.0031598602001244795</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0.8668469296385315</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
@@ -8433,11 +9513,21 @@
       <c r="G289" t="n">
         <v>0.0</v>
       </c>
-      <c r="H289"/>
-      <c r="I289"/>
-      <c r="J289"/>
-      <c r="K289"/>
-      <c r="L289"/>
+      <c r="H289" t="n">
+        <v>0.22719916680973215</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0.21999907635457466</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.6565682243452129</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.0031598602001244795</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0.8668469296385315</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
@@ -8461,11 +9551,21 @@
       <c r="G290" t="n">
         <v>0.0</v>
       </c>
-      <c r="H290"/>
-      <c r="I290"/>
-      <c r="J290"/>
-      <c r="K290"/>
-      <c r="L290"/>
+      <c r="H290" t="n">
+        <v>0.14932031146535282</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0.14431891613170156</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.8903630690223567</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.004629417426777284</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0.8712179521601899</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
@@ -8489,11 +9589,21 @@
       <c r="G291" t="n">
         <v>0.0</v>
       </c>
-      <c r="H291"/>
-      <c r="I291"/>
-      <c r="J291"/>
-      <c r="K291"/>
-      <c r="L291"/>
+      <c r="H291" t="n">
+        <v>0.18571591308452634</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0.17997474437717378</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.763059203828365</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.0031598602001244795</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0.8668469296385315</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -8545,11 +9655,21 @@
       <c r="G293" t="n">
         <v>0.0</v>
       </c>
-      <c r="H293"/>
-      <c r="I293"/>
-      <c r="J293"/>
-      <c r="K293"/>
-      <c r="L293"/>
+      <c r="H293" t="n">
+        <v>0.30785923706243806</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0.29932515826761796</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.8644114935289904</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.004888600475881463</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0.8716987274163115</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
@@ -8573,11 +9693,21 @@
       <c r="G294" t="n">
         <v>0.0</v>
       </c>
-      <c r="H294"/>
-      <c r="I294"/>
-      <c r="J294"/>
-      <c r="K294"/>
-      <c r="L294"/>
+      <c r="H294" t="n">
+        <v>0.2996360610971224</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0.2914943246449626</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.7487533206630498</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.0032605742233493343</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0.8663890654422116</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
@@ -8629,11 +9759,21 @@
       <c r="G296" t="n">
         <v>0.0</v>
       </c>
-      <c r="H296"/>
-      <c r="I296"/>
-      <c r="J296"/>
-      <c r="K296"/>
-      <c r="L296"/>
+      <c r="H296" t="n">
+        <v>0.13533656425974802</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.13076037475237318</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.8856620927020589</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.0047182062159120425</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0.876552131131746</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
@@ -8657,11 +9797,21 @@
       <c r="G297" t="n">
         <v>0.0</v>
       </c>
-      <c r="H297"/>
-      <c r="I297"/>
-      <c r="J297"/>
-      <c r="K297"/>
-      <c r="L297"/>
+      <c r="H297" t="n">
+        <v>0.18063740422286875</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0.17497940961792538</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.7634269439256202</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.003281027104136947</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0.8724749858410421</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
@@ -8685,11 +9835,21 @@
       <c r="G298" t="n">
         <v>0.0</v>
       </c>
-      <c r="H298"/>
-      <c r="I298"/>
-      <c r="J298"/>
-      <c r="K298"/>
-      <c r="L298"/>
+      <c r="H298" t="n">
+        <v>0.23009193446378337</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0.22278855114746005</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.6592006904474139</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.003053872214534523</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0.8720486356567227</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
@@ -8713,11 +9873,21 @@
       <c r="G299" t="n">
         <v>0.0</v>
       </c>
-      <c r="H299"/>
-      <c r="I299"/>
-      <c r="J299"/>
-      <c r="K299"/>
-      <c r="L299"/>
+      <c r="H299" t="n">
+        <v>0.14984542403505224</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0.1448016496088379</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.8911645957281021</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.004792953063603783</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0.876602284026878</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
@@ -8741,11 +9911,21 @@
       <c r="G300" t="n">
         <v>0.0</v>
       </c>
-      <c r="H300"/>
-      <c r="I300"/>
-      <c r="J300"/>
-      <c r="K300"/>
-      <c r="L300"/>
+      <c r="H300" t="n">
+        <v>0.1893423659625258</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0.18340038856939428</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.7713003890345065</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.0033598334279765284</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0.8724477143093329</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
@@ -8769,11 +9949,21 @@
       <c r="G301" t="n">
         <v>0.0</v>
       </c>
-      <c r="H301"/>
-      <c r="I301"/>
-      <c r="J301"/>
-      <c r="K301"/>
-      <c r="L301"/>
+      <c r="H301" t="n">
+        <v>0.23249262223721112</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.22519487338263128</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.6585542863527057</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.003053872214534523</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0.8720486356567227</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
@@ -8797,11 +9987,21 @@
       <c r="G302" t="n">
         <v>0.0</v>
       </c>
-      <c r="H302"/>
-      <c r="I302"/>
-      <c r="J302"/>
-      <c r="K302"/>
-      <c r="L302"/>
+      <c r="H302" t="n">
+        <v>0.3076513500586808</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.29909244351052366</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.8658224294051562</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.004908027826383851</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0.8771107338557179</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
@@ -8825,11 +10025,21 @@
       <c r="G303" t="n">
         <v>0.0</v>
       </c>
-      <c r="H303"/>
-      <c r="I303"/>
-      <c r="J303"/>
-      <c r="K303"/>
-      <c r="L303"/>
+      <c r="H303" t="n">
+        <v>0.30352690344131394</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.29521493435625445</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.7566561776097658</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.0033114064527677094</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0.8717016389150073</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
@@ -8853,11 +10063,21 @@
       <c r="G304" t="n">
         <v>0.0</v>
       </c>
-      <c r="H304"/>
-      <c r="I304"/>
-      <c r="J304"/>
-      <c r="K304"/>
-      <c r="L304"/>
+      <c r="H304" t="n">
+        <v>0.29834109433427736</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.28986996661062264</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.6507191501715797</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.003080928617921458</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0.8707933948460689</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
@@ -8881,11 +10101,21 @@
       <c r="G305" t="n">
         <v>0.0</v>
       </c>
-      <c r="H305"/>
-      <c r="I305"/>
-      <c r="J305"/>
-      <c r="K305"/>
-      <c r="L305"/>
+      <c r="H305" t="n">
+        <v>0.13537175643028695</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.13076742934965174</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.8863423648109024</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.0038821550273907606</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0.8894242886117879</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
@@ -8909,11 +10139,21 @@
       <c r="G306" t="n">
         <v>0.0</v>
       </c>
-      <c r="H306"/>
-      <c r="I306"/>
-      <c r="J306"/>
-      <c r="K306"/>
-      <c r="L306"/>
+      <c r="H306" t="n">
+        <v>0.186331737688733</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.180536412656887</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.7737208420399564</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.0029661016949152543</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0.8868876250707948</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
@@ -8937,11 +10177,21 @@
       <c r="G307" t="n">
         <v>0.0</v>
       </c>
-      <c r="H307"/>
-      <c r="I307"/>
-      <c r="J307"/>
-      <c r="K307"/>
-      <c r="L307"/>
+      <c r="H307" t="n">
+        <v>0.2363668093268888</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.22866082383656072</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.6674442979710211</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.0027401143289082063</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0.886440218671945</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
@@ -8965,11 +10215,21 @@
       <c r="G308" t="n">
         <v>0.0</v>
       </c>
-      <c r="H308"/>
-      <c r="I308"/>
-      <c r="J308"/>
-      <c r="K308"/>
-      <c r="L308"/>
+      <c r="H308" t="n">
+        <v>0.15002705628516677</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.14495706506319614</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.891835286539638</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.004443684840198256</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0.8912827311899237</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
@@ -8993,11 +10253,21 @@
       <c r="G309" t="n">
         <v>0.0</v>
       </c>
-      <c r="H309"/>
-      <c r="I309"/>
-      <c r="J309"/>
-      <c r="K309"/>
-      <c r="L309"/>
+      <c r="H309" t="n">
+        <v>0.19452556724837503</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.18846849205519461</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.7815699427051939</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.0030456377096804424</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0.8868727783748037</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
@@ -9021,11 +10291,21 @@
       <c r="G310" t="n">
         <v>0.0</v>
       </c>
-      <c r="H310"/>
-      <c r="I310"/>
-      <c r="J310"/>
-      <c r="K310"/>
-      <c r="L310"/>
+      <c r="H310" t="n">
+        <v>0.23805739661779127</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.2303694025145985</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.6678965087629563</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.0027401143289082063</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0.886440218671945</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
@@ -9049,11 +10329,21 @@
       <c r="G311" t="n">
         <v>0.0</v>
       </c>
-      <c r="H311"/>
-      <c r="I311"/>
-      <c r="J311"/>
-      <c r="K311"/>
-      <c r="L311"/>
+      <c r="H311" t="n">
+        <v>0.30690288707790614</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.29830565044587526</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.8673236201770896</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.00456158134820071</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0.8918277218271781</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
@@ -9077,11 +10367,21 @@
       <c r="G312" t="n">
         <v>0.0</v>
       </c>
-      <c r="H312"/>
-      <c r="I312"/>
-      <c r="J312"/>
-      <c r="K312"/>
-      <c r="L312"/>
+      <c r="H312" t="n">
+        <v>0.3103366727987724</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.3018522193418321</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.7677956842758616</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.0030200746136081007</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0.8862677669429256</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
@@ -9105,11 +10405,21 @@
       <c r="G313" t="n">
         <v>0.0</v>
       </c>
-      <c r="H313"/>
-      <c r="I313"/>
-      <c r="J313"/>
-      <c r="K313"/>
-      <c r="L313"/>
+      <c r="H313" t="n">
+        <v>0.30459969442123686</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.2958723855692785</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.6547388696316123</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.0028170234896420215</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0.8855070215837638</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
@@ -11149,11 +12459,21 @@
       <c r="G386" t="n">
         <v>0.0</v>
       </c>
-      <c r="H386"/>
-      <c r="I386"/>
-      <c r="J386"/>
-      <c r="K386"/>
-      <c r="L386"/>
+      <c r="H386" t="n">
+        <v>0.35073854741863314</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.34492780216350927</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.9517281223042752</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.09575518262586377</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0.6682291959534411</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
@@ -11177,11 +12497,21 @@
       <c r="G387" t="n">
         <v>0.0</v>
       </c>
-      <c r="H387"/>
-      <c r="I387"/>
-      <c r="J387"/>
-      <c r="K387"/>
-      <c r="L387"/>
+      <c r="H387" t="n">
+        <v>0.3813458162257829</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.3748561241167446</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.9414294365423471</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1025390625</v>
+      </c>
+      <c r="L387" t="n">
+        <v>0.6685573126572697</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
@@ -11205,11 +12535,21 @@
       <c r="G388" t="n">
         <v>0.0</v>
       </c>
-      <c r="H388"/>
-      <c r="I388"/>
-      <c r="J388"/>
-      <c r="K388"/>
-      <c r="L388"/>
+      <c r="H388" t="n">
+        <v>0.49385111996977327</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.48464752705494435</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.8721905069430735</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.261038961038961</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0.6792503011624087</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
@@ -11233,11 +12573,21 @@
       <c r="G389" t="n">
         <v>0.0</v>
       </c>
-      <c r="H389"/>
-      <c r="I389"/>
-      <c r="J389"/>
-      <c r="K389"/>
-      <c r="L389"/>
+      <c r="H389" t="n">
+        <v>0.34955870565017894</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0.3437081850927182</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.9531168887989149</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.02543424317617866</v>
+      </c>
+      <c r="L389" t="n">
+        <v>0.7004702514823145</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
@@ -11261,11 +12611,21 @@
       <c r="G390" t="n">
         <v>0.0</v>
       </c>
-      <c r="H390"/>
-      <c r="I390"/>
-      <c r="J390"/>
-      <c r="K390"/>
-      <c r="L390"/>
+      <c r="H390" t="n">
+        <v>0.3808975153199278</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.37438424974185075</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.9429734391178245</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0.7008080188196788</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
@@ -11289,11 +12649,21 @@
       <c r="G391" t="n">
         <v>0.0</v>
       </c>
-      <c r="H391"/>
-      <c r="I391"/>
-      <c r="J391"/>
-      <c r="K391"/>
-      <c r="L391"/>
+      <c r="H391" t="n">
+        <v>0.4939852533767666</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.48478658941867375</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.8718176775267357</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.16007445323406236</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0.71211576065702</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
@@ -11317,11 +12687,21 @@
       <c r="G392" t="n">
         <v>0.0</v>
       </c>
-      <c r="H392"/>
-      <c r="I392"/>
-      <c r="J392"/>
-      <c r="K392"/>
-      <c r="L392"/>
+      <c r="H392" t="n">
+        <v>0.34788344099796353</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.3420248460117837</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.9530058394732644</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.02543424317617866</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0.725250460028624</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
@@ -11345,11 +12725,21 @@
       <c r="G393" t="n">
         <v>0.0</v>
       </c>
-      <c r="H393"/>
-      <c r="I393"/>
-      <c r="J393"/>
-      <c r="K393"/>
-      <c r="L393"/>
+      <c r="H393" t="n">
+        <v>0.3798239032816623</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.3733346853019948</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.9433167155345759</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0.7256009000715966</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
@@ -11373,11 +12763,21 @@
       <c r="G394" t="n">
         <v>0.0</v>
       </c>
-      <c r="H394"/>
-      <c r="I394"/>
-      <c r="J394"/>
-      <c r="K394"/>
-      <c r="L394"/>
+      <c r="H394" t="n">
+        <v>0.49376608802426764</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.48452345562557886</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.8739485983576455</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.15840666975451598</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0.7373179621142205</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
@@ -11401,11 +12801,21 @@
       <c r="G395" t="n">
         <v>0.0</v>
       </c>
-      <c r="H395"/>
-      <c r="I395"/>
-      <c r="J395"/>
-      <c r="K395"/>
-      <c r="L395"/>
+      <c r="H395" t="n">
+        <v>0.3446261029907016</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.33882451084582615</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.9547499445893691</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.010292524377031419</v>
+      </c>
+      <c r="L395" t="n">
+        <v>0.7708911548979018</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
@@ -11429,11 +12839,21 @@
       <c r="G396" t="n">
         <v>0.0</v>
       </c>
-      <c r="H396"/>
-      <c r="I396"/>
-      <c r="J396"/>
-      <c r="K396"/>
-      <c r="L396"/>
+      <c r="H396" t="n">
+        <v>0.3771309992765831</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.3705812325407709</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.9459411805234944</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.013440860215053764</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0.7711655971160484</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
@@ -11457,11 +12877,21 @@
       <c r="G397" t="n">
         <v>0.0</v>
       </c>
-      <c r="H397"/>
-      <c r="I397"/>
-      <c r="J397"/>
-      <c r="K397"/>
-      <c r="L397"/>
+      <c r="H397" t="n">
+        <v>0.4943750041258068</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0.48505380138983045</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.878987783395618</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.13076278290025148</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0.7836502634280562</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
@@ -11485,11 +12915,21 @@
       <c r="G398" t="n">
         <v>0.0</v>
       </c>
-      <c r="H398"/>
-      <c r="I398"/>
-      <c r="J398"/>
-      <c r="K398"/>
-      <c r="L398"/>
+      <c r="H398" t="n">
+        <v>0.17221771241609818</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.1672694004486726</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.9172299594000107</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.0053683268714583956</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0.8598485048989768</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
@@ -11513,11 +12953,21 @@
       <c r="G399" t="n">
         <v>0.0</v>
       </c>
-      <c r="H399"/>
-      <c r="I399"/>
-      <c r="J399"/>
-      <c r="K399"/>
-      <c r="L399"/>
+      <c r="H399" t="n">
+        <v>0.2070621337364389</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.20134132554829698</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.9058277585215445</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.005678421996413628</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0.8598753765438961</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
@@ -11541,11 +12991,21 @@
       <c r="G400" t="n">
         <v>0.0</v>
       </c>
-      <c r="H400"/>
-      <c r="I400"/>
-      <c r="J400"/>
-      <c r="K400"/>
-      <c r="L400"/>
+      <c r="H400" t="n">
+        <v>0.3668008661810367</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.35688241822913064</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.8467121198909328</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.01093167701863354</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0.8627378759975445</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
@@ -11569,11 +13029,21 @@
       <c r="G401" t="n">
         <v>0.0</v>
       </c>
-      <c r="H401"/>
-      <c r="I401"/>
-      <c r="J401"/>
-      <c r="K401"/>
-      <c r="L401"/>
+      <c r="H401" t="n">
+        <v>0.1701936566157785</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.16528750451580954</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.9161486268592205</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.0015906680805938495</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0.871510390751543</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
@@ -11597,11 +13067,21 @@
       <c r="G402" t="n">
         <v>0.0</v>
       </c>
-      <c r="H402"/>
-      <c r="I402"/>
-      <c r="J402"/>
-      <c r="K402"/>
-      <c r="L402"/>
+      <c r="H402" t="n">
+        <v>0.20536313337238188</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.19958593096742766</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.9076904090444933</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.0015894039735099338</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0.8715083503162798</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
@@ -11625,11 +13105,21 @@
       <c r="G403" t="n">
         <v>0.0</v>
       </c>
-      <c r="H403"/>
-      <c r="I403"/>
-      <c r="J403"/>
-      <c r="K403"/>
-      <c r="L403"/>
+      <c r="H403" t="n">
+        <v>0.3659710581167682</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.3560477922275684</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.8506939890439069</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.007103574702108158</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0.8745432139599149</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
@@ -11653,11 +13143,21 @@
       <c r="G404" t="n">
         <v>0.0</v>
       </c>
-      <c r="H404"/>
-      <c r="I404"/>
-      <c r="J404"/>
-      <c r="K404"/>
-      <c r="L404"/>
+      <c r="H404" t="n">
+        <v>0.1683491802913506</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.16346914482803945</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.9161874400956982</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.001041124414367517</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0.8761843762902424</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
@@ -11681,11 +13181,21 @@
       <c r="G405" t="n">
         <v>0.0</v>
       </c>
-      <c r="H405"/>
-      <c r="I405"/>
-      <c r="J405"/>
-      <c r="K405"/>
-      <c r="L405"/>
+      <c r="H405" t="n">
+        <v>0.20383243718273372</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.19794314574204414</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.9064141266182718</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.0010403120936280884</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0.8761824100786068</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
@@ -11709,11 +13219,21 @@
       <c r="G406" t="n">
         <v>0.0</v>
       </c>
-      <c r="H406"/>
-      <c r="I406"/>
-      <c r="J406"/>
-      <c r="K406"/>
-      <c r="L406"/>
+      <c r="H406" t="n">
+        <v>0.3648154297843048</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.354785934923182</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.8501770224835987</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.006540369869192602</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0.8792537783207345</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
@@ -11737,11 +13257,21 @@
       <c r="G407" t="n">
         <v>0.0</v>
       </c>
-      <c r="H407"/>
-      <c r="I407"/>
-      <c r="J407"/>
-      <c r="K407"/>
-      <c r="L407"/>
+      <c r="H407" t="n">
+        <v>0.16467577577505113</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.15983221484143875</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.9179493580945317</v>
+      </c>
+      <c r="K407" t="n">
+        <v>5.17196793379881E-4</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0.8893434164360219</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
@@ -11765,11 +13295,21 @@
       <c r="G408" t="n">
         <v>0.0</v>
       </c>
-      <c r="H408"/>
-      <c r="I408"/>
-      <c r="J408"/>
-      <c r="K408"/>
-      <c r="L408"/>
+      <c r="H408" t="n">
+        <v>0.19958949673227316</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.1936651106215198</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.9092172311917752</v>
+      </c>
+      <c r="K408" t="n">
+        <v>7.735946364105209E-4</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0.8895070321887389</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
@@ -11793,11 +13333,21 @@
       <c r="G409" t="n">
         <v>0.0</v>
       </c>
-      <c r="H409"/>
-      <c r="I409"/>
-      <c r="J409"/>
-      <c r="K409"/>
-      <c r="L409"/>
+      <c r="H409" t="n">
+        <v>0.36221012942799474</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.3522234603221645</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.8543340016380354</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.006329113924050633</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0.8928013895326844</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
@@ -11139,11 +11139,21 @@
       <c r="G339" t="n">
         <v>0.0</v>
       </c>
-      <c r="H339"/>
-      <c r="I339"/>
-      <c r="J339"/>
-      <c r="K339"/>
-      <c r="L339"/>
+      <c r="H339" t="n">
+        <v>0.45096357326482567</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.4426670155933921</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.9216099039005023</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.699009900990099</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0.7890576910145197</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
@@ -10447,11 +10447,21 @@
       <c r="G315" t="n">
         <v>0.0</v>
       </c>
-      <c r="H315"/>
-      <c r="I315"/>
-      <c r="J315"/>
-      <c r="K315"/>
-      <c r="L315"/>
+      <c r="H315" t="n">
+        <v>0.1458438323596643</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.14318641404765112</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.9734308845016485</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0.7103068772235162</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
@@ -10531,11 +10541,21 @@
       <c r="G318" t="n">
         <v>0.0</v>
       </c>
-      <c r="H318"/>
-      <c r="I318"/>
-      <c r="J318"/>
-      <c r="K318"/>
-      <c r="L318"/>
+      <c r="H318" t="n">
+        <v>0.19270788327357888</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.18916028838395416</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.9662560628773215</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0.7103068772235162</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
@@ -10615,11 +10635,21 @@
       <c r="G321" t="n">
         <v>0.0</v>
       </c>
-      <c r="H321"/>
-      <c r="I321"/>
-      <c r="J321"/>
-      <c r="K321"/>
-      <c r="L321"/>
+      <c r="H321" t="n">
+        <v>0.4444690423134196</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.4364021458719731</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.9216099039005023</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.643979057591623</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0.7227086433288955</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
@@ -10793,11 +10823,21 @@
       <c r="G327" t="n">
         <v>0.0</v>
       </c>
-      <c r="H327"/>
-      <c r="I327"/>
-      <c r="J327"/>
-      <c r="K327"/>
-      <c r="L327"/>
+      <c r="H327" t="n">
+        <v>0.1936459239277054</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.19006853617504646</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.9662560628773215</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0.7351232371835889</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
@@ -10877,11 +10917,21 @@
       <c r="G330" t="n">
         <v>0.0</v>
       </c>
-      <c r="H330"/>
-      <c r="I330"/>
-      <c r="J330"/>
-      <c r="K330"/>
-      <c r="L330"/>
+      <c r="H330" t="n">
+        <v>0.4466242505670439</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.4384888379904051</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.9216099039005023</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.6330749354005168</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0.7479365377687982</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
@@ -10195,11 +10195,21 @@
       <c r="G306" t="n">
         <v>0.0</v>
       </c>
-      <c r="H306"/>
-      <c r="I306"/>
-      <c r="J306"/>
-      <c r="K306"/>
-      <c r="L306"/>
+      <c r="H306" t="n">
+        <v>0.1451146483726683</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.1424831084863354</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.9734308845016485</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0.6756315425763354</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
@@ -10233,11 +10233,21 @@
       <c r="G307" t="n">
         <v>0.0</v>
       </c>
-      <c r="H307"/>
-      <c r="I307"/>
-      <c r="J307"/>
-      <c r="K307"/>
-      <c r="L307"/>
+      <c r="H307" t="n">
+        <v>0.17452727130517598</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.1714980895712805</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.9700428072918947</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.6450617283950617</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0.6761018217606594</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
@@ -10289,11 +10299,21 @@
       <c r="G309" t="n">
         <v>0.0</v>
       </c>
-      <c r="H309"/>
-      <c r="I309"/>
-      <c r="J309"/>
-      <c r="K309"/>
-      <c r="L309"/>
+      <c r="H309" t="n">
+        <v>0.19174317961830442</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.18823004747431252</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.9662560628773215</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0.6756315425763354</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
@@ -10317,11 +10337,21 @@
       <c r="G310" t="n">
         <v>0.0</v>
       </c>
-      <c r="H310"/>
-      <c r="I310"/>
-      <c r="J310"/>
-      <c r="K310"/>
-      <c r="L310"/>
+      <c r="H310" t="n">
+        <v>0.2252372079607065</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.2212462890237275</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.9664701124206694</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.6450617283950617</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0.6761018217606594</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
@@ -10373,11 +10403,21 @@
       <c r="G312" t="n">
         <v>0.0</v>
       </c>
-      <c r="H312"/>
-      <c r="I312"/>
-      <c r="J312"/>
-      <c r="K312"/>
-      <c r="L312"/>
+      <c r="H312" t="n">
+        <v>0.44229997954803113</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.43430645412658947</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.9216099039005023</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.6412903225806451</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0.6875159947563313</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
@@ -10401,11 +10441,21 @@
       <c r="G313" t="n">
         <v>0.0</v>
       </c>
-      <c r="H313"/>
-      <c r="I313"/>
-      <c r="J313"/>
-      <c r="K313"/>
-      <c r="L313"/>
+      <c r="H313" t="n">
+        <v>0.4565601188353041</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.4477879124922109</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.9130871634312777</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.6396508728179551</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0.6878979892719345</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
@@ -10495,11 +10545,21 @@
       <c r="G316" t="n">
         <v>0.0</v>
       </c>
-      <c r="H316"/>
-      <c r="I316"/>
-      <c r="J316"/>
-      <c r="K316"/>
-      <c r="L316"/>
+      <c r="H316" t="n">
+        <v>0.1754208018881292</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.17236235459255067</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.9700428072918947</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.6958041958041958</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0.7104806199962096</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
@@ -10589,11 +10649,21 @@
       <c r="G319" t="n">
         <v>0.0</v>
       </c>
-      <c r="H319"/>
-      <c r="I319"/>
-      <c r="J319"/>
-      <c r="K319"/>
-      <c r="L319"/>
+      <c r="H319" t="n">
+        <v>0.2263672181076616</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.222338253527637</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.9664701124206694</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.6722408026755853</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0.7105261809742878</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
@@ -10683,11 +10753,21 @@
       <c r="G322" t="n">
         <v>0.0</v>
       </c>
-      <c r="H322"/>
-      <c r="I322"/>
-      <c r="J322"/>
-      <c r="K322"/>
-      <c r="L322"/>
+      <c r="H322" t="n">
+        <v>0.45880467815700826</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.4499516750308478</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.9130871634312777</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.6657681940700808</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0.7226575755835505</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
@@ -10777,11 +10857,21 @@
       <c r="G325" t="n">
         <v>0.0</v>
       </c>
-      <c r="H325"/>
-      <c r="I325"/>
-      <c r="J325"/>
-      <c r="K325"/>
-      <c r="L325"/>
+      <c r="H325" t="n">
+        <v>0.17628450002133172</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.17320071115991925</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.9700428072918947</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.7817460317460317</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0.7353737908573711</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
@@ -10871,11 +10961,21 @@
       <c r="G328" t="n">
         <v>0.0</v>
       </c>
-      <c r="H328"/>
-      <c r="I328"/>
-      <c r="J328"/>
-      <c r="K328"/>
-      <c r="L328"/>
+      <c r="H328" t="n">
+        <v>0.22747537957635686</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.22341289643235795</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.9664701124206694</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.7509433962264151</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0.7354229085042636</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
@@ -10965,11 +11065,21 @@
       <c r="G331" t="n">
         <v>0.0</v>
       </c>
-      <c r="H331"/>
-      <c r="I331"/>
-      <c r="J331"/>
-      <c r="K331"/>
-      <c r="L331"/>
+      <c r="H331" t="n">
+        <v>0.46104001127152733</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.4521074222122258</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.9130871634312777</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.6820083682008368</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0.7479373561628824</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
@@ -11059,11 +11169,21 @@
       <c r="G334" t="n">
         <v>0.0</v>
       </c>
-      <c r="H334"/>
-      <c r="I334"/>
-      <c r="J334"/>
-      <c r="K334"/>
-      <c r="L334"/>
+      <c r="H334" t="n">
+        <v>0.1730642026073492</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.1698812655516116</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.966267062445632</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0.781683001013856</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
@@ -11153,11 +11273,21 @@
       <c r="G337" t="n">
         <v>0.0</v>
       </c>
-      <c r="H337"/>
-      <c r="I337"/>
-      <c r="J337"/>
-      <c r="K337"/>
-      <c r="L337"/>
+      <c r="H337" t="n">
+        <v>0.22379053729603432</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.2198046923111069</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.9620483728309257</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.7471698113207547</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0.781738756363115</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
@@ -11247,11 +11377,21 @@
       <c r="G340" t="n">
         <v>0.0</v>
       </c>
-      <c r="H340"/>
-      <c r="I340"/>
-      <c r="J340"/>
-      <c r="K340"/>
-      <c r="L340"/>
+      <c r="H340" t="n">
+        <v>0.45940195279363333</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.4503846334763228</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.914757749568065</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.6689560439560439</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0.795067681100431</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
@@ -11807,11 +11947,21 @@
       <c r="G360" t="n">
         <v>0.0</v>
       </c>
-      <c r="H360"/>
-      <c r="I360"/>
-      <c r="J360"/>
-      <c r="K360"/>
-      <c r="L360"/>
+      <c r="H360" t="n">
+        <v>0.052529342413519746</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.050926119951165756</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.9610206480558033</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.26573426573426573</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0.8837678176889368</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
@@ -11891,11 +12041,21 @@
       <c r="G363" t="n">
         <v>0.0</v>
       </c>
-      <c r="H363"/>
-      <c r="I363"/>
-      <c r="J363"/>
-      <c r="K363"/>
-      <c r="L363"/>
+      <c r="H363" t="n">
+        <v>0.07986199195344489</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.07763928925725423</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.9591518468234468</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.26573426573426573</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0.8837678176889368</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
@@ -11975,11 +12135,21 @@
       <c r="G366" t="n">
         <v>0.0</v>
       </c>
-      <c r="H366"/>
-      <c r="I366"/>
-      <c r="J366"/>
-      <c r="K366"/>
-      <c r="L366"/>
+      <c r="H366" t="n">
+        <v>0.2945070590849436</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.2861704407071733</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.9108599769005388</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.27548209366391185</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0.8933782504534902</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
@@ -12059,11 +12229,21 @@
       <c r="G369" t="n">
         <v>0.0</v>
       </c>
-      <c r="H369"/>
-      <c r="I369"/>
-      <c r="J369"/>
-      <c r="K369"/>
-      <c r="L369"/>
+      <c r="H369" t="n">
+        <v>0.05306846475566288</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.05144415366669064</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.9610206480558033</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0.8962273006998842</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
@@ -12143,11 +12323,21 @@
       <c r="G372" t="n">
         <v>0.0</v>
       </c>
-      <c r="H372"/>
-      <c r="I372"/>
-      <c r="J372"/>
-      <c r="K372"/>
-      <c r="L372"/>
+      <c r="H372" t="n">
+        <v>0.08065696194857029</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.07840497705770334</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.9591518468234468</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0.8962273006998842</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
@@ -12227,11 +12417,21 @@
       <c r="G375" t="n">
         <v>0.0</v>
       </c>
-      <c r="H375"/>
-      <c r="I375"/>
-      <c r="J375"/>
-      <c r="K375"/>
-      <c r="L375"/>
+      <c r="H375" t="n">
+        <v>0.29734574699583904</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.2888836726990277</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.9108599769005388</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.3299319727891156</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0.9064740599060567</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity) post adj.xlsx
@@ -11443,11 +11443,21 @@
       <c r="G342" t="n">
         <v>0.0</v>
       </c>
-      <c r="H342"/>
-      <c r="I342"/>
-      <c r="J342"/>
-      <c r="K342"/>
-      <c r="L342"/>
+      <c r="H342" t="n">
+        <v>0.05200624828973808</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.05042956476838498</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.9610206480558033</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.26573426573426573</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0.866620005954464</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
@@ -11471,11 +11481,21 @@
       <c r="G343" t="n">
         <v>0.0</v>
       </c>
-      <c r="H343"/>
-      <c r="I343"/>
-      <c r="J343"/>
-      <c r="K343"/>
-      <c r="L343"/>
+      <c r="H343" t="n">
+        <v>0.0726307474966201</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.0705295620618563</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.9657702854484762</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.23353293413173654</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0.8668777561811608</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
@@ -11527,11 +11547,21 @@
       <c r="G345" t="n">
         <v>0.0</v>
       </c>
-      <c r="H345"/>
-      <c r="I345"/>
-      <c r="J345"/>
-      <c r="K345"/>
-      <c r="L345"/>
+      <c r="H345" t="n">
+        <v>0.07909878442694886</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.07690897522619757</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.9591518468234468</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.26573426573426573</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0.866620005954464</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
@@ -11555,11 +11585,21 @@
       <c r="G346" t="n">
         <v>0.0</v>
       </c>
-      <c r="H346"/>
-      <c r="I346"/>
-      <c r="J346"/>
-      <c r="K346"/>
-      <c r="L346"/>
+      <c r="H346" t="n">
+        <v>0.09877877252304744</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.09610847128647713</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.9608154556366054</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.23353293413173654</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0.8668777561811608</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
@@ -11611,11 +11651,21 @@
       <c r="G348" t="n">
         <v>0.0</v>
       </c>
-      <c r="H348"/>
-      <c r="I348"/>
-      <c r="J348"/>
-      <c r="K348"/>
-      <c r="L348"/>
+      <c r="H348" t="n">
+        <v>0.2916591609906195</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.2834349216818492</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.9108599769005388</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.27823691460055094</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0.876194103272081</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
@@ -11639,11 +11689,21 @@
       <c r="G349" t="n">
         <v>0.0</v>
       </c>
-      <c r="H349"/>
-      <c r="I349"/>
-      <c r="J349"/>
-      <c r="K349"/>
-      <c r="L349"/>
+      <c r="H349" t="n">
+        <v>0.29888435259950724</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.29063840575002264</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.8986202532882835</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.22926829268292684</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0.8748718761557563</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
@@ -11695,11 +11755,21 @@
       <c r="G351" t="n">
         <v>0.0</v>
       </c>
-      <c r="H351"/>
-      <c r="I351"/>
-      <c r="J351"/>
-      <c r="K351"/>
-      <c r="L351"/>
+      <c r="H351" t="n">
+        <v>0.05227032012913947</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.050681468552386526</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.9610206480558033</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.26573426573426573</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0.8789467911184469</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
@@ -11723,11 +11793,21 @@
       <c r="G352" t="n">
         <v>0.0</v>
       </c>
-      <c r="H352"/>
-      <c r="I352"/>
-      <c r="J352"/>
-      <c r="K352"/>
-      <c r="L352"/>
+      <c r="H352" t="n">
+        <v>0.07299014127102439</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.07087267402870724</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.9657702854484762</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0.8785064769069444</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
@@ -11779,11 +11859,21 @@
       <c r="G354" t="n">
         <v>0.0</v>
       </c>
-      <c r="H354"/>
-      <c r="I354"/>
-      <c r="J354"/>
-      <c r="K354"/>
-      <c r="L354"/>
+      <c r="H354" t="n">
+        <v>0.07948599880912582</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.07728072907836685</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.9591518468234468</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.26573426573426573</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0.8789467911184469</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
@@ -11807,11 +11897,21 @@
       <c r="G355" t="n">
         <v>0.0</v>
       </c>
-      <c r="H355"/>
-      <c r="I355"/>
-      <c r="J355"/>
-      <c r="K355"/>
-      <c r="L355"/>
+      <c r="H355" t="n">
+        <v>0.09925855656800467</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.09656945434645618</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.9608154556366054</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0.8785064769069444</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
@@ -11863,11 +11963,21 @@
       <c r="G357" t="n">
         <v>0.0</v>
       </c>
-      <c r="H357"/>
-      <c r="I357"/>
-      <c r="J357"/>
-      <c r="K357"/>
-      <c r="L357"/>
+      <c r="H357" t="n">
+        <v>0.29309169762732146</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.2848117449776265</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.9108599769005388</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.27548209366391185</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0.8885445478055307</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
@@ -11891,11 +12001,21 @@
       <c r="G358" t="n">
         <v>0.0</v>
       </c>
-      <c r="H358"/>
-      <c r="I358"/>
-      <c r="J358"/>
-      <c r="K358"/>
-      <c r="L358"/>
+      <c r="H358" t="n">
+        <v>0.3003069544659641</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.2920073520969115</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.8986202532882835</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.2713864306784661</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0.8873085512457037</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
@@ -11985,11 +12105,21 @@
       <c r="G361" t="n">
         <v>0.0</v>
       </c>
-      <c r="H361"/>
-      <c r="I361"/>
-      <c r="J361"/>
-      <c r="K361"/>
-      <c r="L361"/>
+      <c r="H361" t="n">
+        <v>0.07333977560828868</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0.07120701151667837</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.9657702854484762</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0.8833217689807544</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
@@ -12079,11 +12209,21 @@
       <c r="G364" t="n">
         <v>0.0</v>
       </c>
-      <c r="H364"/>
-      <c r="I364"/>
-      <c r="J364"/>
-      <c r="K364"/>
-      <c r="L364"/>
+      <c r="H364" t="n">
+        <v>0.09972528261715936</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.09701702022479815</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.9608154556366054</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0.8833217689807544</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
@@ -12173,11 +12313,21 @@
       <c r="G367" t="n">
         <v>0.0</v>
       </c>
-      <c r="H367"/>
-      <c r="I367"/>
-      <c r="J367"/>
-      <c r="K367"/>
-      <c r="L367"/>
+      <c r="H367" t="n">
+        <v>0.3017275233993283</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.293373426815759</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.8986202532882835</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.2847682119205298</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0.8916808167311769</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
@@ -12267,11 +12417,21 @@
       <c r="G370" t="n">
         <v>0.0</v>
       </c>
-      <c r="H370"/>
-      <c r="I370"/>
-      <c r="J370"/>
-      <c r="K370"/>
-      <c r="L370"/>
+      <c r="H370" t="n">
+        <v>0.06971703162810308</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.06761498057013633</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.9641039749588847</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0.896489479917154</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
@@ -12361,11 +12521,21 @@
       <c r="G373" t="n">
         <v>0.0</v>
       </c>
-      <c r="H373"/>
-      <c r="I373"/>
-      <c r="J373"/>
-      <c r="K373"/>
-      <c r="L373"/>
+      <c r="H373" t="n">
+        <v>0.09521534263011049</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.09255477306678758</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.9642751651638839</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0.896489479917154</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
@@ -12455,11 +12625,21 @@
       <c r="G376" t="n">
         <v>0.0</v>
       </c>
-      <c r="H376"/>
-      <c r="I376"/>
-      <c r="J376"/>
-      <c r="K376"/>
-      <c r="L376"/>
+      <c r="H376" t="n">
+        <v>0.2986245643411791</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.2901463292373488</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.9080194025542978</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.2847682119205298</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0.9049906662307392</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
